--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>valueIterationBasedBehavior_v2.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -477,16 +482,19 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>-103</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
         <v>-103</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>-85</v>
+        <v>-105</v>
       </c>
       <c r="E3" t="n">
         <v>-104</v>
@@ -509,7 +517,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +543,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
@@ -555,7 +569,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="6">
@@ -566,19 +583,22 @@
         <v>-105</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>-104</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +618,13 @@
         <v>-105</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>-107</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="8">
@@ -609,22 +632,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
         <v>22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>34</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32</v>
       </c>
       <c r="G8" t="n">
         <v>-108</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +673,10 @@
         <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -655,13 +684,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>-85</v>
+        <v>-105</v>
       </c>
       <c r="E10" t="n">
         <v>-103</v>
@@ -671,6 +700,9 @@
       </c>
       <c r="G10" t="n">
         <v>-103</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="11">
@@ -678,13 +710,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
         <v>-104</v>
@@ -693,7 +725,10 @@
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -701,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>-85</v>
+        <v>-109</v>
       </c>
       <c r="E12" t="n">
         <v>-105</v>
@@ -716,7 +751,10 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -730,16 +768,19 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>-110</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -747,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>-109</v>
+        <v>-105</v>
       </c>
       <c r="E14" t="n">
         <v>-104</v>
@@ -762,7 +803,10 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>-109</v>
+        <v>-103</v>
       </c>
       <c r="E15" t="n">
         <v>-108</v>
@@ -785,7 +829,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -793,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>22</v>
@@ -802,13 +849,16 @@
         <v>-110</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-125</v>
       </c>
     </row>
     <row r="17">
@@ -816,22 +866,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>-85</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -839,13 +892,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>-103</v>
+        <v>-108</v>
       </c>
       <c r="E18" t="n">
         <v>-105</v>
@@ -854,7 +907,10 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="19">
@@ -865,19 +921,22 @@
         <v>-103</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>-110</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
         <v>-114</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -885,13 +944,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
         <v>-105</v>
@@ -901,6 +960,9 @@
       </c>
       <c r="G20" t="n">
         <v>-109</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="21">
@@ -914,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>-108</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>-105</v>
@@ -923,7 +985,10 @@
         <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -937,16 +1002,19 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>-106</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="23">
@@ -954,22 +1022,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>-113</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
         <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="24">
@@ -977,13 +1048,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
         <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="E24" t="n">
         <v>-104</v>
@@ -992,7 +1063,10 @@
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1006,16 +1080,19 @@
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>-104</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1023,13 +1100,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>-93</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
         <v>-105</v>
@@ -1038,7 +1115,10 @@
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1052,16 +1132,19 @@
         <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>-85</v>
+        <v>-105</v>
       </c>
       <c r="E27" t="n">
         <v>-104</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1069,13 +1152,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="E28" t="n">
         <v>-113</v>
@@ -1084,7 +1167,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1092,22 +1178,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>-122</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -1115,11 +1204,9 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-104</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>-105</v>
       </c>
@@ -1127,10 +1214,13 @@
         <v>-104</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H30" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1138,13 +1228,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>-105</v>
       </c>
       <c r="E31" t="n">
         <v>-104</v>
@@ -1153,7 +1241,10 @@
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -1161,22 +1252,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
+        <v>-105</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>-102</v>
+        <v>-107</v>
       </c>
       <c r="E32" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1184,13 +1276,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-105</v>
-      </c>
-      <c r="C33" t="n">
-        <v>22</v>
-      </c>
+        <v>-103</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>-105</v>
+        <v>-107</v>
       </c>
       <c r="E33" t="n">
         <v>-104</v>
@@ -1199,7 +1289,10 @@
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>24</v>
+        <v>-103</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -1207,11 +1300,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-105</v>
+        <v>-152</v>
       </c>
       <c r="E34" t="n">
         <v>-104</v>
@@ -1220,6 +1313,9 @@
         <v>17</v>
       </c>
       <c r="G34" t="n">
+        <v>17</v>
+      </c>
+      <c r="H34" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1232,7 +1328,7 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E35" t="n">
         <v>-104</v>
@@ -1241,7 +1337,10 @@
         <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1253,16 +1352,17 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-107</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>-104</v>
+        <v>-105</v>
       </c>
       <c r="F36" t="n">
-        <v>-17</v>
-      </c>
-      <c r="G36" t="n">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -1274,15 +1374,16 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>-152</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>-105</v>
+        <v>-103</v>
       </c>
       <c r="F37" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G37" t="n">
+        <v>22</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1291,20 +1392,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>-196</v>
+        <v>21</v>
       </c>
       <c r="E38" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="F38" t="n">
-        <v>-57</v>
-      </c>
-      <c r="G38" t="n">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>-112</v>
       </c>
     </row>
     <row r="39">
@@ -1312,20 +1414,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>-85</v>
+        <v>-146</v>
       </c>
       <c r="E39" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F39" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G39" t="n">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -1337,16 +1440,17 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>-12</v>
+        <v>-111</v>
       </c>
       <c r="E40" t="n">
-        <v>34</v>
+        <v>-104</v>
       </c>
       <c r="F40" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G40" t="n">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1354,20 +1458,21 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>-86</v>
+        <v>-109</v>
       </c>
       <c r="E41" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-103</v>
+        <v>19</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -1375,19 +1480,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G42" t="n">
+        <v>11</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1400,15 +1506,16 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>-85</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
         <v>24</v>
       </c>
       <c r="F43" t="n">
-        <v>-19</v>
-      </c>
-      <c r="G43" t="n">
+        <v>14</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1421,16 +1528,17 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>-146</v>
+        <v>-107</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="F44" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-104</v>
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -1442,16 +1550,17 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>-17</v>
+        <v>-107</v>
       </c>
       <c r="E45" t="n">
-        <v>-105</v>
+        <v>-103</v>
       </c>
       <c r="F45" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G45" t="n">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -1459,19 +1568,20 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>-15</v>
+        <v>-111</v>
       </c>
       <c r="E46" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="F46" t="n">
-        <v>-21</v>
-      </c>
-      <c r="G46" t="n">
+        <v>19</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1484,15 +1594,16 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>-19</v>
+        <v>-112</v>
       </c>
       <c r="E47" t="n">
-        <v>-104</v>
+        <v>-105</v>
       </c>
       <c r="F47" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G47" t="n">
+        <v>13</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1501,19 +1612,20 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
+        <v>-108</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>-11</v>
+        <v>-107</v>
       </c>
       <c r="E48" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
-      </c>
-      <c r="G48" t="n">
+        <v>18</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1526,16 +1638,17 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>-11</v>
+        <v>-111</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>-103</v>
       </c>
       <c r="F49" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-104</v>
+        <v>17</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -1547,16 +1660,17 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>-13</v>
+        <v>-119</v>
       </c>
       <c r="E50" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="F50" t="n">
-        <v>-17</v>
-      </c>
-      <c r="G50" t="n">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -1568,15 +1682,16 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>-13</v>
+        <v>-109</v>
       </c>
       <c r="E51" t="n">
         <v>-104</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
-      </c>
-      <c r="G51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1589,16 +1704,17 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>-17</v>
+        <v>-107</v>
       </c>
       <c r="E52" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>-12</v>
-      </c>
-      <c r="G52" t="n">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1606,19 +1722,20 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>-18</v>
+        <v>-107</v>
       </c>
       <c r="E53" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="F53" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G53" t="n">
+        <v>17</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1627,19 +1744,20 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-108</v>
+        <v>25</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>-13</v>
+        <v>-107</v>
       </c>
       <c r="E54" t="n">
-        <v>-105</v>
+        <v>-109</v>
       </c>
       <c r="F54" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1652,16 +1770,17 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>-17</v>
+        <v>-107</v>
       </c>
       <c r="E55" t="n">
-        <v>-109</v>
+        <v>24</v>
       </c>
       <c r="F55" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G55" t="n">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-108</v>
       </c>
     </row>
     <row r="56">
@@ -1673,16 +1792,17 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>-25</v>
+        <v>-107</v>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="F56" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-103</v>
+        <v>-124</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -1694,16 +1814,17 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>-15</v>
+        <v>-107</v>
       </c>
       <c r="E57" t="n">
         <v>-104</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-124</v>
+        <v>-113</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="58">
@@ -1715,16 +1836,17 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>-11</v>
+        <v>-107</v>
       </c>
       <c r="E58" t="n">
+        <v>24</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>-104</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G58" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -1732,20 +1854,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>-87</v>
+        <v>-110</v>
       </c>
       <c r="E59" t="n">
         <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-103</v>
+        <v>22</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -1757,15 +1880,16 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>-87</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
         <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1774,252 +1898,212 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>-107</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>-87</v>
+        <v>-107</v>
       </c>
       <c r="E61" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="F61" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-116</v>
+        <v>14</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>25</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>-88</v>
+        <v>-110</v>
       </c>
       <c r="E62" t="n">
-        <v>-105</v>
+        <v>-103</v>
       </c>
       <c r="F62" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-104</v>
+        <v>20</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>25</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>-87</v>
+        <v>21</v>
       </c>
       <c r="E63" t="n">
-        <v>-103</v>
+        <v>-109</v>
       </c>
       <c r="F63" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G63" t="n">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>25</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>-111</v>
+        <v>-107</v>
       </c>
       <c r="E64" t="n">
-        <v>-109</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-103</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>25</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>-87</v>
+        <v>-107</v>
       </c>
       <c r="E65" t="n">
         <v>24</v>
       </c>
       <c r="F65" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-103</v>
-      </c>
+        <v>-107</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>25</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>-87</v>
+        <v>-107</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="F66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G66" t="n">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>25</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>-87</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
         <v>-105</v>
       </c>
       <c r="F67" t="n">
-        <v>-9</v>
-      </c>
-      <c r="G67" t="n">
-        <v>25</v>
-      </c>
+        <v>-137</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>-106</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>-87</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="F68" t="n">
-        <v>21</v>
-      </c>
-      <c r="G68" t="n">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>-104</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
-        <v>-90</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>24</v>
       </c>
       <c r="F69" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G69" t="n">
-        <v>25</v>
-      </c>
+        <v>-136</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>35</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>-15</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="F70" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G70" t="n">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>25</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="n">
-        <v>-87</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F71" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G71" t="n">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>-103</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="n">
-        <v>-90</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>24</v>
+        <v>-107</v>
       </c>
       <c r="F72" t="n">
-        <v>-137</v>
-      </c>
-      <c r="G72" t="n">
-        <v>25</v>
-      </c>
+        <v>-106</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2027,18 +2111,15 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>-11</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G73" t="n">
-        <v>25</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2046,18 +2127,15 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
-        <v>-87</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="F74" t="n">
-        <v>-136</v>
-      </c>
-      <c r="G74" t="n">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2065,18 +2143,15 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
-        <v>-87</v>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G75" t="n">
-        <v>25</v>
-      </c>
+        <v>-111</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2084,18 +2159,15 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
-        <v>-87</v>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>-104</v>
       </c>
       <c r="F76" t="n">
-        <v>-17</v>
-      </c>
-      <c r="G76" t="n">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2103,18 +2175,15 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="n">
-        <v>-15</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>24</v>
+        <v>-107</v>
       </c>
       <c r="F77" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-103</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2122,551 +2191,15 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>-27</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F78" t="n">
-        <v>-21</v>
-      </c>
-      <c r="G78" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="n">
-        <v>-112</v>
-      </c>
-      <c r="E79" t="n">
-        <v>22</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-12</v>
-      </c>
-      <c r="G79" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
-        <v>-104</v>
-      </c>
-      <c r="E80" t="n">
-        <v>24</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G80" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-9</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="n">
-        <v>-85</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-111</v>
-      </c>
-      <c r="G82" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="n">
-        <v>-11</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G83" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G84" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-12</v>
-      </c>
-      <c r="G85" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F86" t="n">
-        <v>20</v>
-      </c>
-      <c r="G86" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G87" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>-105</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="n">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="n">
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="n">
-        <v>-104</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="n">
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="n">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="n">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2679,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2718,6 +2251,11 @@
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>valueIterationBasedBehavior_v2.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2730,16 +2268,19 @@
         <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>-206</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>-206</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2747,13 +2288,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>-160</v>
+        <v>-210</v>
       </c>
       <c r="E3" t="n">
         <v>-208</v>
@@ -2762,7 +2303,10 @@
         <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2785,7 +2329,10 @@
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -2793,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>43</v>
@@ -2808,7 +2355,10 @@
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="6">
@@ -2819,19 +2369,22 @@
         <v>-210</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
         <v>-208</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -2851,10 +2404,13 @@
         <v>-210</v>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>-214</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="8">
@@ -2862,22 +2418,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38</v>
+      </c>
+      <c r="E8" t="n">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
-        <v>37</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
         <v>-216</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -2900,7 +2459,10 @@
         <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -2908,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>-160</v>
+        <v>-210</v>
       </c>
       <c r="E10" t="n">
         <v>-206</v>
@@ -2924,6 +2486,9 @@
       </c>
       <c r="G10" t="n">
         <v>-206</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="11">
@@ -2931,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v>-208</v>
@@ -2946,7 +2511,10 @@
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2954,13 +2522,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>-160</v>
+        <v>-218</v>
       </c>
       <c r="E12" t="n">
         <v>-210</v>
@@ -2969,7 +2537,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -2983,16 +2554,19 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>-220</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -3000,13 +2574,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>-218</v>
+        <v>-210</v>
       </c>
       <c r="E14" t="n">
         <v>-208</v>
@@ -3015,7 +2589,10 @@
         <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -3029,7 +2606,7 @@
         <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>-218</v>
+        <v>-206</v>
       </c>
       <c r="E15" t="n">
         <v>-216</v>
@@ -3038,7 +2615,10 @@
         <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -3046,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
@@ -3055,13 +2635,16 @@
         <v>-220</v>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-250</v>
       </c>
     </row>
     <row r="17">
@@ -3069,22 +2652,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>-160</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -3092,13 +2678,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>-206</v>
+        <v>-216</v>
       </c>
       <c r="E18" t="n">
         <v>-210</v>
@@ -3107,7 +2693,10 @@
         <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="19">
@@ -3118,19 +2707,22 @@
         <v>-206</v>
       </c>
       <c r="C19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>-220</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>-228</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="H19" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3138,13 +2730,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>-210</v>
@@ -3154,6 +2746,9 @@
       </c>
       <c r="G20" t="n">
         <v>-218</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="21">
@@ -3167,7 +2762,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>-216</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
         <v>-210</v>
@@ -3176,7 +2771,10 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -3190,16 +2788,19 @@
         <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>-212</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="23">
@@ -3207,22 +2808,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
         <v>43</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>-226</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
         <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="24">
@@ -3230,13 +2834,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
         <v>47</v>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>-210</v>
       </c>
       <c r="E24" t="n">
         <v>-208</v>
@@ -3245,7 +2849,10 @@
         <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="H24" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3259,16 +2866,19 @@
         <v>43</v>
       </c>
       <c r="D25" t="n">
-        <v>42</v>
+        <v>-208</v>
       </c>
       <c r="E25" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="H25" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3276,13 +2886,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>-176</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
         <v>-210</v>
@@ -3291,7 +2901,10 @@
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -3305,16 +2918,19 @@
         <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>-160</v>
+        <v>-210</v>
       </c>
       <c r="E27" t="n">
         <v>-208</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -3322,13 +2938,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
         <v>43</v>
       </c>
       <c r="D28" t="n">
-        <v>-208</v>
+        <v>-212</v>
       </c>
       <c r="E28" t="n">
         <v>-226</v>
@@ -3337,7 +2953,10 @@
         <v>33</v>
       </c>
       <c r="G28" t="n">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="H28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -3345,22 +2964,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C29" t="n">
         <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>-244</v>
       </c>
       <c r="E29" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="H29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -3368,11 +2990,9 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-208</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>-210</v>
       </c>
@@ -3380,10 +3000,13 @@
         <v>-208</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -3391,13 +3014,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57</v>
-      </c>
-      <c r="C31" t="n">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>-210</v>
       </c>
       <c r="E31" t="n">
         <v>-208</v>
@@ -3406,7 +3027,10 @@
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="H31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -3414,22 +3038,23 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57</v>
-      </c>
-      <c r="C32" t="n">
+        <v>-210</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>-214</v>
+      </c>
+      <c r="E32" t="n">
         <v>43</v>
       </c>
-      <c r="D32" t="n">
-        <v>-194</v>
-      </c>
-      <c r="E32" t="n">
-        <v>53</v>
-      </c>
       <c r="F32" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="H32" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -3437,13 +3062,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-210</v>
-      </c>
-      <c r="C33" t="n">
-        <v>47</v>
-      </c>
+        <v>-206</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>-210</v>
+        <v>-214</v>
       </c>
       <c r="E33" t="n">
         <v>-208</v>
@@ -3452,7 +3075,10 @@
         <v>43</v>
       </c>
       <c r="G33" t="n">
-        <v>38</v>
+        <v>-206</v>
+      </c>
+      <c r="H33" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -3460,11 +3086,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-210</v>
+        <v>-304</v>
       </c>
       <c r="E34" t="n">
         <v>-208</v>
@@ -3473,6 +3099,9 @@
         <v>37</v>
       </c>
       <c r="G34" t="n">
+        <v>37</v>
+      </c>
+      <c r="H34" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3485,7 +3114,7 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E35" t="n">
         <v>-208</v>
@@ -3494,7 +3123,10 @@
         <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="H35" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -3502,20 +3134,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-214</v>
+        <v>42</v>
       </c>
       <c r="E36" t="n">
-        <v>-208</v>
+        <v>-210</v>
       </c>
       <c r="F36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -3527,15 +3160,16 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>-304</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>-210</v>
+        <v>-206</v>
       </c>
       <c r="F37" t="n">
-        <v>17</v>
-      </c>
-      <c r="G37" t="n">
+        <v>47</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3544,20 +3178,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>-392</v>
+        <v>46</v>
       </c>
       <c r="E38" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="F38" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G38" t="n">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>-224</v>
       </c>
     </row>
     <row r="39">
@@ -3565,20 +3200,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-206</v>
+        <v>36</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>-160</v>
+        <v>-292</v>
       </c>
       <c r="E39" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
-      </c>
-      <c r="G39" t="n">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -3586,20 +3222,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>-222</v>
       </c>
       <c r="E40" t="n">
-        <v>55</v>
+        <v>-208</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
-      </c>
-      <c r="G40" t="n">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,20 +3244,21 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>-162</v>
+        <v>-218</v>
       </c>
       <c r="E41" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
       <c r="F41" t="n">
-        <v>43</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-206</v>
+        <v>41</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="42">
@@ -3628,19 +3266,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>36</v>
+        <v>-206</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
-      </c>
-      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3649,20 +3288,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>-160</v>
+        <v>46</v>
       </c>
       <c r="E43" t="n">
         <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -3674,16 +3314,17 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>-292</v>
+        <v>-214</v>
       </c>
       <c r="E44" t="n">
-        <v>45</v>
+        <v>-210</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-208</v>
+        <v>18</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -3691,20 +3332,21 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>-214</v>
       </c>
       <c r="E45" t="n">
-        <v>-210</v>
+        <v>-206</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -3712,20 +3354,21 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-206</v>
+        <v>46</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>-222</v>
       </c>
       <c r="E46" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="F46" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G46" t="n">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -3737,16 +3380,17 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>-2</v>
+        <v>-224</v>
       </c>
       <c r="E47" t="n">
-        <v>-208</v>
+        <v>-210</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -3754,20 +3398,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>-216</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>-214</v>
       </c>
       <c r="E48" t="n">
-        <v>-210</v>
+        <v>45</v>
       </c>
       <c r="F48" t="n">
-        <v>44</v>
-      </c>
-      <c r="G48" t="n">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -3775,20 +3420,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>-222</v>
       </c>
       <c r="E49" t="n">
-        <v>45</v>
+        <v>-206</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-208</v>
+        <v>36</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -3796,20 +3442,21 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>-238</v>
       </c>
       <c r="E50" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3817,20 +3464,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>-218</v>
       </c>
       <c r="E51" t="n">
         <v>-208</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
-      </c>
-      <c r="G51" t="n">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -3838,20 +3486,21 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>-214</v>
       </c>
       <c r="E52" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
       <c r="F52" t="n">
-        <v>7</v>
-      </c>
-      <c r="G52" t="n">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3859,20 +3508,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-214</v>
       </c>
       <c r="E53" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F53" t="n">
+        <v>37</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>45</v>
-      </c>
-      <c r="F53" t="n">
-        <v>7</v>
-      </c>
-      <c r="G53" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -3880,19 +3530,20 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-216</v>
+        <v>47</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>-214</v>
       </c>
       <c r="E54" t="n">
-        <v>-210</v>
+        <v>-218</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3901,20 +3552,21 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>-214</v>
       </c>
       <c r="E55" t="n">
-        <v>-218</v>
+        <v>46</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" t="n">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-216</v>
       </c>
     </row>
     <row r="56">
@@ -3922,20 +3574,21 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>-14</v>
+        <v>-214</v>
       </c>
       <c r="E56" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-206</v>
+        <v>-248</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="57">
@@ -3943,20 +3596,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>-214</v>
       </c>
       <c r="E57" t="n">
         <v>-208</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-249</v>
+        <v>-226</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="58">
@@ -3968,16 +3622,17 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>14</v>
+        <v>-214</v>
       </c>
       <c r="E58" t="n">
+        <v>45</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-226</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>-208</v>
-      </c>
-      <c r="F58" t="n">
-        <v>13</v>
-      </c>
-      <c r="G58" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -3985,20 +3640,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>-164</v>
+        <v>-220</v>
       </c>
       <c r="E59" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" t="n">
-        <v>-248</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-206</v>
+        <v>47</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="60">
@@ -4006,20 +3662,21 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>-164</v>
+        <v>33</v>
       </c>
       <c r="E60" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" t="n">
-        <v>-226</v>
-      </c>
-      <c r="G60" t="n">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="61">
@@ -4027,252 +3684,212 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48</v>
+        <v>-214</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>-164</v>
+        <v>-214</v>
       </c>
       <c r="E61" t="n">
-        <v>45</v>
+        <v>-210</v>
       </c>
       <c r="F61" t="n">
-        <v>-226</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-250</v>
+        <v>30</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>47</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>-166</v>
+        <v>-220</v>
       </c>
       <c r="E62" t="n">
-        <v>-210</v>
+        <v>-206</v>
       </c>
       <c r="F62" t="n">
-        <v>17</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-208</v>
+        <v>43</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>47</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>-164</v>
+        <v>46</v>
       </c>
       <c r="E63" t="n">
-        <v>-206</v>
+        <v>-218</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
-      </c>
-      <c r="G63" t="n">
         <v>45</v>
       </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>47</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>-212</v>
+        <v>-214</v>
       </c>
       <c r="E64" t="n">
-        <v>-218</v>
+        <v>45</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-206</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>48</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>-164</v>
+        <v>-214</v>
       </c>
       <c r="E65" t="n">
         <v>45</v>
       </c>
       <c r="F65" t="n">
-        <v>13</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-206</v>
-      </c>
+        <v>-214</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>48</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>-164</v>
+        <v>-214</v>
       </c>
       <c r="E66" t="n">
-        <v>45</v>
+        <v>-210</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
-      </c>
-      <c r="G66" t="n">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>48</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>-164</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
         <v>-210</v>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
-      </c>
-      <c r="G67" t="n">
-        <v>45</v>
-      </c>
+        <v>-274</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>-212</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>-164</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="F68" t="n">
-        <v>-150</v>
-      </c>
-      <c r="G68" t="n">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>-208</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
-        <v>-170</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
-      </c>
-      <c r="G69" t="n">
-        <v>48</v>
-      </c>
+        <v>-272</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>57</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>2</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>43</v>
+        <v>-208</v>
       </c>
       <c r="F70" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G70" t="n">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>47</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="n">
-        <v>-164</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
-      </c>
-      <c r="G71" t="n">
-        <v>47</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>-206</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="n">
-        <v>-170</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>45</v>
+        <v>-214</v>
       </c>
       <c r="F72" t="n">
-        <v>-274</v>
-      </c>
-      <c r="G72" t="n">
-        <v>48</v>
-      </c>
+        <v>-212</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4280,18 +3897,15 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>14</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>-214</v>
+        <v>46</v>
       </c>
       <c r="F73" t="n">
-        <v>7</v>
-      </c>
-      <c r="G73" t="n">
-        <v>48</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4299,18 +3913,15 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
-        <v>-164</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>44</v>
+        <v>-210</v>
       </c>
       <c r="F74" t="n">
-        <v>-272</v>
-      </c>
-      <c r="G74" t="n">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4318,18 +3929,15 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
-        <v>-164</v>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
-      </c>
-      <c r="G75" t="n">
-        <v>45</v>
-      </c>
+        <v>-222</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4337,18 +3945,15 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
-        <v>-164</v>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>-208</v>
       </c>
       <c r="F76" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4356,18 +3961,15 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="n">
-        <v>4</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F77" t="n">
-        <v>-212</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-206</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4375,551 +3977,15 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>-20</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F78" t="n">
-        <v>-9</v>
-      </c>
-      <c r="G78" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="n">
-        <v>-224</v>
-      </c>
-      <c r="E79" t="n">
-        <v>41</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
-      </c>
-      <c r="G79" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
-        <v>-208</v>
-      </c>
-      <c r="E80" t="n">
-        <v>46</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9</v>
-      </c>
-      <c r="G80" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
-        <v>-16</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F81" t="n">
-        <v>13</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="n">
-        <v>-160</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-222</v>
-      </c>
-      <c r="G82" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="n">
-        <v>14</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F83" t="n">
-        <v>11</v>
-      </c>
-      <c r="G83" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F84" t="n">
-        <v>7</v>
-      </c>
-      <c r="G84" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F85" t="n">
-        <v>7</v>
-      </c>
-      <c r="G85" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F86" t="n">
-        <v>37</v>
-      </c>
-      <c r="G86" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G87" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>-210</v>
-      </c>
-      <c r="F88" t="n">
-        <v>37</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="n">
-        <v>-213</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="n">
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="n">
-        <v>-290</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="n">
-        <v>47</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,35 +437,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -476,24 +481,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
         <v>-105</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
         <v>-103</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>11</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-103</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -502,24 +510,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-105</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-104</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
       <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
         <v>24</v>
       </c>
     </row>
@@ -528,24 +539,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
         <v>-105</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-135</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-103</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>18</v>
       </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
       <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
         <v>25</v>
       </c>
     </row>
@@ -554,24 +568,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-110</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-105</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
-        <v>25</v>
-      </c>
       <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -580,24 +597,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
         <v>-105</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-104</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>19</v>
       </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
       <c r="H6" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" t="n">
         <v>25</v>
       </c>
     </row>
@@ -606,24 +626,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
         <v>-107</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-111</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-105</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>17</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>-107</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -635,21 +658,24 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>22</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>-108</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -658,24 +684,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
         <v>-104</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-116</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-104</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>14</v>
       </c>
-      <c r="G9" t="n">
-        <v>25</v>
-      </c>
       <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -684,24 +713,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-105</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-103</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-133</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>-103</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -713,21 +745,24 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-104</v>
       </c>
       <c r="F11" t="n">
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
       <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -739,21 +774,24 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
         <v>12</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-109</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-105</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -762,24 +800,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C13" t="n">
         <v>-104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-110</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>24</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -788,24 +829,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-105</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-104</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>18</v>
       </c>
-      <c r="G14" t="n">
-        <v>25</v>
-      </c>
       <c r="H14" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -814,24 +858,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
         <v>-103</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-103</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-108</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>15</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>10</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -840,24 +887,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-110</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>24</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>22</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>24</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-125</v>
       </c>
     </row>
@@ -866,24 +916,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>24</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>24</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -895,21 +948,24 @@
         <v>25</v>
       </c>
       <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-108</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-105</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>18</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>20</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -918,24 +974,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
         <v>-103</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>14</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-114</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>15</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>20</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>25</v>
       </c>
     </row>
@@ -947,22 +1006,25 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>21</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-105</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>15</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>-109</v>
       </c>
-      <c r="H20" t="n">
-        <v>-104</v>
+      <c r="I20" t="n">
+        <v>-134</v>
       </c>
     </row>
     <row r="21">
@@ -970,25 +1032,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C21" t="n">
         <v>-104</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-105</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>21</v>
       </c>
-      <c r="G21" t="n">
-        <v>25</v>
-      </c>
       <c r="H21" t="n">
         <v>25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="22">
@@ -996,25 +1061,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
         <v>-103</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-106</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>24</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>22</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>21</v>
       </c>
-      <c r="H22" t="n">
-        <v>-103</v>
+      <c r="I22" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1025,21 +1093,24 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
         <v>20</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-113</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>24</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>19</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>17</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1051,21 +1122,24 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-105</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-104</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>17</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>23</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1074,25 +1148,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
         <v>-103</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>20</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-104</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>13</v>
       </c>
-      <c r="G25" t="n">
-        <v>25</v>
-      </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1103,21 +1180,24 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
         <v>19</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>18</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-105</v>
       </c>
       <c r="F26" t="n">
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="H26" t="n">
+        <v>25</v>
+      </c>
+      <c r="I26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1129,21 +1209,24 @@
         <v>-103</v>
       </c>
       <c r="C27" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-105</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-104</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>17</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>10</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1152,24 +1235,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
         <v>20</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-106</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-113</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>15</v>
       </c>
-      <c r="G28" t="n">
-        <v>25</v>
-      </c>
       <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1181,21 +1267,24 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
         <v>18</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-122</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>24</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>20</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>24</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1206,20 +1295,23 @@
       <c r="B30" t="n">
         <v>25</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
         <v>-105</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-104</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>13</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>20</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1230,20 +1322,23 @@
       <c r="B31" t="n">
         <v>25</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
+        <v>25</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
         <v>-105</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-104</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>20</v>
       </c>
-      <c r="G31" t="n">
-        <v>25</v>
-      </c>
       <c r="H31" t="n">
+        <v>25</v>
+      </c>
+      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1252,23 +1347,26 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C32" t="n">
         <v>-105</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
         <v>-107</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>24</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>19</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>14</v>
       </c>
-      <c r="H32" t="n">
-        <v>25</v>
+      <c r="I32" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="33">
@@ -1276,23 +1374,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C33" t="n">
         <v>-103</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>-107</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-104</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>20</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>-103</v>
       </c>
-      <c r="H33" t="n">
-        <v>25</v>
+      <c r="I33" t="n">
+        <v>-112</v>
       </c>
     </row>
     <row r="34">
@@ -1300,23 +1401,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
         <v>-152</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-104</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
       </c>
       <c r="G34" t="n">
         <v>17</v>
       </c>
       <c r="H34" t="n">
-        <v>-103</v>
+        <v>17</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -1326,20 +1430,23 @@
       <c r="B35" t="n">
         <v>25</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
+        <v>25</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>21</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-104</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>22</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>23</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1350,18 +1457,21 @@
       <c r="B36" t="n">
         <v>25</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-105</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>13</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1370,20 +1480,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>13</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-103</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>22</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1392,21 +1505,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
         <v>-103</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>21</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-104</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>19</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>-112</v>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -1416,19 +1532,22 @@
       <c r="B39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>-146</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>24</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>17</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>25</v>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="40">
@@ -1438,19 +1557,22 @@
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
         <v>-111</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-104</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>21</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>10</v>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -1460,18 +1582,21 @@
       <c r="B41" t="n">
         <v>25</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
         <v>-109</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>24</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>19</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1480,21 +1605,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>-107</v>
+      </c>
+      <c r="C42" t="n">
         <v>-103</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>13</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>24</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>11</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>25</v>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1504,19 +1632,22 @@
       <c r="B43" t="n">
         <v>25</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>24</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>14</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>25</v>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -1524,20 +1655,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>-107</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-105</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1548,19 +1682,22 @@
       <c r="B45" t="n">
         <v>25</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
+        <v>25</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>-107</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-103</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>21</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>24</v>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>-108</v>
       </c>
     </row>
     <row r="46">
@@ -1570,18 +1707,21 @@
       <c r="B46" t="n">
         <v>25</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
         <v>-111</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>-104</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>19</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1592,19 +1732,22 @@
       <c r="B47" t="n">
         <v>25</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
+        <v>25</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
         <v>-112</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>-105</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>13</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>25</v>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="48">
@@ -1612,21 +1755,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>25</v>
+      </c>
+      <c r="C48" t="n">
         <v>-108</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>-107</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>24</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>18</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>25</v>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="49">
@@ -1634,21 +1780,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>-111</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-103</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>17</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>25</v>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1658,19 +1807,22 @@
       <c r="B50" t="n">
         <v>25</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
+        <v>25</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>-119</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>-104</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>17</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>23</v>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -1680,19 +1832,22 @@
       <c r="B51" t="n">
         <v>25</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>-109</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-104</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>15</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>25</v>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="52">
@@ -1702,19 +1857,22 @@
       <c r="B52" t="n">
         <v>25</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
+        <v>25</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
         <v>-107</v>
       </c>
-      <c r="E52" t="n">
-        <v>25</v>
-      </c>
       <c r="F52" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" t="n">
         <v>16</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>12</v>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -1722,22 +1880,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>25</v>
+      </c>
+      <c r="C53" t="n">
         <v>-103</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
         <v>-107</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>-105</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>17</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>25</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1746,86 +1905,90 @@
       <c r="B54" t="n">
         <v>25</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>-107</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-109</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>25</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
         <v>-107</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>24</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>20</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>-108</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
+        <v>24</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
         <v>-107</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-104</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>-124</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>25</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
+        <v>-110</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>-107</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-104</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>-113</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>-103</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1834,20 +1997,21 @@
       <c r="B58" t="n">
         <v>25</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
+        <v>25</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
         <v>-107</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>24</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>-113</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
-        <v>-104</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1856,20 +2020,21 @@
       <c r="B59" t="n">
         <v>25</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
+        <v>25</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
         <v>-110</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>24</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>22</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
-        <v>25</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1878,42 +2043,42 @@
       <c r="B60" t="n">
         <v>25</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
+        <v>25</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
         <v>16</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>24</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>20</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
-        <v>25</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
         <v>-107</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>-105</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>14</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
-        <v>-103</v>
-      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1921,19 +2086,18 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
         <v>-110</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-103</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>20</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
-        <v>25</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1941,17 +2105,18 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
         <v>21</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>-109</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>21</v>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1959,17 +2124,18 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
         <v>-107</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>24</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>15</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1977,17 +2143,18 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
         <v>-107</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>24</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>-107</v>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1995,17 +2162,18 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
         <v>-107</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-105</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>20</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2013,17 +2181,18 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
         <v>5</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-105</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>-137</v>
       </c>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2032,14 +2201,15 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
         <v>24</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>17</v>
       </c>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2048,14 +2218,15 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>24</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>-136</v>
       </c>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2064,14 +2235,15 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
         <v>-104</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>17</v>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2080,14 +2252,15 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>24</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>12</v>
       </c>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2096,14 +2269,15 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
         <v>-107</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>-106</v>
       </c>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2112,14 +2286,15 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
         <v>24</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>9</v>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2128,14 +2303,15 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
         <v>-105</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>20</v>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2144,14 +2320,15 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
         <v>24</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>-111</v>
       </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2160,14 +2337,15 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
         <v>-104</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>19</v>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2176,14 +2354,15 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
         <v>-107</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>17</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2192,14 +2371,15 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>-104</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>17</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2212,7 +2392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,35 +2403,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -2262,24 +2447,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
         <v>-210</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-206</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-206</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2288,24 +2476,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C3" t="n">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-210</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-208</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>43</v>
       </c>
-      <c r="G3" t="n">
-        <v>48</v>
-      </c>
       <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2314,24 +2505,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
         <v>-210</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-270</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-206</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>39</v>
       </c>
-      <c r="G4" t="n">
-        <v>48</v>
-      </c>
       <c r="H4" t="n">
+        <v>48</v>
+      </c>
+      <c r="I4" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2340,24 +2534,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-220</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-210</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>23</v>
       </c>
-      <c r="G5" t="n">
-        <v>47</v>
-      </c>
       <c r="H5" t="n">
+        <v>47</v>
+      </c>
+      <c r="I5" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2366,24 +2563,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
         <v>-210</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-208</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>43</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>41</v>
       </c>
-      <c r="G6" t="n">
-        <v>47</v>
-      </c>
       <c r="H6" t="n">
+        <v>47</v>
+      </c>
+      <c r="I6" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2392,24 +2592,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
         <v>-214</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>43</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-222</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-210</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>36</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>-214</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2418,24 +2621,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>45</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>40</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>-216</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2444,24 +2650,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
         <v>-208</v>
       </c>
-      <c r="C9" t="n">
-        <v>47</v>
-      </c>
       <c r="D9" t="n">
+        <v>47</v>
+      </c>
+      <c r="E9" t="n">
         <v>-232</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-208</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>31</v>
       </c>
-      <c r="G9" t="n">
-        <v>47</v>
-      </c>
       <c r="H9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2470,24 +2679,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-210</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-206</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-266</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>-206</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2496,24 +2708,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" t="n">
         <v>43</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>45</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-208</v>
       </c>
       <c r="F11" t="n">
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>-208</v>
       </c>
       <c r="H11" t="n">
+        <v>48</v>
+      </c>
+      <c r="I11" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2525,21 +2740,24 @@
         <v>48</v>
       </c>
       <c r="C12" t="n">
+        <v>48</v>
+      </c>
+      <c r="D12" t="n">
         <v>24</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-218</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-210</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>39</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>33</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2548,24 +2766,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C13" t="n">
         <v>-208</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>43</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-220</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>45</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>43</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2574,24 +2795,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>43</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-210</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-208</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>39</v>
       </c>
-      <c r="G14" t="n">
-        <v>47</v>
-      </c>
       <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2600,24 +2824,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
         <v>-206</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>43</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-206</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-216</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>33</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>23</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2626,24 +2853,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
       </c>
       <c r="D16" t="n">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
         <v>-220</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>43</v>
       </c>
-      <c r="F16" t="n">
-        <v>47</v>
-      </c>
       <c r="G16" t="n">
+        <v>47</v>
+      </c>
+      <c r="H16" t="n">
         <v>49</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-250</v>
       </c>
     </row>
@@ -2652,24 +2882,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
         <v>39</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>36</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>43</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>40</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>49</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2681,21 +2914,24 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
+        <v>47</v>
+      </c>
+      <c r="D18" t="n">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-216</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-210</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>39</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>43</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2704,24 +2940,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C19" t="n">
         <v>-206</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>40</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-228</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>32</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>41</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2730,25 +2969,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
+        <v>47</v>
+      </c>
+      <c r="D20" t="n">
         <v>43</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>46</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-210</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>33</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>-218</v>
       </c>
-      <c r="H20" t="n">
-        <v>-208</v>
+      <c r="I20" t="n">
+        <v>-268</v>
       </c>
     </row>
     <row r="21">
@@ -2756,25 +2998,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C21" t="n">
         <v>-208</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>43</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>42</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-210</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>45</v>
       </c>
-      <c r="G21" t="n">
-        <v>48</v>
-      </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="22">
@@ -2782,25 +3027,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>47</v>
+      </c>
+      <c r="C22" t="n">
         <v>-206</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>43</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-212</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="n">
-        <v>47</v>
-      </c>
       <c r="G22" t="n">
+        <v>47</v>
+      </c>
+      <c r="H22" t="n">
         <v>40</v>
       </c>
-      <c r="H22" t="n">
-        <v>-206</v>
+      <c r="I22" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -2811,21 +3059,24 @@
         <v>48</v>
       </c>
       <c r="C23" t="n">
+        <v>48</v>
+      </c>
+      <c r="D23" t="n">
         <v>43</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-226</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>41</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>31</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2834,24 +3085,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n">
         <v>47</v>
       </c>
       <c r="D24" t="n">
+        <v>47</v>
+      </c>
+      <c r="E24" t="n">
         <v>-210</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-208</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>37</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>44</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2860,25 +3114,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" t="n">
         <v>-206</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>43</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-208</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>45</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>28</v>
       </c>
-      <c r="G25" t="n">
-        <v>47</v>
-      </c>
       <c r="H25" t="n">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="I25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -2886,25 +3143,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
+        <v>48</v>
+      </c>
+      <c r="D26" t="n">
         <v>40</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>39</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-210</v>
       </c>
       <c r="F26" t="n">
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>48</v>
+        <v>-210</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -2915,21 +3175,24 @@
         <v>-206</v>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="D27" t="n">
+        <v>47</v>
+      </c>
+      <c r="E27" t="n">
         <v>-210</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-208</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>36</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>23</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2938,25 +3201,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
+        <v>48</v>
+      </c>
+      <c r="D28" t="n">
         <v>43</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-212</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-226</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>33</v>
       </c>
-      <c r="G28" t="n">
-        <v>48</v>
-      </c>
       <c r="H28" t="n">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I28" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -2964,25 +3230,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
         <v>44</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>39</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-244</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>45</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>43</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>45</v>
       </c>
-      <c r="H29" t="n">
-        <v>48</v>
+      <c r="I29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -2990,23 +3259,26 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
+        <v>44</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
         <v>-210</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-208</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>13</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>43</v>
       </c>
-      <c r="H30" t="n">
-        <v>48</v>
+      <c r="I30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -3016,21 +3288,24 @@
       <c r="B31" t="n">
         <v>47</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
+        <v>47</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
         <v>-210</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-208</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>43</v>
       </c>
-      <c r="G31" t="n">
-        <v>48</v>
-      </c>
       <c r="H31" t="n">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -3038,23 +3313,26 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C32" t="n">
         <v>-210</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
         <v>-214</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>43</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>40</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>28</v>
       </c>
-      <c r="H32" t="n">
-        <v>45</v>
+      <c r="I32" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="33">
@@ -3062,23 +3340,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C33" t="n">
         <v>-206</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>-214</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-208</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>43</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>-206</v>
       </c>
-      <c r="H33" t="n">
-        <v>46</v>
+      <c r="I33" t="n">
+        <v>-224</v>
       </c>
     </row>
     <row r="34">
@@ -3086,23 +3367,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>47</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>47</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
         <v>-304</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-208</v>
-      </c>
-      <c r="F34" t="n">
-        <v>37</v>
       </c>
       <c r="G34" t="n">
         <v>37</v>
       </c>
       <c r="H34" t="n">
-        <v>-206</v>
+        <v>37</v>
+      </c>
+      <c r="I34" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -3112,20 +3396,23 @@
       <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
+        <v>47</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>46</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-208</v>
       </c>
-      <c r="F35" t="n">
-        <v>47</v>
-      </c>
       <c r="G35" t="n">
+        <v>47</v>
+      </c>
+      <c r="H35" t="n">
         <v>44</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3136,19 +3423,22 @@
       <c r="B36" t="n">
         <v>48</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
+        <v>48</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
         <v>42</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-210</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>29</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>45</v>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -3156,20 +3446,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>48</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>30</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-206</v>
       </c>
-      <c r="F37" t="n">
-        <v>47</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="G37" t="n">
+        <v>47</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3178,21 +3471,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>47</v>
+      </c>
+      <c r="C38" t="n">
         <v>-206</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>46</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-208</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>41</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>-224</v>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -3200,21 +3496,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>48</v>
+      </c>
+      <c r="C39" t="n">
         <v>36</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>-292</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>45</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>37</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>47</v>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="40">
@@ -3222,21 +3521,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+        <v>46</v>
+      </c>
+      <c r="C40" t="n">
+        <v>47</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
         <v>-222</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-208</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>42</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>15</v>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -3244,20 +3546,23 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+        <v>48</v>
+      </c>
+      <c r="C41" t="n">
+        <v>47</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
         <v>-218</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>45</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>41</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3266,21 +3571,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>-214</v>
+      </c>
+      <c r="C42" t="n">
         <v>-206</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>30</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>45</v>
       </c>
-      <c r="F42" t="n">
-        <v>25</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>46</v>
+      <c r="G42" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -3288,21 +3596,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+        <v>43</v>
+      </c>
+      <c r="C43" t="n">
+        <v>47</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>46</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>45</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>30</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>46</v>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -3310,20 +3621,23 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C44" t="n">
+        <v>47</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>-214</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-210</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>18</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3332,21 +3646,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>48</v>
+      </c>
+      <c r="C45" t="n">
         <v>44</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>-214</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-206</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>43</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>46</v>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>-216</v>
       </c>
     </row>
     <row r="46">
@@ -3354,21 +3671,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
         <v>46</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
         <v>-222</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>-208</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>41</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>46</v>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -3378,19 +3698,22 @@
       <c r="B47" t="n">
         <v>47</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
+        <v>47</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
         <v>-224</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>-210</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>29</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>48</v>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="48">
@@ -3398,21 +3721,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
         <v>-216</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>-214</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>45</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>33</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>47</v>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="49">
@@ -3420,21 +3746,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>39</v>
+      </c>
+      <c r="C49" t="n">
         <v>45</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>-222</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-206</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>36</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>47</v>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -3442,21 +3771,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>46</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>-238</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>-208</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>37</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>35</v>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -3466,19 +3798,22 @@
       <c r="B51" t="n">
         <v>48</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
+        <v>48</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>-218</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-208</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>32</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>48</v>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="52">
@@ -3486,21 +3821,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+        <v>47</v>
+      </c>
+      <c r="C52" t="n">
+        <v>48</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
         <v>-214</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>45</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>35</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>22</v>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -3508,22 +3846,23 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C53" t="n">
         <v>-206</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
         <v>-214</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>-210</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>37</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>45</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3532,86 +3871,90 @@
       <c r="B54" t="n">
         <v>47</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
+        <v>47</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>-214</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-218</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>4</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>48</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>48</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>48</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
         <v>-214</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>46</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>43</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>-216</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
+        <v>45</v>
+      </c>
+      <c r="C56" t="n">
+        <v>47</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
         <v>-214</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-208</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>-248</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>47</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
+        <v>-220</v>
+      </c>
+      <c r="C57" t="n">
+        <v>47</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>-214</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-208</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>-226</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>-206</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3620,86 +3963,88 @@
       <c r="B58" t="n">
         <v>48</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
+        <v>48</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
         <v>-214</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>45</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>-226</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
-        <v>-208</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+        <v>47</v>
+      </c>
+      <c r="C59" t="n">
+        <v>48</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
         <v>-220</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>46</v>
       </c>
-      <c r="F59" t="n">
-        <v>47</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
-        <v>48</v>
-      </c>
+      <c r="G59" t="n">
+        <v>47</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
+        <v>45</v>
+      </c>
+      <c r="C60" t="n">
+        <v>48</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
         <v>33</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>45</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>43</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
-        <v>44</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>41</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
         <v>-214</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>-210</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>30</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
-        <v>-206</v>
-      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3707,19 +4052,18 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
         <v>-220</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-206</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>43</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
-        <v>46</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3727,17 +4071,18 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
         <v>46</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>-218</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>45</v>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3745,17 +4090,18 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
         <v>-214</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>45</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>33</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3763,17 +4109,18 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
         <v>-214</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>45</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>-214</v>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3781,17 +4128,18 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
         <v>-214</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-210</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>43</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3799,17 +4147,18 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
         <v>12</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-210</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>-274</v>
       </c>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3818,14 +4167,15 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
         <v>43</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>37</v>
       </c>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3834,14 +4184,15 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>43</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>-272</v>
       </c>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3850,14 +4201,15 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
         <v>-208</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>37</v>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3866,14 +4218,15 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>45</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>26</v>
       </c>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3882,14 +4235,15 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
         <v>-214</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>-212</v>
       </c>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3898,14 +4252,15 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
         <v>46</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>21</v>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3914,14 +4269,15 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
         <v>-210</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>42</v>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3930,14 +4286,15 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
         <v>46</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>-222</v>
       </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3946,14 +4303,15 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
         <v>-208</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>41</v>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3962,14 +4320,15 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
         <v>-214</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>37</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3978,14 +4337,15 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>-208</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>36</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,40 +437,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Social VI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -481,27 +476,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="C2" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>-103</v>
       </c>
       <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
         <v>-103</v>
       </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
       <c r="H2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -510,27 +502,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="E3" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F3" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
         <v>24</v>
       </c>
     </row>
@@ -539,27 +528,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="C4" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>-135</v>
       </c>
       <c r="E4" t="n">
-        <v>-135</v>
+        <v>-103</v>
       </c>
       <c r="F4" t="n">
-        <v>-103</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
         <v>25</v>
       </c>
     </row>
@@ -568,27 +554,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-110</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-105</v>
-      </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -597,27 +580,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="C6" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>-104</v>
       </c>
       <c r="E6" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
-      </c>
-      <c r="I6" t="n">
         <v>25</v>
       </c>
     </row>
@@ -626,27 +606,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>-107</v>
       </c>
       <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
         <v>-107</v>
       </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-111</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
       <c r="H7" t="n">
-        <v>-107</v>
-      </c>
-      <c r="I7" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -658,24 +635,21 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>-108</v>
       </c>
       <c r="H8" t="n">
-        <v>-108</v>
-      </c>
-      <c r="I8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -684,27 +658,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
       <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-116</v>
+      </c>
+      <c r="E9" t="n">
         <v>-104</v>
       </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-116</v>
-      </c>
       <c r="F9" t="n">
-        <v>-104</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -713,27 +684,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>-105</v>
       </c>
       <c r="E10" t="n">
-        <v>-105</v>
+        <v>-103</v>
       </c>
       <c r="F10" t="n">
+        <v>-133</v>
+      </c>
+      <c r="G10" t="n">
         <v>-103</v>
       </c>
-      <c r="G10" t="n">
-        <v>-133</v>
-      </c>
       <c r="H10" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I10" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -745,24 +713,21 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>-104</v>
       </c>
       <c r="F11" t="n">
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -774,24 +739,21 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>-109</v>
       </c>
       <c r="E12" t="n">
-        <v>-109</v>
+        <v>-105</v>
       </c>
       <c r="F12" t="n">
-        <v>-105</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
-      </c>
-      <c r="I12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -800,27 +762,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="C13" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>-110</v>
       </c>
       <c r="E13" t="n">
-        <v>-110</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
-      </c>
-      <c r="I13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -829,27 +788,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>-105</v>
       </c>
       <c r="E14" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F14" t="n">
-        <v>-104</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
-      </c>
-      <c r="I14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -858,27 +814,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>-103</v>
       </c>
       <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
         <v>-103</v>
       </c>
-      <c r="D15" t="n">
-        <v>20</v>
-      </c>
       <c r="E15" t="n">
-        <v>-103</v>
+        <v>-108</v>
       </c>
       <c r="F15" t="n">
-        <v>-108</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -887,27 +840,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" t="n">
         <v>22</v>
       </c>
-      <c r="E16" t="n">
-        <v>-110</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>24</v>
       </c>
-      <c r="G16" t="n">
-        <v>22</v>
-      </c>
       <c r="H16" t="n">
-        <v>24</v>
-      </c>
-      <c r="I16" t="n">
         <v>-125</v>
       </c>
     </row>
@@ -916,27 +866,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>25</v>
+      </c>
+      <c r="C17" t="n">
         <v>18</v>
       </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="n">
         <v>24</v>
       </c>
-      <c r="G17" t="n">
-        <v>19</v>
-      </c>
       <c r="H17" t="n">
-        <v>24</v>
-      </c>
-      <c r="I17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -948,24 +895,21 @@
         <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>-108</v>
       </c>
       <c r="E18" t="n">
-        <v>-108</v>
+        <v>-105</v>
       </c>
       <c r="F18" t="n">
-        <v>-105</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -974,27 +918,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>-103</v>
       </c>
       <c r="C19" t="n">
-        <v>-103</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>-114</v>
       </c>
       <c r="F19" t="n">
-        <v>-114</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1006,24 +947,21 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>-105</v>
       </c>
       <c r="F20" t="n">
-        <v>-105</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>-109</v>
       </c>
       <c r="H20" t="n">
-        <v>-109</v>
-      </c>
-      <c r="I20" t="n">
         <v>-134</v>
       </c>
     </row>
@@ -1032,27 +970,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="C21" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="F21" t="n">
-        <v>-105</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
-      </c>
-      <c r="I21" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -1061,27 +996,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C22" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>-106</v>
       </c>
       <c r="E22" t="n">
-        <v>-106</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>21</v>
-      </c>
-      <c r="I22" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1093,24 +1025,21 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>-113</v>
       </c>
       <c r="E23" t="n">
-        <v>-113</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
-      </c>
-      <c r="I23" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1122,24 +1051,21 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="E24" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F24" t="n">
-        <v>-104</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
-      </c>
-      <c r="I24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1148,27 +1074,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>-103</v>
       </c>
       <c r="C25" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>-104</v>
       </c>
       <c r="E25" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>25</v>
-      </c>
-      <c r="I25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1180,24 +1103,21 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>-105</v>
       </c>
       <c r="F26" t="n">
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>-105</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
-      </c>
-      <c r="I26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1209,24 +1129,21 @@
         <v>-103</v>
       </c>
       <c r="C27" t="n">
-        <v>-103</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="E27" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F27" t="n">
-        <v>-104</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1235,27 +1152,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>-106</v>
       </c>
       <c r="E28" t="n">
-        <v>-106</v>
+        <v>-113</v>
       </c>
       <c r="F28" t="n">
-        <v>-113</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
-      </c>
-      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1267,24 +1181,21 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>-122</v>
       </c>
       <c r="E29" t="n">
-        <v>-122</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
         <v>24</v>
       </c>
-      <c r="G29" t="n">
-        <v>20</v>
-      </c>
       <c r="H29" t="n">
-        <v>24</v>
-      </c>
-      <c r="I29" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1296,22 +1207,21 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>-118</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-105</v>
+      </c>
       <c r="E30" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F30" t="n">
-        <v>-104</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
-      </c>
-      <c r="I30" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1323,22 +1233,21 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>-104</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-105</v>
+      </c>
       <c r="E31" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F31" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
-      </c>
-      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1347,25 +1256,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-103</v>
+        <v>-105</v>
       </c>
       <c r="C32" t="n">
-        <v>-105</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-107</v>
+      </c>
       <c r="E32" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
-      </c>
-      <c r="I32" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1374,25 +1282,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2</v>
+        <v>-103</v>
       </c>
       <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-107</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="n">
         <v>-103</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G33" t="n">
-        <v>20</v>
-      </c>
       <c r="H33" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I33" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -1401,25 +1308,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-152</v>
+      </c>
       <c r="E34" t="n">
-        <v>-152</v>
+        <v>-104</v>
       </c>
       <c r="F34" t="n">
-        <v>-104</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
         <v>17</v>
       </c>
       <c r="H34" t="n">
-        <v>17</v>
-      </c>
-      <c r="I34" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1430,23 +1336,20 @@
       <c r="B35" t="n">
         <v>25</v>
       </c>
-      <c r="C35" t="n">
-        <v>25</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>21</v>
+      </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>-104</v>
       </c>
       <c r="F35" t="n">
-        <v>-104</v>
+        <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
-      </c>
-      <c r="I35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1457,21 +1360,20 @@
       <c r="B36" t="n">
         <v>25</v>
       </c>
-      <c r="C36" t="n">
-        <v>25</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>19</v>
+      </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="F36" t="n">
-        <v>-105</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1480,23 +1382,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
-      </c>
-      <c r="C37" t="n">
-        <v>25</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>13</v>
+      </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>-103</v>
       </c>
       <c r="F37" t="n">
-        <v>-103</v>
+        <v>22</v>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1505,23 +1406,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
-      </c>
-      <c r="C38" t="n">
         <v>-103</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>21</v>
+      </c>
       <c r="E38" t="n">
-        <v>21</v>
+        <v>-104</v>
       </c>
       <c r="F38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G38" t="n">
         <v>-104</v>
       </c>
-      <c r="G38" t="n">
-        <v>19</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1532,21 +1432,20 @@
       <c r="B39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" t="n">
-        <v>25</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>-146</v>
+      </c>
       <c r="E39" t="n">
-        <v>-146</v>
+        <v>24</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>17</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+        <v>-145</v>
+      </c>
+      <c r="H39" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1557,21 +1456,18 @@
       <c r="B40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
-        <v>25</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>-111</v>
+      </c>
       <c r="E40" t="n">
-        <v>-111</v>
+        <v>-104</v>
       </c>
       <c r="F40" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G40" t="n">
         <v>21</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1582,21 +1478,18 @@
       <c r="B41" t="n">
         <v>25</v>
       </c>
-      <c r="C41" t="n">
-        <v>25</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>-109</v>
+      </c>
       <c r="E41" t="n">
-        <v>-109</v>
+        <v>24</v>
       </c>
       <c r="F41" t="n">
-        <v>24</v>
-      </c>
-      <c r="G41" t="n">
         <v>19</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1605,23 +1498,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-107</v>
-      </c>
-      <c r="C42" t="n">
         <v>-103</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>24</v>
-      </c>
-      <c r="G42" t="n">
         <v>11</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1632,21 +1522,18 @@
       <c r="B43" t="n">
         <v>25</v>
       </c>
-      <c r="C43" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>21</v>
+      </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
-      </c>
-      <c r="G43" t="n">
         <v>14</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1655,23 +1542,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>-107</v>
+      </c>
       <c r="E44" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F44" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G44" t="n">
         <v>8</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1682,21 +1566,18 @@
       <c r="B45" t="n">
         <v>25</v>
       </c>
-      <c r="C45" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>-107</v>
+      </c>
       <c r="E45" t="n">
-        <v>-107</v>
+        <v>-103</v>
       </c>
       <c r="F45" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G45" t="n">
         <v>21</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>-108</v>
       </c>
     </row>
@@ -1707,21 +1588,18 @@
       <c r="B46" t="n">
         <v>25</v>
       </c>
-      <c r="C46" t="n">
-        <v>25</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>-111</v>
+      </c>
       <c r="E46" t="n">
-        <v>-111</v>
+        <v>-104</v>
       </c>
       <c r="F46" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G46" t="n">
         <v>19</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1732,21 +1610,18 @@
       <c r="B47" t="n">
         <v>25</v>
       </c>
-      <c r="C47" t="n">
-        <v>25</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>-112</v>
+      </c>
       <c r="E47" t="n">
-        <v>-112</v>
+        <v>-105</v>
       </c>
       <c r="F47" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G47" t="n">
         <v>13</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1755,23 +1630,20 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
-      </c>
-      <c r="C48" t="n">
         <v>-108</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>-107</v>
+      </c>
       <c r="E48" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>24</v>
-      </c>
-      <c r="G48" t="n">
         <v>18</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -1780,23 +1652,20 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>-111</v>
+      </c>
       <c r="E49" t="n">
-        <v>-111</v>
+        <v>-103</v>
       </c>
       <c r="F49" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G49" t="n">
         <v>17</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1807,21 +1676,18 @@
       <c r="B50" t="n">
         <v>25</v>
       </c>
-      <c r="C50" t="n">
-        <v>25</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>-119</v>
+      </c>
       <c r="E50" t="n">
-        <v>-119</v>
+        <v>-104</v>
       </c>
       <c r="F50" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G50" t="n">
         <v>17</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1832,21 +1698,18 @@
       <c r="B51" t="n">
         <v>25</v>
       </c>
-      <c r="C51" t="n">
-        <v>25</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>-109</v>
+      </c>
       <c r="E51" t="n">
-        <v>-109</v>
+        <v>-104</v>
       </c>
       <c r="F51" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G51" t="n">
         <v>15</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1857,21 +1720,18 @@
       <c r="B52" t="n">
         <v>25</v>
       </c>
-      <c r="C52" t="n">
-        <v>25</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>-107</v>
+      </c>
       <c r="E52" t="n">
-        <v>-107</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
-      </c>
-      <c r="G52" t="n">
         <v>16</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1880,23 +1740,20 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
-      </c>
-      <c r="C53" t="n">
         <v>-103</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>-107</v>
+      </c>
       <c r="E53" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F53" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G53" t="n">
         <v>17</v>
       </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1905,90 +1762,78 @@
       <c r="B54" t="n">
         <v>25</v>
       </c>
-      <c r="C54" t="n">
-        <v>25</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>-107</v>
+      </c>
       <c r="E54" t="n">
-        <v>-107</v>
+        <v>-109</v>
       </c>
       <c r="F54" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G54" t="n">
         <v>2</v>
       </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>25</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>-107</v>
+      </c>
       <c r="E55" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F55" t="n">
-        <v>24</v>
-      </c>
-      <c r="G55" t="n">
         <v>20</v>
       </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24</v>
-      </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>-107</v>
+      </c>
       <c r="E56" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F56" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G56" t="n">
         <v>-124</v>
       </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-110</v>
-      </c>
-      <c r="C57" t="n">
-        <v>25</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>-107</v>
+      </c>
       <c r="E57" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F57" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G57" t="n">
         <v>-113</v>
       </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1997,21 +1842,18 @@
       <c r="B58" t="n">
         <v>25</v>
       </c>
-      <c r="C58" t="n">
-        <v>25</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>-107</v>
+      </c>
       <c r="E58" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>24</v>
-      </c>
-      <c r="G58" t="n">
         <v>-113</v>
       </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2020,21 +1862,18 @@
       <c r="B59" t="n">
         <v>25</v>
       </c>
-      <c r="C59" t="n">
-        <v>25</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>-110</v>
+      </c>
       <c r="E59" t="n">
-        <v>-110</v>
+        <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>24</v>
-      </c>
-      <c r="G59" t="n">
         <v>22</v>
       </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2043,99 +1882,98 @@
       <c r="B60" t="n">
         <v>25</v>
       </c>
-      <c r="C60" t="n">
-        <v>25</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>16</v>
+      </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>24</v>
-      </c>
-      <c r="G60" t="n">
         <v>20</v>
       </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>-107</v>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>-107</v>
+      </c>
       <c r="E61" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F61" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G61" t="n">
         <v>14</v>
       </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>-106</v>
+      </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>-110</v>
+      </c>
       <c r="E62" t="n">
-        <v>-110</v>
+        <v>-103</v>
       </c>
       <c r="F62" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G62" t="n">
         <v>20</v>
       </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>-104</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>21</v>
+      </c>
       <c r="E63" t="n">
+        <v>-109</v>
+      </c>
+      <c r="F63" t="n">
         <v>21</v>
       </c>
-      <c r="F63" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G63" t="n">
-        <v>21</v>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>25</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>-107</v>
+      </c>
       <c r="E64" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>24</v>
-      </c>
-      <c r="G64" t="n">
         <v>15</v>
       </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2143,18 +1981,17 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>-107</v>
+      </c>
       <c r="E65" t="n">
+        <v>24</v>
+      </c>
+      <c r="F65" t="n">
         <v>-107</v>
       </c>
-      <c r="F65" t="n">
-        <v>24</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-107</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2162,18 +1999,17 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>-107</v>
+      </c>
       <c r="E66" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F66" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G66" t="n">
         <v>20</v>
       </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2181,18 +2017,17 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>-105</v>
       </c>
       <c r="F67" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G67" t="n">
         <v>-137</v>
       </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2200,16 +2035,17 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>-112</v>
+      </c>
+      <c r="E68" t="n">
+        <v>24</v>
+      </c>
       <c r="F68" t="n">
-        <v>24</v>
-      </c>
-      <c r="G68" t="n">
         <v>17</v>
       </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2217,16 +2053,17 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>-104</v>
+      </c>
+      <c r="E69" t="n">
+        <v>24</v>
+      </c>
       <c r="F69" t="n">
-        <v>24</v>
-      </c>
-      <c r="G69" t="n">
         <v>-136</v>
       </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2234,16 +2071,17 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-104</v>
+      </c>
       <c r="F70" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G70" t="n">
         <v>17</v>
       </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2251,16 +2089,17 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>21</v>
+      </c>
+      <c r="E71" t="n">
+        <v>24</v>
+      </c>
       <c r="F71" t="n">
-        <v>24</v>
-      </c>
-      <c r="G71" t="n">
         <v>12</v>
       </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2269,15 +2108,14 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>-107</v>
+      </c>
       <c r="F72" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G72" t="n">
         <v>-106</v>
       </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2286,15 +2124,14 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>24</v>
+      </c>
       <c r="F73" t="n">
-        <v>24</v>
-      </c>
-      <c r="G73" t="n">
         <v>9</v>
       </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2303,15 +2140,14 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>-105</v>
+      </c>
       <c r="F74" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G74" t="n">
         <v>20</v>
       </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2320,15 +2156,14 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>24</v>
+      </c>
       <c r="F75" t="n">
-        <v>24</v>
-      </c>
-      <c r="G75" t="n">
         <v>-111</v>
       </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2337,15 +2172,14 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>-104</v>
+      </c>
       <c r="F76" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G76" t="n">
         <v>19</v>
       </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,15 +2188,14 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>-107</v>
+      </c>
       <c r="F77" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G77" t="n">
         <v>17</v>
       </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2371,15 +2204,72 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>-104</v>
+      </c>
       <c r="F78" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G78" t="n">
         <v>17</v>
       </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>-102</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>-107</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2392,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,40 +2293,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Social VI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -2447,27 +2332,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>-210</v>
+      </c>
+      <c r="C2" t="n">
         <v>43</v>
       </c>
-      <c r="C2" t="n">
-        <v>-210</v>
-      </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>-206</v>
       </c>
       <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
         <v>-206</v>
       </c>
-      <c r="G2" t="n">
-        <v>17</v>
-      </c>
       <c r="H2" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I2" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2476,27 +2358,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-206</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>-210</v>
       </c>
       <c r="E3" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F3" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
-      </c>
-      <c r="I3" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2505,27 +2384,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>-210</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-270</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-206</v>
+      </c>
+      <c r="F4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-270</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-206</v>
-      </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
-      </c>
-      <c r="I4" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2534,27 +2410,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>-220</v>
       </c>
       <c r="E5" t="n">
-        <v>-220</v>
+        <v>-210</v>
       </c>
       <c r="F5" t="n">
-        <v>-210</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2563,27 +2436,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>-210</v>
       </c>
       <c r="C6" t="n">
-        <v>-210</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>-208</v>
       </c>
       <c r="E6" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
-      </c>
-      <c r="I6" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2592,27 +2462,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>-214</v>
       </c>
       <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-222</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
         <v>-214</v>
       </c>
-      <c r="D7" t="n">
-        <v>43</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-222</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G7" t="n">
-        <v>36</v>
-      </c>
       <c r="H7" t="n">
-        <v>-214</v>
-      </c>
-      <c r="I7" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2621,27 +2488,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>-216</v>
       </c>
       <c r="H8" t="n">
-        <v>-216</v>
-      </c>
-      <c r="I8" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2650,27 +2514,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>-208</v>
       </c>
       <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-232</v>
+      </c>
+      <c r="E9" t="n">
         <v>-208</v>
       </c>
-      <c r="D9" t="n">
-        <v>47</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-232</v>
-      </c>
       <c r="F9" t="n">
-        <v>-208</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I9" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2679,27 +2540,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>-210</v>
       </c>
       <c r="E10" t="n">
-        <v>-210</v>
+        <v>-206</v>
       </c>
       <c r="F10" t="n">
+        <v>-266</v>
+      </c>
+      <c r="G10" t="n">
         <v>-206</v>
       </c>
-      <c r="G10" t="n">
-        <v>-266</v>
-      </c>
       <c r="H10" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I10" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2708,27 +2566,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>-208</v>
       </c>
       <c r="F11" t="n">
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>-208</v>
+        <v>48</v>
       </c>
       <c r="H11" t="n">
-        <v>48</v>
-      </c>
-      <c r="I11" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2740,24 +2595,21 @@
         <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>-218</v>
       </c>
       <c r="E12" t="n">
-        <v>-218</v>
+        <v>-210</v>
       </c>
       <c r="F12" t="n">
-        <v>-210</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
-      </c>
-      <c r="I12" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2766,27 +2618,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="C13" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
+        <v>-220</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
         <v>43</v>
       </c>
-      <c r="E13" t="n">
-        <v>-220</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15</v>
-      </c>
       <c r="H13" t="n">
-        <v>43</v>
-      </c>
-      <c r="I13" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2795,27 +2644,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-206</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>-210</v>
       </c>
       <c r="E14" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F14" t="n">
-        <v>-208</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
-        <v>47</v>
-      </c>
-      <c r="I14" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2824,27 +2670,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>-206</v>
       </c>
       <c r="C15" t="n">
+        <v>43</v>
+      </c>
+      <c r="D15" t="n">
         <v>-206</v>
       </c>
-      <c r="D15" t="n">
-        <v>43</v>
-      </c>
       <c r="E15" t="n">
-        <v>-206</v>
+        <v>-216</v>
       </c>
       <c r="F15" t="n">
-        <v>-216</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
-      </c>
-      <c r="I15" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2853,27 +2696,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>-220</v>
       </c>
       <c r="E16" t="n">
-        <v>-220</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
-      </c>
-      <c r="I16" t="n">
         <v>-250</v>
       </c>
     </row>
@@ -2882,27 +2722,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
-      </c>
-      <c r="I17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2914,24 +2751,21 @@
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>-216</v>
       </c>
       <c r="E18" t="n">
-        <v>-216</v>
+        <v>-210</v>
       </c>
       <c r="F18" t="n">
-        <v>-210</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
-        <v>43</v>
-      </c>
-      <c r="I18" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2940,27 +2774,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3</v>
+        <v>-206</v>
       </c>
       <c r="C19" t="n">
-        <v>-206</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>-228</v>
       </c>
       <c r="F19" t="n">
-        <v>-228</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H19" t="n">
-        <v>41</v>
-      </c>
-      <c r="I19" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2969,27 +2800,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>-210</v>
       </c>
       <c r="F20" t="n">
-        <v>-210</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>-218</v>
       </c>
       <c r="H20" t="n">
-        <v>-218</v>
-      </c>
-      <c r="I20" t="n">
         <v>-268</v>
       </c>
     </row>
@@ -2998,27 +2826,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="C21" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>42</v>
+        <v>-210</v>
       </c>
       <c r="F21" t="n">
-        <v>-210</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H21" t="n">
-        <v>48</v>
-      </c>
-      <c r="I21" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3027,27 +2852,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C22" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>-212</v>
       </c>
       <c r="E22" t="n">
-        <v>-212</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>40</v>
-      </c>
-      <c r="I22" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3059,24 +2881,21 @@
         <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>-226</v>
       </c>
       <c r="E23" t="n">
-        <v>-226</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>31</v>
-      </c>
-      <c r="I23" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3085,27 +2904,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
         <v>47</v>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="E24" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F24" t="n">
-        <v>-208</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H24" t="n">
-        <v>44</v>
-      </c>
-      <c r="I24" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3114,27 +2930,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29</v>
+        <v>-206</v>
       </c>
       <c r="C25" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>-208</v>
       </c>
       <c r="E25" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H25" t="n">
-        <v>47</v>
-      </c>
-      <c r="I25" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3143,27 +2956,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>-210</v>
       </c>
       <c r="F26" t="n">
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>-210</v>
+        <v>48</v>
       </c>
       <c r="H26" t="n">
-        <v>48</v>
-      </c>
-      <c r="I26" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3175,24 +2985,21 @@
         <v>-206</v>
       </c>
       <c r="C27" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="E27" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F27" t="n">
-        <v>-208</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
-      </c>
-      <c r="I27" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3201,27 +3008,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
+        <v>43</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-212</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-226</v>
+      </c>
+      <c r="F28" t="n">
+        <v>33</v>
+      </c>
+      <c r="G28" t="n">
         <v>48</v>
       </c>
-      <c r="D28" t="n">
-        <v>43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-212</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-226</v>
-      </c>
-      <c r="G28" t="n">
-        <v>33</v>
-      </c>
       <c r="H28" t="n">
-        <v>48</v>
-      </c>
-      <c r="I28" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3230,27 +3034,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>-244</v>
       </c>
       <c r="E29" t="n">
-        <v>-244</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
+        <v>43</v>
+      </c>
+      <c r="G29" t="n">
         <v>45</v>
       </c>
-      <c r="G29" t="n">
-        <v>43</v>
-      </c>
       <c r="H29" t="n">
-        <v>45</v>
-      </c>
-      <c r="I29" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3259,25 +3060,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>-236</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-210</v>
+      </c>
       <c r="E30" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F30" t="n">
-        <v>-208</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H30" t="n">
-        <v>43</v>
-      </c>
-      <c r="I30" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3289,22 +3089,21 @@
         <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>47</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>-208</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-210</v>
+      </c>
       <c r="E31" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F31" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H31" t="n">
-        <v>48</v>
-      </c>
-      <c r="I31" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3313,25 +3112,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-206</v>
+        <v>-210</v>
       </c>
       <c r="C32" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-214</v>
+      </c>
       <c r="E32" t="n">
-        <v>-214</v>
+        <v>43</v>
       </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>28</v>
-      </c>
-      <c r="I32" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3340,25 +3138,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-3</v>
+        <v>-206</v>
       </c>
       <c r="C33" t="n">
+        <v>43</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-214</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-208</v>
+      </c>
+      <c r="F33" t="n">
+        <v>43</v>
+      </c>
+      <c r="G33" t="n">
         <v>-206</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G33" t="n">
-        <v>43</v>
-      </c>
       <c r="H33" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I33" t="n">
         <v>-224</v>
       </c>
     </row>
@@ -3367,25 +3164,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C34" t="n">
         <v>47</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>-304</v>
+      </c>
       <c r="E34" t="n">
-        <v>-304</v>
+        <v>-208</v>
       </c>
       <c r="F34" t="n">
-        <v>-208</v>
+        <v>37</v>
       </c>
       <c r="G34" t="n">
         <v>37</v>
       </c>
       <c r="H34" t="n">
-        <v>37</v>
-      </c>
-      <c r="I34" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3396,23 +3192,20 @@
       <c r="B35" t="n">
         <v>47</v>
       </c>
-      <c r="C35" t="n">
-        <v>47</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>46</v>
+      </c>
       <c r="E35" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="F35" t="n">
-        <v>-208</v>
+        <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H35" t="n">
-        <v>44</v>
-      </c>
-      <c r="I35" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3423,21 +3216,20 @@
       <c r="B36" t="n">
         <v>48</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>42</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F36" t="n">
+        <v>29</v>
+      </c>
+      <c r="G36" t="n">
         <v>48</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>42</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G36" t="n">
-        <v>29</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="H36" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3446,23 +3238,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
-      </c>
-      <c r="C37" t="n">
         <v>48</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>-206</v>
       </c>
       <c r="F37" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="G37" t="n">
         <v>47</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="H37" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3471,23 +3262,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>47</v>
-      </c>
-      <c r="C38" t="n">
         <v>-206</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>46</v>
+      </c>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="F38" t="n">
+        <v>41</v>
+      </c>
+      <c r="G38" t="n">
         <v>-208</v>
       </c>
-      <c r="G38" t="n">
-        <v>41</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3496,23 +3286,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
-      </c>
-      <c r="C39" t="n">
         <v>36</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>-292</v>
+      </c>
       <c r="E39" t="n">
-        <v>-292</v>
+        <v>45</v>
       </c>
       <c r="F39" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39" t="n">
-        <v>37</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+        <v>-290</v>
+      </c>
+      <c r="H39" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3521,23 +3310,20 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
-      </c>
-      <c r="C40" t="n">
-        <v>47</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>-222</v>
+      </c>
       <c r="E40" t="n">
-        <v>-222</v>
+        <v>-208</v>
       </c>
       <c r="F40" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G40" t="n">
         <v>42</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3546,23 +3332,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
-      </c>
-      <c r="C41" t="n">
-        <v>47</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>-218</v>
+      </c>
       <c r="E41" t="n">
-        <v>-218</v>
+        <v>45</v>
       </c>
       <c r="F41" t="n">
-        <v>45</v>
-      </c>
-      <c r="G41" t="n">
         <v>41</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3571,23 +3354,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-214</v>
-      </c>
-      <c r="C42" t="n">
         <v>-206</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>30</v>
+      </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n">
-        <v>25</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3596,23 +3376,20 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43</v>
-      </c>
-      <c r="C43" t="n">
-        <v>47</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>46</v>
+      </c>
       <c r="E43" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
-      </c>
-      <c r="G43" t="n">
         <v>30</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3621,23 +3398,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C44" t="n">
-        <v>47</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>-214</v>
+      </c>
       <c r="E44" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F44" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G44" t="n">
         <v>18</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3646,23 +3420,20 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
-      </c>
-      <c r="C45" t="n">
         <v>44</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>-214</v>
+      </c>
       <c r="E45" t="n">
-        <v>-214</v>
+        <v>-206</v>
       </c>
       <c r="F45" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G45" t="n">
         <v>43</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>-216</v>
       </c>
     </row>
@@ -3671,23 +3442,20 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
         <v>46</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>-222</v>
+      </c>
       <c r="E46" t="n">
-        <v>-222</v>
+        <v>-208</v>
       </c>
       <c r="F46" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G46" t="n">
         <v>41</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3698,21 +3466,18 @@
       <c r="B47" t="n">
         <v>47</v>
       </c>
-      <c r="C47" t="n">
-        <v>47</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>-224</v>
+      </c>
       <c r="E47" t="n">
-        <v>-224</v>
+        <v>-210</v>
       </c>
       <c r="F47" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G47" t="n">
         <v>29</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3721,23 +3486,20 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
         <v>-216</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>-214</v>
+      </c>
       <c r="E48" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
-      </c>
-      <c r="G48" t="n">
         <v>33</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3746,23 +3508,20 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
-      </c>
-      <c r="C49" t="n">
         <v>45</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>-222</v>
+      </c>
       <c r="E49" t="n">
-        <v>-222</v>
+        <v>-206</v>
       </c>
       <c r="F49" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G49" t="n">
         <v>36</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3771,23 +3530,20 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
-      </c>
-      <c r="C50" t="n">
         <v>46</v>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>-238</v>
+      </c>
       <c r="E50" t="n">
-        <v>-238</v>
+        <v>-208</v>
       </c>
       <c r="F50" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G50" t="n">
         <v>37</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3798,21 +3554,18 @@
       <c r="B51" t="n">
         <v>48</v>
       </c>
-      <c r="C51" t="n">
-        <v>48</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>-218</v>
+      </c>
       <c r="E51" t="n">
-        <v>-218</v>
+        <v>-208</v>
       </c>
       <c r="F51" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G51" t="n">
         <v>32</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3821,23 +3574,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
-      </c>
-      <c r="C52" t="n">
         <v>48</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>-214</v>
+      </c>
       <c r="E52" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F52" t="n">
-        <v>45</v>
-      </c>
-      <c r="G52" t="n">
         <v>35</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3846,23 +3596,20 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
-      </c>
-      <c r="C53" t="n">
         <v>-206</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>-214</v>
+      </c>
       <c r="E53" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F53" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G53" t="n">
         <v>37</v>
       </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3871,90 +3618,78 @@
       <c r="B54" t="n">
         <v>47</v>
       </c>
-      <c r="C54" t="n">
-        <v>47</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>-214</v>
+      </c>
       <c r="E54" t="n">
-        <v>-214</v>
+        <v>-218</v>
       </c>
       <c r="F54" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G54" t="n">
         <v>4</v>
       </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
-      </c>
-      <c r="C55" t="n">
         <v>48</v>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>-214</v>
+      </c>
       <c r="E55" t="n">
-        <v>-214</v>
+        <v>46</v>
       </c>
       <c r="F55" t="n">
-        <v>46</v>
-      </c>
-      <c r="G55" t="n">
         <v>43</v>
       </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>45</v>
-      </c>
-      <c r="C56" t="n">
-        <v>47</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>-214</v>
+      </c>
       <c r="E56" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F56" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G56" t="n">
         <v>-248</v>
       </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-220</v>
-      </c>
-      <c r="C57" t="n">
-        <v>47</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>-214</v>
+      </c>
       <c r="E57" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F57" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G57" t="n">
         <v>-226</v>
       </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3963,145 +3698,138 @@
       <c r="B58" t="n">
         <v>48</v>
       </c>
-      <c r="C58" t="n">
-        <v>48</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>-214</v>
+      </c>
       <c r="E58" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F58" t="n">
-        <v>45</v>
-      </c>
-      <c r="G58" t="n">
         <v>-226</v>
       </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>47</v>
-      </c>
-      <c r="C59" t="n">
         <v>48</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>-220</v>
+      </c>
       <c r="E59" t="n">
-        <v>-220</v>
+        <v>46</v>
       </c>
       <c r="F59" t="n">
-        <v>46</v>
-      </c>
-      <c r="G59" t="n">
-        <v>47</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>48</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>33</v>
+      </c>
+      <c r="E60" t="n">
         <v>45</v>
       </c>
-      <c r="C60" t="n">
-        <v>48</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>33</v>
-      </c>
       <c r="F60" t="n">
-        <v>45</v>
-      </c>
-      <c r="G60" t="n">
         <v>43</v>
       </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>41</v>
+        <v>-214</v>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>-214</v>
+      </c>
       <c r="E61" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F61" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G61" t="n">
         <v>30</v>
       </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>-212</v>
+      </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>-220</v>
+      </c>
       <c r="E62" t="n">
-        <v>-220</v>
+        <v>-206</v>
       </c>
       <c r="F62" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G62" t="n">
         <v>43</v>
       </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>-208</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>46</v>
+      </c>
       <c r="E63" t="n">
-        <v>46</v>
+        <v>-218</v>
       </c>
       <c r="F63" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G63" t="n">
         <v>45</v>
       </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>47</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>-214</v>
+      </c>
       <c r="E64" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F64" t="n">
-        <v>45</v>
-      </c>
-      <c r="G64" t="n">
         <v>33</v>
       </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4109,18 +3837,17 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>-214</v>
+      </c>
       <c r="E65" t="n">
+        <v>45</v>
+      </c>
+      <c r="F65" t="n">
         <v>-214</v>
       </c>
-      <c r="F65" t="n">
-        <v>45</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-214</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4128,18 +3855,17 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>-214</v>
+      </c>
       <c r="E66" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F66" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G66" t="n">
         <v>43</v>
       </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4147,18 +3873,17 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>12</v>
+      </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>-210</v>
       </c>
       <c r="F67" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G67" t="n">
         <v>-274</v>
       </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4166,16 +3891,17 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>-224</v>
+      </c>
+      <c r="E68" t="n">
+        <v>43</v>
+      </c>
       <c r="F68" t="n">
-        <v>43</v>
-      </c>
-      <c r="G68" t="n">
         <v>37</v>
       </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4183,16 +3909,17 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>-208</v>
+      </c>
+      <c r="E69" t="n">
+        <v>43</v>
+      </c>
       <c r="F69" t="n">
-        <v>43</v>
-      </c>
-      <c r="G69" t="n">
         <v>-272</v>
       </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4200,16 +3927,17 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>-27</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-208</v>
+      </c>
       <c r="F70" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G70" t="n">
         <v>37</v>
       </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4217,16 +3945,17 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>46</v>
+      </c>
+      <c r="E71" t="n">
+        <v>45</v>
+      </c>
       <c r="F71" t="n">
-        <v>45</v>
-      </c>
-      <c r="G71" t="n">
         <v>26</v>
       </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4235,15 +3964,14 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>-214</v>
+      </c>
       <c r="F72" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G72" t="n">
         <v>-212</v>
       </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4252,15 +3980,14 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>46</v>
+      </c>
       <c r="F73" t="n">
-        <v>46</v>
-      </c>
-      <c r="G73" t="n">
         <v>21</v>
       </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4269,15 +3996,14 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>-210</v>
+      </c>
       <c r="F74" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G74" t="n">
         <v>42</v>
       </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4286,15 +4012,14 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>46</v>
+      </c>
       <c r="F75" t="n">
-        <v>46</v>
-      </c>
-      <c r="G75" t="n">
         <v>-222</v>
       </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4303,15 +4028,14 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>-208</v>
+      </c>
       <c r="F76" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G76" t="n">
         <v>41</v>
       </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4320,15 +4044,14 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>-214</v>
+      </c>
       <c r="F77" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G77" t="n">
         <v>37</v>
       </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4337,15 +4060,72 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>-208</v>
+      </c>
       <c r="F78" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G78" t="n">
         <v>36</v>
       </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-220</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>-204</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>-214</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,35 +437,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -476,24 +481,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
         <v>-105</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
         <v>-103</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>11</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-103</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -505,22 +513,25 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-105</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-104</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +539,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
         <v>-105</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-135</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-103</v>
       </c>
-      <c r="F4" t="n">
-        <v>18</v>
-      </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -554,25 +568,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-110</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-105</v>
       </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>-103</v>
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -580,25 +597,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C6" t="n">
         <v>-105</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-104</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
-        <v>19</v>
-      </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
         <v>25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="7">
@@ -606,25 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
         <v>-107</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-111</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-105</v>
       </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
       <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
         <v>-107</v>
       </c>
-      <c r="H7" t="n">
-        <v>-104</v>
+      <c r="I7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -635,21 +658,24 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
-        <v>22</v>
-      </c>
       <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
         <v>-108</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -658,25 +684,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
         <v>-104</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-116</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-104</v>
       </c>
-      <c r="F9" t="n">
-        <v>14</v>
-      </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>-133</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="10">
@@ -684,25 +713,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-105</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-103</v>
       </c>
-      <c r="F10" t="n">
-        <v>-133</v>
-      </c>
       <c r="G10" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H10" t="n">
         <v>-103</v>
       </c>
-      <c r="H10" t="n">
-        <v>-104</v>
+      <c r="I10" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -710,24 +742,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-104</v>
       </c>
       <c r="F11" t="n">
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -736,25 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
         <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-109</v>
       </c>
       <c r="E12" t="n">
         <v>-105</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>-105</v>
       </c>
       <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="n">
-        <v>25</v>
+      <c r="I12" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="13">
@@ -762,24 +800,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C13" t="n">
         <v>-104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
-        <v>-110</v>
-      </c>
       <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
         <v>24</v>
       </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
       <c r="G13" t="n">
+        <v>18</v>
+      </c>
+      <c r="H13" t="n">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -788,24 +829,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>-115</v>
       </c>
       <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
-        <v>-105</v>
-      </c>
       <c r="E14" t="n">
+        <v>-109</v>
+      </c>
+      <c r="F14" t="n">
         <v>-104</v>
       </c>
-      <c r="F14" t="n">
-        <v>18</v>
-      </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -814,24 +858,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
         <v>-103</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="n">
-        <v>-103</v>
-      </c>
       <c r="E15" t="n">
+        <v>-110</v>
+      </c>
+      <c r="F15" t="n">
         <v>-108</v>
       </c>
-      <c r="F15" t="n">
-        <v>15</v>
-      </c>
       <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -840,25 +887,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
-        <v>-110</v>
-      </c>
       <c r="E16" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F16" t="n">
         <v>24</v>
       </c>
-      <c r="F16" t="n">
-        <v>22</v>
-      </c>
       <c r="G16" t="n">
+        <v>19</v>
+      </c>
+      <c r="H16" t="n">
         <v>24</v>
       </c>
-      <c r="H16" t="n">
-        <v>-125</v>
+      <c r="I16" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -869,21 +919,24 @@
         <v>25</v>
       </c>
       <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
       <c r="E17" t="n">
+        <v>-103</v>
+      </c>
+      <c r="F17" t="n">
         <v>24</v>
       </c>
-      <c r="F17" t="n">
-        <v>19</v>
-      </c>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -892,24 +945,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
-        <v>-108</v>
-      </c>
       <c r="E18" t="n">
+        <v>-110</v>
+      </c>
+      <c r="F18" t="n">
         <v>-105</v>
       </c>
-      <c r="F18" t="n">
-        <v>18</v>
-      </c>
       <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
         <v>20</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -918,25 +974,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
         <v>-103</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>14</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-114</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>15</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>20</v>
       </c>
-      <c r="H19" t="n">
-        <v>25</v>
+      <c r="I19" t="n">
+        <v>-125</v>
       </c>
     </row>
     <row r="20">
@@ -947,22 +1006,25 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G20" t="n">
         <v>21</v>
       </c>
-      <c r="E20" t="n">
-        <v>-105</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>-109</v>
       </c>
-      <c r="H20" t="n">
-        <v>-134</v>
+      <c r="I20" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -970,25 +1032,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
       <c r="E21" t="n">
+        <v>-106</v>
+      </c>
+      <c r="F21" t="n">
         <v>-105</v>
       </c>
-      <c r="F21" t="n">
-        <v>21</v>
-      </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>-104</v>
+        <v>25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="22">
@@ -996,24 +1061,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="n">
-        <v>-106</v>
-      </c>
       <c r="E22" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F22" t="n">
         <v>24</v>
       </c>
-      <c r="F22" t="n">
-        <v>22</v>
-      </c>
       <c r="G22" t="n">
+        <v>19</v>
+      </c>
+      <c r="H22" t="n">
         <v>21</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1022,25 +1090,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>-103</v>
       </c>
       <c r="D23" t="n">
-        <v>-113</v>
+        <v>22</v>
       </c>
       <c r="E23" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F23" t="n">
         <v>24</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>-103</v>
+        <v>17</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-134</v>
       </c>
     </row>
     <row r="24">
@@ -1048,25 +1119,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
         <v>-104</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>-104</v>
       </c>
       <c r="G24" t="n">
+        <v>13</v>
+      </c>
+      <c r="H24" t="n">
         <v>23</v>
       </c>
-      <c r="H24" t="n">
-        <v>25</v>
+      <c r="I24" t="n">
+        <v>-104</v>
       </c>
     </row>
     <row r="25">
@@ -1074,24 +1148,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
         <v>-103</v>
       </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
       <c r="D25" t="n">
-        <v>-104</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
+        <v>18</v>
+      </c>
+      <c r="F25" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
-        <v>13</v>
-      </c>
       <c r="G25" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="H25" t="n">
+        <v>25</v>
+      </c>
+      <c r="I25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1103,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
         <v>-105</v>
@@ -1115,10 +1192,13 @@
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
         <v>25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="27">
@@ -1126,24 +1206,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
+        <v>-106</v>
+      </c>
+      <c r="F27" t="n">
         <v>-104</v>
       </c>
-      <c r="F27" t="n">
-        <v>17</v>
-      </c>
       <c r="G27" t="n">
+        <v>15</v>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1152,24 +1235,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G28" t="n">
         <v>20</v>
       </c>
-      <c r="D28" t="n">
-        <v>-106</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-113</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15</v>
-      </c>
-      <c r="G28" t="n">
-        <v>25</v>
-      </c>
       <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1178,24 +1264,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-122</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F29" t="n">
         <v>24</v>
       </c>
-      <c r="F29" t="n">
-        <v>20</v>
-      </c>
       <c r="G29" t="n">
+        <v>13</v>
+      </c>
+      <c r="H29" t="n">
         <v>24</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1204,24 +1291,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>-118</v>
-      </c>
-      <c r="D30" t="n">
         <v>-105</v>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F30" t="n">
         <v>-104</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13</v>
       </c>
       <c r="G30" t="n">
         <v>20</v>
       </c>
       <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1230,24 +1318,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>-107</v>
+      </c>
+      <c r="F31" t="n">
         <v>-104</v>
       </c>
-      <c r="D31" t="n">
-        <v>-105</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20</v>
-      </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H31" t="n">
+        <v>18</v>
+      </c>
+      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1256,25 +1345,26 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-105</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>-107</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24</v>
+      </c>
+      <c r="G32" t="n">
         <v>20</v>
       </c>
-      <c r="D32" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E32" t="n">
-        <v>24</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19</v>
-      </c>
-      <c r="G32" t="n">
-        <v>14</v>
-      </c>
       <c r="H32" t="n">
-        <v>-103</v>
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1282,25 +1372,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-107</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
+        <v>-152</v>
+      </c>
+      <c r="F33" t="n">
         <v>-104</v>
       </c>
-      <c r="F33" t="n">
-        <v>20</v>
-      </c>
       <c r="G33" t="n">
-        <v>-103</v>
+        <v>17</v>
       </c>
       <c r="H33" t="n">
-        <v>-112</v>
+        <v>14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -1308,24 +1399,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25</v>
+        <v>-107</v>
       </c>
       <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>-96</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G34" t="n">
         <v>22</v>
       </c>
-      <c r="D34" t="n">
-        <v>-152</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
-      </c>
-      <c r="G34" t="n">
-        <v>17</v>
-      </c>
       <c r="H34" t="n">
+        <v>-103</v>
+      </c>
+      <c r="I34" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1336,21 +1428,24 @@
       <c r="B35" t="n">
         <v>25</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>21</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-104</v>
       </c>
-      <c r="F35" t="n">
-        <v>22</v>
-      </c>
       <c r="G35" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="36">
@@ -1358,22 +1453,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
-        <v>-105</v>
-      </c>
       <c r="F36" t="n">
-        <v>13</v>
+        <v>-104</v>
       </c>
       <c r="G36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H36" t="n">
+        <v>23</v>
+      </c>
+      <c r="I36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1384,20 +1482,21 @@
       <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>13</v>
-      </c>
+      <c r="C37" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
-      </c>
-      <c r="H37" t="n">
+        <v>19</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1406,22 +1505,23 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" t="n">
         <v>-103</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>21</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19</v>
-      </c>
       <c r="G38" t="n">
-        <v>-104</v>
-      </c>
-      <c r="H38" t="n">
+        <v>17</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1432,21 +1532,22 @@
       <c r="B39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>-146</v>
       </c>
-      <c r="E39" t="n">
-        <v>24</v>
-      </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>-104</v>
       </c>
       <c r="G39" t="n">
-        <v>-145</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-103</v>
+        <v>21</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1454,20 +1555,23 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>-111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-104</v>
+        <v>-109</v>
       </c>
       <c r="F40" t="n">
-        <v>21</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+      <c r="G40" t="n">
+        <v>19</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1478,18 +1582,21 @@
       <c r="B41" t="n">
         <v>25</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>-109</v>
-      </c>
+      <c r="C41" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1498,21 +1605,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
+        <v>21</v>
+      </c>
+      <c r="F42" t="n">
         <v>24</v>
       </c>
-      <c r="F42" t="n">
-        <v>11</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>12</v>
+      <c r="G42" t="n">
+        <v>16</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -1522,19 +1632,22 @@
       <c r="B43" t="n">
         <v>25</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>24</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>14</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>24</v>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="44">
@@ -1544,18 +1657,21 @@
       <c r="B44" t="n">
         <v>25</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>-107</v>
       </c>
-      <c r="E44" t="n">
-        <v>-105</v>
-      </c>
       <c r="F44" t="n">
+        <v>24</v>
+      </c>
+      <c r="G44" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1566,19 +1682,22 @@
       <c r="B45" t="n">
         <v>25</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
+        <v>25</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>-107</v>
       </c>
-      <c r="E45" t="n">
-        <v>-103</v>
-      </c>
       <c r="F45" t="n">
-        <v>21</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>-108</v>
+        <v>-105</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -1586,20 +1705,23 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-108</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
         <v>-111</v>
       </c>
-      <c r="E46" t="n">
-        <v>-104</v>
-      </c>
       <c r="F46" t="n">
-        <v>19</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G46" t="n">
+        <v>21</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1608,21 +1730,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
         <v>-112</v>
       </c>
-      <c r="E47" t="n">
-        <v>-105</v>
-      </c>
       <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>-103</v>
+        <v>-104</v>
+      </c>
+      <c r="G47" t="n">
+        <v>19</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1630,21 +1755,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-108</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>-107</v>
       </c>
-      <c r="E48" t="n">
-        <v>24</v>
-      </c>
       <c r="F48" t="n">
-        <v>18</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>-104</v>
+        <v>-105</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1652,21 +1780,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+        <v>-110</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>-111</v>
       </c>
-      <c r="E49" t="n">
-        <v>-103</v>
-      </c>
       <c r="F49" t="n">
-        <v>17</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
         <v>24</v>
+      </c>
+      <c r="G49" t="n">
+        <v>18</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -1676,19 +1807,22 @@
       <c r="B50" t="n">
         <v>25</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
+        <v>25</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>-119</v>
       </c>
-      <c r="E50" t="n">
-        <v>-104</v>
-      </c>
       <c r="F50" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G50" t="n">
         <v>17</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>25</v>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1696,21 +1830,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>-109</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-104</v>
       </c>
-      <c r="F51" t="n">
-        <v>15</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>-103</v>
+      <c r="G51" t="n">
+        <v>17</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -1720,18 +1857,21 @@
       <c r="B52" t="n">
         <v>25</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
-        <v>-107</v>
-      </c>
+      <c r="C52" t="n">
+        <v>25</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G52" t="n">
         <v>16</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1740,60 +1880,73 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+        <v>25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
         <v>-107</v>
       </c>
-      <c r="E53" t="n">
-        <v>-105</v>
-      </c>
       <c r="F53" t="n">
-        <v>17</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>-104</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>-107</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-109</v>
       </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>20</v>
+      </c>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
         <v>-107</v>
       </c>
-      <c r="E55" t="n">
-        <v>24</v>
-      </c>
       <c r="F55" t="n">
-        <v>20</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>-104</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-124</v>
+      </c>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1803,57 +1956,66 @@
         <v>25</v>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>-107</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
+        <v>-108</v>
+      </c>
+      <c r="F56" t="n">
         <v>-104</v>
       </c>
-      <c r="F56" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>-113</v>
+      </c>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>-107</v>
       </c>
-      <c r="E57" t="n">
-        <v>-104</v>
-      </c>
       <c r="F57" t="n">
+        <v>24</v>
+      </c>
+      <c r="G57" t="n">
         <v>-113</v>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>-107</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
+        <v>-131</v>
+      </c>
+      <c r="F58" t="n">
         <v>24</v>
       </c>
-      <c r="F58" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>22</v>
+      </c>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1863,17 +2025,20 @@
         <v>25</v>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>-110</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
+        <v>-107</v>
+      </c>
+      <c r="F59" t="n">
         <v>24</v>
       </c>
-      <c r="F59" t="n">
-        <v>22</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1883,77 +2048,89 @@
         <v>25</v>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
-        <v>16</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>24</v>
+        <v>-107</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>-105</v>
+      </c>
+      <c r="G60" t="n">
+        <v>14</v>
+      </c>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>25</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
         <v>-107</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-105</v>
-      </c>
       <c r="F61" t="n">
-        <v>14</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>-103</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20</v>
+      </c>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-106</v>
+        <v>16</v>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
         <v>-110</v>
       </c>
-      <c r="E62" t="n">
-        <v>-103</v>
-      </c>
       <c r="F62" t="n">
-        <v>20</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>-109</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22</v>
+      </c>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>24</v>
+      </c>
+      <c r="G63" t="n">
         <v>21</v>
       </c>
-      <c r="E63" t="n">
-        <v>-109</v>
-      </c>
-      <c r="F63" t="n">
-        <v>21</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1963,125 +2140,158 @@
         <v>25</v>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
         <v>-107</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>24</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>15</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>25</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
-        <v>-107</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F65" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>-105</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20</v>
+      </c>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>11</v>
+      </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
         <v>-107</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-105</v>
       </c>
-      <c r="F66" t="n">
-        <v>20</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>-137</v>
+      </c>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>-35</v>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>5</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>-105</v>
+        <v>-107</v>
       </c>
       <c r="F67" t="n">
-        <v>-137</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17</v>
+      </c>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>-111</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>25</v>
+      </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>-112</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
+        <v>-107</v>
+      </c>
+      <c r="F68" t="n">
         <v>24</v>
       </c>
-      <c r="F68" t="n">
-        <v>17</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>-136</v>
+      </c>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>25</v>
+      </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>17</v>
+      </c>
+      <c r="F69" t="n">
         <v>-104</v>
       </c>
-      <c r="E69" t="n">
-        <v>24</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-136</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>17</v>
+      </c>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>23</v>
+      </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>-8</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>-104</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>17</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12</v>
+      </c>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2089,17 +2299,18 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="n">
-        <v>21</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>24</v>
       </c>
-      <c r="F71" t="n">
-        <v>12</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>-106</v>
+      </c>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2108,14 +2319,17 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>-107</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9</v>
+      </c>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2124,14 +2338,17 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>24</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>9</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+        <v>-104</v>
+      </c>
+      <c r="G73" t="n">
+        <v>18</v>
+      </c>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2140,14 +2357,15 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>-105</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>20</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G74" t="n">
+        <v>18</v>
+      </c>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2156,14 +2374,15 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>24</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>-111</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>-105</v>
+      </c>
+      <c r="G75" t="n">
+        <v>20</v>
+      </c>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2172,14 +2391,15 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>-104</v>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>19</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-111</v>
+      </c>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2188,14 +2408,15 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>-107</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G77" t="n">
         <v>17</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2204,14 +2425,15 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>-104</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>17</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2220,14 +2442,13 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>-105</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>-110</v>
+        <v>-107</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2236,40 +2457,13 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>-102</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-104</v>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>-105</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2282,7 +2476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,35 +2487,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -2332,24 +2531,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
         <v>-210</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-206</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-206</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2358,25 +2560,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-210</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-208</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>43</v>
       </c>
-      <c r="G3" t="n">
-        <v>48</v>
-      </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -2384,25 +2589,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
         <v>-210</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-270</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-206</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48</v>
+      </c>
+      <c r="I4" t="n">
         <v>39</v>
-      </c>
-      <c r="G4" t="n">
-        <v>48</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -2410,25 +2618,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-220</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-210</v>
       </c>
-      <c r="F5" t="n">
-        <v>23</v>
-      </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H5" t="n">
-        <v>-206</v>
+        <v>47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -2436,25 +2647,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C6" t="n">
         <v>-210</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-208</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>43</v>
       </c>
-      <c r="F6" t="n">
-        <v>41</v>
-      </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="7">
@@ -2462,25 +2676,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
         <v>-214</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>43</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-222</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-210</v>
       </c>
-      <c r="F7" t="n">
-        <v>36</v>
-      </c>
       <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
         <v>-214</v>
       </c>
-      <c r="H7" t="n">
-        <v>-208</v>
+      <c r="I7" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -2491,22 +2708,25 @@
         <v>48</v>
       </c>
       <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>45</v>
       </c>
-      <c r="F8" t="n">
-        <v>40</v>
-      </c>
       <c r="G8" t="n">
+        <v>31</v>
+      </c>
+      <c r="H8" t="n">
         <v>-216</v>
       </c>
-      <c r="H8" t="n">
-        <v>48</v>
+      <c r="I8" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -2514,25 +2734,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
         <v>-208</v>
       </c>
-      <c r="C9" t="n">
-        <v>47</v>
-      </c>
       <c r="D9" t="n">
+        <v>47</v>
+      </c>
+      <c r="E9" t="n">
         <v>-232</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-208</v>
       </c>
-      <c r="F9" t="n">
-        <v>31</v>
-      </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>-266</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="10">
@@ -2540,25 +2763,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-210</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-206</v>
       </c>
-      <c r="F10" t="n">
-        <v>-266</v>
-      </c>
       <c r="G10" t="n">
+        <v>-208</v>
+      </c>
+      <c r="H10" t="n">
         <v>-206</v>
       </c>
-      <c r="H10" t="n">
-        <v>-208</v>
+      <c r="I10" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -2566,25 +2792,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" t="n">
         <v>43</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>45</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-208</v>
       </c>
       <c r="F11" t="n">
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2592,25 +2821,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C12" t="n">
+        <v>48</v>
+      </c>
+      <c r="D12" t="n">
         <v>24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-218</v>
       </c>
       <c r="E12" t="n">
         <v>-210</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>-210</v>
       </c>
       <c r="G12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
         <v>33</v>
       </c>
-      <c r="H12" t="n">
-        <v>47</v>
+      <c r="I12" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="13">
@@ -2618,24 +2850,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C13" t="n">
         <v>-208</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>43</v>
       </c>
-      <c r="D13" t="n">
-        <v>-220</v>
-      </c>
       <c r="E13" t="n">
+        <v>33</v>
+      </c>
+      <c r="F13" t="n">
         <v>45</v>
       </c>
-      <c r="F13" t="n">
-        <v>15</v>
-      </c>
       <c r="G13" t="n">
+        <v>39</v>
+      </c>
+      <c r="H13" t="n">
         <v>43</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2644,24 +2879,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>-230</v>
+      </c>
+      <c r="C14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>43</v>
       </c>
-      <c r="D14" t="n">
-        <v>-210</v>
-      </c>
       <c r="E14" t="n">
+        <v>-218</v>
+      </c>
+      <c r="F14" t="n">
         <v>-208</v>
       </c>
-      <c r="F14" t="n">
-        <v>39</v>
-      </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2670,24 +2908,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
         <v>-206</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>43</v>
       </c>
-      <c r="D15" t="n">
-        <v>-206</v>
-      </c>
       <c r="E15" t="n">
+        <v>-220</v>
+      </c>
+      <c r="F15" t="n">
         <v>-216</v>
       </c>
-      <c r="F15" t="n">
-        <v>33</v>
-      </c>
       <c r="G15" t="n">
+        <v>47</v>
+      </c>
+      <c r="H15" t="n">
         <v>23</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2696,25 +2937,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>-220</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F16" t="n">
         <v>43</v>
       </c>
-      <c r="F16" t="n">
-        <v>47</v>
-      </c>
       <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
         <v>49</v>
       </c>
-      <c r="H16" t="n">
-        <v>-250</v>
+      <c r="I16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2725,22 +2969,25 @@
         <v>48</v>
       </c>
       <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
         <v>39</v>
       </c>
-      <c r="D17" t="n">
-        <v>36</v>
-      </c>
       <c r="E17" t="n">
+        <v>-206</v>
+      </c>
+      <c r="F17" t="n">
         <v>43</v>
       </c>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
       <c r="G17" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H17" t="n">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2748,24 +2995,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C18" t="n">
+        <v>47</v>
+      </c>
+      <c r="D18" t="n">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
-        <v>-216</v>
-      </c>
       <c r="E18" t="n">
+        <v>-220</v>
+      </c>
+      <c r="F18" t="n">
         <v>-210</v>
       </c>
-      <c r="F18" t="n">
-        <v>39</v>
-      </c>
       <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
         <v>43</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2774,25 +3024,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>47</v>
+      </c>
+      <c r="C19" t="n">
         <v>-206</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>40</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-228</v>
       </c>
-      <c r="F19" t="n">
-        <v>32</v>
-      </c>
       <c r="G19" t="n">
+        <v>33</v>
+      </c>
+      <c r="H19" t="n">
         <v>41</v>
       </c>
-      <c r="H19" t="n">
-        <v>46</v>
+      <c r="I19" t="n">
+        <v>-250</v>
       </c>
     </row>
     <row r="20">
@@ -2800,25 +3053,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D20" t="n">
         <v>43</v>
       </c>
-      <c r="D20" t="n">
-        <v>46</v>
-      </c>
       <c r="E20" t="n">
+        <v>42</v>
+      </c>
+      <c r="F20" t="n">
         <v>-210</v>
       </c>
-      <c r="F20" t="n">
-        <v>33</v>
-      </c>
       <c r="G20" t="n">
+        <v>45</v>
+      </c>
+      <c r="H20" t="n">
         <v>-218</v>
       </c>
-      <c r="H20" t="n">
-        <v>-268</v>
+      <c r="I20" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -2826,25 +3082,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-208</v>
+        <v>48</v>
       </c>
       <c r="C21" t="n">
+        <v>48</v>
+      </c>
+      <c r="D21" t="n">
         <v>43</v>
       </c>
-      <c r="D21" t="n">
-        <v>42</v>
-      </c>
       <c r="E21" t="n">
+        <v>-212</v>
+      </c>
+      <c r="F21" t="n">
         <v>-210</v>
       </c>
-      <c r="F21" t="n">
-        <v>45</v>
-      </c>
       <c r="G21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" t="n">
-        <v>-208</v>
+        <v>48</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="22">
@@ -2852,25 +3111,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
+        <v>47</v>
+      </c>
+      <c r="D22" t="n">
         <v>43</v>
       </c>
-      <c r="D22" t="n">
-        <v>-212</v>
-      </c>
       <c r="E22" t="n">
+        <v>-226</v>
+      </c>
+      <c r="F22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="n">
-        <v>47</v>
-      </c>
       <c r="G22" t="n">
+        <v>41</v>
+      </c>
+      <c r="H22" t="n">
         <v>40</v>
       </c>
-      <c r="H22" t="n">
-        <v>45</v>
+      <c r="I22" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -2878,25 +3140,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C23" t="n">
-        <v>43</v>
+        <v>-206</v>
       </c>
       <c r="D23" t="n">
-        <v>-226</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
-        <v>41</v>
-      </c>
       <c r="G23" t="n">
+        <v>37</v>
+      </c>
+      <c r="H23" t="n">
         <v>31</v>
       </c>
-      <c r="H23" t="n">
-        <v>-206</v>
+      <c r="I23" t="n">
+        <v>-268</v>
       </c>
     </row>
     <row r="24">
@@ -2904,25 +3169,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>-208</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>-208</v>
       </c>
       <c r="G24" t="n">
+        <v>28</v>
+      </c>
+      <c r="H24" t="n">
         <v>44</v>
       </c>
-      <c r="H24" t="n">
-        <v>48</v>
+      <c r="I24" t="n">
+        <v>-208</v>
       </c>
     </row>
     <row r="25">
@@ -2930,25 +3198,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>47</v>
+      </c>
+      <c r="C25" t="n">
         <v>-206</v>
       </c>
-      <c r="C25" t="n">
-        <v>43</v>
-      </c>
       <c r="D25" t="n">
-        <v>-208</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
+        <v>39</v>
+      </c>
+      <c r="F25" t="n">
         <v>45</v>
       </c>
-      <c r="F25" t="n">
-        <v>28</v>
-      </c>
       <c r="G25" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="H25" t="n">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="I25" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -2956,13 +3227,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>-210</v>
@@ -2971,10 +3242,13 @@
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H26" t="n">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="27">
@@ -2982,24 +3256,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C27" t="n">
         <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
+        <v>-212</v>
+      </c>
+      <c r="F27" t="n">
         <v>-208</v>
       </c>
-      <c r="F27" t="n">
-        <v>36</v>
-      </c>
       <c r="G27" t="n">
+        <v>33</v>
+      </c>
+      <c r="H27" t="n">
         <v>23</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3008,25 +3285,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C28" t="n">
+        <v>44</v>
+      </c>
+      <c r="D28" t="n">
+        <v>39</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-244</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-226</v>
+      </c>
+      <c r="G28" t="n">
         <v>43</v>
       </c>
-      <c r="D28" t="n">
-        <v>-212</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-226</v>
-      </c>
-      <c r="F28" t="n">
-        <v>33</v>
-      </c>
-      <c r="G28" t="n">
-        <v>48</v>
-      </c>
       <c r="H28" t="n">
         <v>48</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -3034,25 +3314,26 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44</v>
+        <v>-3</v>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-244</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F29" t="n">
         <v>45</v>
       </c>
-      <c r="F29" t="n">
-        <v>43</v>
-      </c>
       <c r="G29" t="n">
+        <v>13</v>
+      </c>
+      <c r="H29" t="n">
         <v>45</v>
       </c>
-      <c r="H29" t="n">
-        <v>47</v>
+      <c r="I29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -3060,25 +3341,26 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>-236</v>
-      </c>
-      <c r="D30" t="n">
         <v>-210</v>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F30" t="n">
         <v>-208</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13</v>
       </c>
       <c r="G30" t="n">
         <v>43</v>
       </c>
       <c r="H30" t="n">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="I30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -3086,25 +3368,26 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>-214</v>
+      </c>
+      <c r="F31" t="n">
         <v>-208</v>
       </c>
-      <c r="D31" t="n">
-        <v>-210</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F31" t="n">
-        <v>43</v>
-      </c>
       <c r="G31" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="I31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -3112,25 +3395,26 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-210</v>
+        <v>46</v>
       </c>
       <c r="C32" t="n">
+        <v>47</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>-214</v>
+      </c>
+      <c r="F32" t="n">
         <v>43</v>
       </c>
-      <c r="D32" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>43</v>
       </c>
-      <c r="F32" t="n">
-        <v>40</v>
-      </c>
-      <c r="G32" t="n">
-        <v>28</v>
-      </c>
       <c r="H32" t="n">
-        <v>-206</v>
+        <v>48</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -3138,25 +3422,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-214</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
+        <v>-304</v>
+      </c>
+      <c r="F33" t="n">
         <v>-208</v>
       </c>
-      <c r="F33" t="n">
-        <v>43</v>
-      </c>
       <c r="G33" t="n">
-        <v>-206</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>-224</v>
+        <v>28</v>
+      </c>
+      <c r="I33" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -3164,25 +3449,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>47</v>
+        <v>-214</v>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-304</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F34" t="n">
         <v>-208</v>
       </c>
-      <c r="F34" t="n">
-        <v>37</v>
-      </c>
       <c r="G34" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H34" t="n">
-        <v>47</v>
+        <v>-206</v>
+      </c>
+      <c r="I34" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -3190,23 +3476,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+        <v>43</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>46</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-208</v>
       </c>
-      <c r="F35" t="n">
-        <v>47</v>
-      </c>
       <c r="G35" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="36">
@@ -3214,23 +3503,26 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>48</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
         <v>42</v>
       </c>
-      <c r="E36" t="n">
-        <v>-210</v>
-      </c>
       <c r="F36" t="n">
-        <v>29</v>
+        <v>-208</v>
       </c>
       <c r="G36" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" t="n">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="I36" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -3240,20 +3532,21 @@
       <c r="B37" t="n">
         <v>48</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>30</v>
-      </c>
+      <c r="C37" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-206</v>
+        <v>44</v>
       </c>
       <c r="F37" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="G37" t="n">
-        <v>47</v>
-      </c>
-      <c r="H37" t="n">
+        <v>41</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3262,23 +3555,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>45</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>46</v>
+      </c>
+      <c r="F38" t="n">
         <v>-206</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>46</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F38" t="n">
-        <v>41</v>
-      </c>
       <c r="G38" t="n">
-        <v>-208</v>
-      </c>
-      <c r="H38" t="n">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="39">
@@ -3286,23 +3580,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+        <v>47</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>-292</v>
       </c>
-      <c r="E39" t="n">
-        <v>45</v>
-      </c>
       <c r="F39" t="n">
-        <v>37</v>
+        <v>-208</v>
       </c>
       <c r="G39" t="n">
-        <v>-290</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-206</v>
+        <v>42</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3310,20 +3605,23 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>-222</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>47</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-208</v>
+        <v>-218</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+        <v>45</v>
+      </c>
+      <c r="G40" t="n">
+        <v>41</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3332,21 +3630,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>-218</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n">
-        <v>41</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>47</v>
+        <v>-208</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -3354,21 +3655,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>30</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>47</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
+        <v>46</v>
+      </c>
+      <c r="F42" t="n">
         <v>45</v>
       </c>
-      <c r="F42" t="n">
-        <v>25</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>22</v>
+      <c r="G42" t="n">
+        <v>35</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -3378,19 +3682,22 @@
       <c r="B43" t="n">
         <v>47</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
+        <v>48</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>46</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>45</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>30</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>45</v>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="44">
@@ -3400,19 +3707,22 @@
       <c r="B44" t="n">
         <v>47</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
+        <v>46</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>-214</v>
       </c>
-      <c r="E44" t="n">
-        <v>-210</v>
-      </c>
       <c r="F44" t="n">
+        <v>45</v>
+      </c>
+      <c r="G44" t="n">
         <v>18</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>48</v>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -3420,21 +3730,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+        <v>47</v>
+      </c>
+      <c r="C45" t="n">
+        <v>47</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>-214</v>
       </c>
-      <c r="E45" t="n">
-        <v>-206</v>
-      </c>
       <c r="F45" t="n">
-        <v>43</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>-216</v>
+        <v>-210</v>
+      </c>
+      <c r="G45" t="n">
+        <v>35</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -3442,20 +3755,23 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+        <v>25</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-216</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
         <v>-222</v>
       </c>
-      <c r="E46" t="n">
-        <v>-208</v>
-      </c>
       <c r="F46" t="n">
-        <v>41</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+        <v>-206</v>
+      </c>
+      <c r="G46" t="n">
+        <v>43</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3464,21 +3780,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>47</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
         <v>-224</v>
       </c>
-      <c r="E47" t="n">
-        <v>-210</v>
-      </c>
       <c r="F47" t="n">
-        <v>29</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>-206</v>
+        <v>-208</v>
+      </c>
+      <c r="G47" t="n">
+        <v>41</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -3486,21 +3805,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-216</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C48" t="n">
+        <v>48</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>-214</v>
       </c>
-      <c r="E48" t="n">
-        <v>45</v>
-      </c>
       <c r="F48" t="n">
-        <v>33</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>-208</v>
+        <v>-210</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -3508,21 +3830,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>-220</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>-222</v>
+      </c>
+      <c r="F49" t="n">
         <v>45</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>-222</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-206</v>
-      </c>
-      <c r="F49" t="n">
-        <v>36</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>44</v>
+      <c r="G49" t="n">
+        <v>33</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -3530,21 +3855,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>46</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>47</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>-238</v>
       </c>
-      <c r="E50" t="n">
-        <v>-208</v>
-      </c>
       <c r="F50" t="n">
-        <v>37</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>44</v>
+        <v>-206</v>
+      </c>
+      <c r="G50" t="n">
+        <v>36</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -3552,21 +3880,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C51" t="n">
+        <v>47</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>-218</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-208</v>
       </c>
-      <c r="F51" t="n">
-        <v>32</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>-206</v>
+      <c r="G51" t="n">
+        <v>37</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -3574,21 +3905,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
-        <v>-214</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C52" t="n">
+        <v>48</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G52" t="n">
         <v>35</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>46</v>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -3596,120 +3930,142 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>48</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
         <v>-214</v>
       </c>
-      <c r="E53" t="n">
-        <v>-210</v>
-      </c>
       <c r="F53" t="n">
-        <v>37</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>-208</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>47</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+        <v>41</v>
+      </c>
+      <c r="C54" t="n">
+        <v>48</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>-214</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-218</v>
       </c>
-      <c r="F54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>43</v>
+      </c>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
         <v>-214</v>
       </c>
-      <c r="E55" t="n">
-        <v>46</v>
-      </c>
       <c r="F55" t="n">
-        <v>43</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>-208</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-248</v>
+      </c>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>-214</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
+        <v>-216</v>
+      </c>
+      <c r="F56" t="n">
         <v>-208</v>
       </c>
-      <c r="F56" t="n">
-        <v>-248</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>-226</v>
+      </c>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>-214</v>
       </c>
-      <c r="E57" t="n">
-        <v>-208</v>
-      </c>
       <c r="F57" t="n">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n">
         <v>-226</v>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>-214</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>-262</v>
       </c>
       <c r="F58" t="n">
-        <v>-226</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>47</v>
+      </c>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3719,97 +4075,112 @@
         <v>48</v>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>-220</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F59" t="n">
-        <v>47</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="G59" t="n">
+        <v>43</v>
+      </c>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
-        <v>33</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>45</v>
+        <v>-214</v>
       </c>
       <c r="F60" t="n">
-        <v>43</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>-210</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30</v>
+      </c>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>47</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
         <v>-214</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-210</v>
-      </c>
       <c r="F61" t="n">
-        <v>30</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>-206</v>
+      </c>
+      <c r="G61" t="n">
+        <v>43</v>
+      </c>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-212</v>
+        <v>33</v>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
         <v>-220</v>
       </c>
-      <c r="E62" t="n">
-        <v>-206</v>
-      </c>
       <c r="F62" t="n">
-        <v>43</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>-218</v>
+      </c>
+      <c r="G62" t="n">
+        <v>47</v>
+      </c>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-208</v>
+        <v>48</v>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>46</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>-218</v>
+        <v>33</v>
       </c>
       <c r="F63" t="n">
         <v>45</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>45</v>
+      </c>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3819,125 +4190,158 @@
         <v>47</v>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
         <v>-214</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>45</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>33</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>38</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
-        <v>-214</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>-210</v>
+      </c>
+      <c r="G65" t="n">
+        <v>43</v>
+      </c>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>23</v>
+      </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
         <v>-214</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-210</v>
       </c>
-      <c r="F66" t="n">
-        <v>43</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>-274</v>
+      </c>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>-69</v>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>12</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>-210</v>
+        <v>-214</v>
       </c>
       <c r="F67" t="n">
-        <v>-274</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="G67" t="n">
+        <v>37</v>
+      </c>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>-222</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>48</v>
+      </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>-224</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
+        <v>-214</v>
+      </c>
+      <c r="F68" t="n">
         <v>43</v>
       </c>
-      <c r="F68" t="n">
-        <v>37</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>-272</v>
+      </c>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>48</v>
+      </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>36</v>
+      </c>
+      <c r="F69" t="n">
         <v>-208</v>
       </c>
-      <c r="E69" t="n">
-        <v>43</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-272</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>37</v>
+      </c>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>43</v>
+      </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>-27</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>-208</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>37</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="G70" t="n">
+        <v>26</v>
+      </c>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3945,17 +4349,18 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="n">
-        <v>46</v>
-      </c>
-      <c r="E71" t="n">
-        <v>45</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>26</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-212</v>
+      </c>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3964,14 +4369,17 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>-214</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>-212</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21</v>
+      </c>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3980,14 +4388,17 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>46</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>21</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+        <v>-208</v>
+      </c>
+      <c r="G73" t="n">
+        <v>39</v>
+      </c>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3996,14 +4407,15 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>-210</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>42</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="G74" t="n">
+        <v>38</v>
+      </c>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4012,14 +4424,15 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>46</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>-222</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>-210</v>
+      </c>
+      <c r="G75" t="n">
+        <v>42</v>
+      </c>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4028,14 +4441,15 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>-208</v>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>41</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-222</v>
+      </c>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4044,14 +4458,15 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>-214</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G77" t="n">
         <v>37</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4060,14 +4475,15 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>-208</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>36</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4076,14 +4492,13 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>-210</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>-220</v>
+        <v>-214</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4092,40 +4507,13 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>-204</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-208</v>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>-210</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>-105</v>
@@ -554,7 +554,7 @@
         <v>-103</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>25</v>
@@ -583,7 +583,7 @@
         <v>-105</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>25</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-103</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>-105</v>
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
         <v>25</v>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>-107</v>
@@ -641,7 +641,7 @@
         <v>-105</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
         <v>-107</v>
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
         <v>-108</v>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C9" t="n">
         <v>-104</v>
@@ -699,7 +699,7 @@
         <v>-104</v>
       </c>
       <c r="G9" t="n">
-        <v>-133</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
@@ -728,7 +728,7 @@
         <v>-103</v>
       </c>
       <c r="G10" t="n">
-        <v>-104</v>
+        <v>-133</v>
       </c>
       <c r="H10" t="n">
         <v>-103</v>
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
@@ -757,7 +757,7 @@
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>-104</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
@@ -786,13 +786,13 @@
         <v>-105</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
         <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -800,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-103</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>-104</v>
@@ -815,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>23</v>
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-115</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>25</v>
@@ -844,13 +844,13 @@
         <v>-104</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
         <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +867,13 @@
         <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>-110</v>
+        <v>-109</v>
       </c>
       <c r="F15" t="n">
         <v>-108</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>25</v>
@@ -896,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
         <v>24</v>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C17" t="n">
         <v>25</v>
@@ -925,13 +925,13 @@
         <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>-103</v>
+        <v>-105</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
         <v>25</v>
@@ -954,19 +954,19 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>-110</v>
+        <v>-103</v>
       </c>
       <c r="F18" t="n">
         <v>-105</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C19" t="n">
         <v>-103</v>
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>-110</v>
       </c>
       <c r="F19" t="n">
         <v>-114</v>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>-125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1003,22 +1003,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
         <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>-105</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>-109</v>
@@ -1032,22 +1032,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="F21" t="n">
         <v>-105</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" t="n">
         <v>25</v>
@@ -1061,28 +1061,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>-113</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
         <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="23">
@@ -1090,28 +1090,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-103</v>
+        <v>-115</v>
       </c>
       <c r="C23" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>-105</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
         <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>-134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1119,28 +1119,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="n">
-        <v>25</v>
-      </c>
-      <c r="D24" t="n">
-        <v>20</v>
-      </c>
       <c r="E24" t="n">
-        <v>-104</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>-104</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
         <v>23</v>
       </c>
       <c r="I24" t="n">
-        <v>-104</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="25">
@@ -1148,22 +1148,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>-103</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>-106</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>-105</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
         <v>25</v>
@@ -1183,22 +1183,22 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>-105</v>
+        <v>-113</v>
       </c>
       <c r="F26" t="n">
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>-105</v>
       </c>
       <c r="H26" t="n">
         <v>25</v>
       </c>
       <c r="I26" t="n">
-        <v>-103</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="27">
@@ -1206,28 +1206,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>-106</v>
+        <v>-105</v>
       </c>
       <c r="F27" t="n">
         <v>-104</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" t="n">
         <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="28">
@@ -1235,22 +1235,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>-122</v>
+        <v>-104</v>
       </c>
       <c r="F28" t="n">
         <v>-113</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
         <v>25</v>
@@ -1264,26 +1264,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>25</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>18</v>
+      </c>
       <c r="E29" t="n">
-        <v>-105</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
         <v>24</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="30">
@@ -1291,12 +1293,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>-105</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-104</v>
+      </c>
       <c r="E30" t="n">
         <v>-105</v>
       </c>
@@ -1304,13 +1308,13 @@
         <v>-104</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="31">
@@ -1318,20 +1322,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>-103</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
       <c r="E31" t="n">
-        <v>-107</v>
+        <v>-106</v>
       </c>
       <c r="F31" t="n">
         <v>-104</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
         <v>18</v>
@@ -1345,20 +1351,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
         <v>25</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
       <c r="E32" t="n">
-        <v>-107</v>
+        <v>-122</v>
       </c>
       <c r="F32" t="n">
         <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
         <v>25</v>
@@ -1375,23 +1383,25 @@
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>-105</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22</v>
+      </c>
       <c r="E33" t="n">
-        <v>-152</v>
+        <v>-105</v>
       </c>
       <c r="F33" t="n">
         <v>-104</v>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H33" t="n">
         <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -1399,20 +1409,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-107</v>
+        <v>-103</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-96</v>
+        <v>-105</v>
       </c>
       <c r="F34" t="n">
         <v>-104</v>
       </c>
       <c r="G34" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H34" t="n">
         <v>-103</v>
@@ -1426,26 +1436,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>-107</v>
       </c>
       <c r="F35" t="n">
         <v>-104</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H35" t="n">
         <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1453,20 +1463,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C36" t="n">
         <v>25</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>-107</v>
       </c>
       <c r="F36" t="n">
         <v>-104</v>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H36" t="n">
         <v>23</v>
@@ -1483,19 +1493,21 @@
         <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>-152</v>
       </c>
       <c r="F37" t="n">
         <v>-105</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="H37" t="n">
+        <v>25</v>
+      </c>
       <c r="I37" t="n">
         <v>25</v>
       </c>
@@ -1512,15 +1524,17 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>21</v>
+        <v>-96</v>
       </c>
       <c r="F38" t="n">
         <v>-103</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>-57</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25</v>
+      </c>
       <c r="I38" t="n">
         <v>25</v>
       </c>
@@ -1530,24 +1544,26 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>-146</v>
+        <v>21</v>
       </c>
       <c r="F39" t="n">
         <v>-104</v>
       </c>
       <c r="G39" t="n">
-        <v>21</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-104</v>
+      </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -1555,22 +1571,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="C40" t="n">
         <v>25</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-109</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
         <v>24</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-145</v>
+      </c>
       <c r="I40" t="n">
         <v>25</v>
       </c>
@@ -1580,20 +1598,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
         <v>-103</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F41" t="n">
         <v>-104</v>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
@@ -1612,17 +1630,17 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
         <v>24</v>
       </c>
       <c r="G42" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="43">
@@ -1643,11 +1661,11 @@
         <v>24</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1655,20 +1673,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
         <v>25</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>-107</v>
+        <v>-146</v>
       </c>
       <c r="F44" t="n">
         <v>24</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
@@ -1687,13 +1705,13 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>-107</v>
+        <v>-111</v>
       </c>
       <c r="F45" t="n">
         <v>-105</v>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
@@ -1705,24 +1723,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
-        <v>-108</v>
+        <v>-103</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>-111</v>
+        <v>-109</v>
       </c>
       <c r="F46" t="n">
         <v>-103</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>25</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="47">
@@ -1730,20 +1748,20 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
         <v>25</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>-112</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
         <v>-104</v>
       </c>
       <c r="G47" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
@@ -1755,24 +1773,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
         <v>25</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>-107</v>
+        <v>21</v>
       </c>
       <c r="F48" t="n">
         <v>-105</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1780,20 +1798,20 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-110</v>
+        <v>-107</v>
       </c>
       <c r="C49" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>-111</v>
+        <v>21</v>
       </c>
       <c r="F49" t="n">
         <v>24</v>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
@@ -1805,24 +1823,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
         <v>25</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>-119</v>
+        <v>-107</v>
       </c>
       <c r="F50" t="n">
         <v>-103</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -1830,24 +1848,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
         <v>25</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>-109</v>
+        <v>-107</v>
       </c>
       <c r="F51" t="n">
         <v>-104</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -1855,20 +1873,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C52" t="n">
         <v>25</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>21</v>
+        <v>-111</v>
       </c>
       <c r="F52" t="n">
         <v>-104</v>
       </c>
       <c r="G52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
@@ -1887,17 +1905,17 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>-107</v>
+        <v>-112</v>
       </c>
       <c r="F53" t="n">
         <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>-104</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="54">
@@ -1905,20 +1923,20 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>-108</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>-107</v>
       </c>
       <c r="F54" t="n">
-        <v>-109</v>
+        <v>-105</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
@@ -1930,18 +1948,20 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>-107</v>
+        <v>-111</v>
       </c>
       <c r="F55" t="n">
-        <v>-104</v>
+        <v>-109</v>
       </c>
       <c r="G55" t="n">
-        <v>-124</v>
+        <v>16</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
@@ -1955,16 +1975,18 @@
       <c r="B56" t="n">
         <v>25</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>-108</v>
+        <v>-119</v>
       </c>
       <c r="F56" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="G56" t="n">
-        <v>-113</v>
+        <v>17</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
@@ -1976,18 +1998,20 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>-107</v>
+        <v>-109</v>
       </c>
       <c r="F57" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="G57" t="n">
-        <v>-113</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
@@ -1999,22 +2023,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25</v>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>-131</v>
+        <v>21</v>
       </c>
       <c r="F58" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="G58" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -2024,7 +2050,9 @@
       <c r="B59" t="n">
         <v>25</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>-103</v>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>-107</v>
@@ -2033,11 +2061,11 @@
         <v>24</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>-124</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>-103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -2047,20 +2075,22 @@
       <c r="B60" t="n">
         <v>25</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>25</v>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>-107</v>
       </c>
       <c r="F60" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="G60" t="n">
-        <v>14</v>
+        <v>-113</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -2070,20 +2100,22 @@
       <c r="B61" t="n">
         <v>25</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>-107</v>
       </c>
       <c r="F61" t="n">
-        <v>-103</v>
+        <v>24</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>-113</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>-103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -2091,22 +2123,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>-110</v>
+        <v>-108</v>
       </c>
       <c r="F62" t="n">
-        <v>-109</v>
+        <v>-105</v>
       </c>
       <c r="G62" t="n">
         <v>22</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -2116,20 +2150,22 @@
       <c r="B63" t="n">
         <v>25</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>-107</v>
       </c>
       <c r="F63" t="n">
-        <v>24</v>
+        <v>-103</v>
       </c>
       <c r="G63" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -2137,18 +2173,20 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25</v>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>-107</v>
+        <v>-131</v>
       </c>
       <c r="F64" t="n">
-        <v>24</v>
+        <v>-109</v>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
@@ -2160,22 +2198,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>21</v>
+        <v>-107</v>
       </c>
       <c r="F65" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="G65" t="n">
         <v>20</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>25</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="66">
@@ -2183,22 +2223,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>-103</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>-107</v>
       </c>
       <c r="F66" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="G66" t="n">
-        <v>-137</v>
+        <v>22</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -2206,22 +2248,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-35</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>-110</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25</v>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>-107</v>
       </c>
       <c r="F67" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>-111</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="68">
@@ -2231,20 +2275,22 @@
       <c r="B68" t="n">
         <v>25</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>-107</v>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>-107</v>
       </c>
       <c r="F68" t="n">
-        <v>24</v>
+        <v>-105</v>
       </c>
       <c r="G68" t="n">
-        <v>-136</v>
+        <v>15</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="69">
@@ -2252,22 +2298,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>-103</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-106</v>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>17</v>
+        <v>-110</v>
       </c>
       <c r="F69" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>17</v>
+        <v>-107</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>-103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
@@ -2275,37 +2323,45 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-104</v>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
         <v>24</v>
       </c>
       <c r="G70" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>25</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>-107</v>
+      </c>
       <c r="F71" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="G71" t="n">
-        <v>-106</v>
+        <v>-137</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
@@ -2316,15 +2372,21 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>20</v>
+      </c>
+      <c r="C72" t="n">
+        <v>25</v>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>-110</v>
+      </c>
       <c r="F72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
@@ -2335,135 +2397,636 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-103</v>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>21</v>
+      </c>
       <c r="F73" t="n">
-        <v>-104</v>
+        <v>-107</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>-136</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>25</v>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>-107</v>
+      </c>
       <c r="F74" t="n">
         <v>24</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>-103</v>
+      </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>-107</v>
+      </c>
       <c r="F75" t="n">
-        <v>-105</v>
+        <v>23</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>-107</v>
+      </c>
       <c r="F76" t="n">
-        <v>24</v>
+        <v>-104</v>
       </c>
       <c r="G76" t="n">
-        <v>-111</v>
+        <v>-106</v>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>25</v>
+      </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>17</v>
+      </c>
       <c r="F77" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="G77" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>25</v>
+      </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
       <c r="F78" t="n">
-        <v>-104</v>
+        <v>-105</v>
       </c>
       <c r="G78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>25</v>
+      </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>-112</v>
+      </c>
       <c r="F79" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18</v>
+      </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>16</v>
+      </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>-104</v>
+      </c>
       <c r="F80" t="n">
+        <v>24</v>
+      </c>
+      <c r="G80" t="n">
+        <v>20</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>25</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F81" t="n">
         <v>-104</v>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>-111</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>25</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>-108</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G82" t="n">
+        <v>19</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>25</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>21</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>21</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-35</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>25</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>25</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G88" t="n">
+        <v>13</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>23</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-102</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>25</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-116</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-103</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2476,7 +3039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>-210</v>
@@ -2604,7 +3167,7 @@
         <v>-206</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
@@ -2618,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>48</v>
@@ -2633,7 +3196,7 @@
         <v>-210</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>47</v>
@@ -2647,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-206</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
         <v>-210</v>
@@ -2662,7 +3225,7 @@
         <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6" t="n">
         <v>47</v>
@@ -2676,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>-214</v>
@@ -2691,7 +3254,7 @@
         <v>-210</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>-214</v>
@@ -2705,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>48</v>
@@ -2720,7 +3283,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
         <v>-216</v>
@@ -2734,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C9" t="n">
         <v>-208</v>
@@ -2749,7 +3312,7 @@
         <v>-208</v>
       </c>
       <c r="G9" t="n">
-        <v>-266</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
         <v>47</v>
@@ -2763,7 +3326,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>47</v>
@@ -2778,7 +3341,7 @@
         <v>-206</v>
       </c>
       <c r="G10" t="n">
-        <v>-208</v>
+        <v>-266</v>
       </c>
       <c r="H10" t="n">
         <v>-206</v>
@@ -2792,7 +3355,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>48</v>
@@ -2807,13 +3370,13 @@
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>39</v>
+        <v>-208</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2821,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>48</v>
@@ -2836,13 +3399,13 @@
         <v>-210</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
         <v>33</v>
       </c>
       <c r="I12" t="n">
-        <v>-208</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -2850,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-206</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>-208</v>
@@ -2865,13 +3428,13 @@
         <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>43</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2879,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-230</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>46</v>
@@ -2894,13 +3457,13 @@
         <v>-208</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14" t="n">
         <v>47</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="15">
@@ -2917,13 +3480,13 @@
         <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>-220</v>
+        <v>-218</v>
       </c>
       <c r="F15" t="n">
         <v>-216</v>
       </c>
       <c r="G15" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
         <v>23</v>
@@ -2937,7 +3500,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
@@ -2946,19 +3509,19 @@
         <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>-210</v>
+        <v>-220</v>
       </c>
       <c r="F16" t="n">
         <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -2966,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C17" t="n">
         <v>48</v>
@@ -2975,13 +3538,13 @@
         <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>-206</v>
+        <v>-210</v>
       </c>
       <c r="F17" t="n">
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3004,19 +3567,19 @@
         <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>-220</v>
+        <v>-206</v>
       </c>
       <c r="F18" t="n">
         <v>-210</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H18" t="n">
         <v>43</v>
       </c>
       <c r="I18" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3024,7 +3587,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C19" t="n">
         <v>-206</v>
@@ -3033,19 +3596,19 @@
         <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>-220</v>
       </c>
       <c r="F19" t="n">
         <v>-228</v>
       </c>
       <c r="G19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
         <v>41</v>
       </c>
       <c r="I19" t="n">
-        <v>-250</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3053,28 +3616,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="D20" t="n">
         <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>-210</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
         <v>-218</v>
       </c>
       <c r="I20" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3082,22 +3645,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>-208</v>
       </c>
       <c r="D21" t="n">
         <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>-212</v>
+        <v>-216</v>
       </c>
       <c r="F21" t="n">
         <v>-210</v>
       </c>
       <c r="G21" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
@@ -3111,28 +3674,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="D22" t="n">
         <v>43</v>
       </c>
       <c r="E22" t="n">
-        <v>-226</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
         <v>40</v>
       </c>
       <c r="I22" t="n">
-        <v>46</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="23">
@@ -3140,28 +3703,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-206</v>
+        <v>-230</v>
       </c>
       <c r="C23" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>-210</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H23" t="n">
         <v>31</v>
       </c>
       <c r="I23" t="n">
-        <v>-268</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -3169,28 +3732,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>-208</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n">
         <v>-208</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H24" t="n">
         <v>44</v>
       </c>
       <c r="I24" t="n">
-        <v>-208</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="25">
@@ -3198,28 +3761,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="C25" t="n">
         <v>-206</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>-212</v>
       </c>
       <c r="F25" t="n">
         <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>-210</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
         <v>47</v>
       </c>
       <c r="I25" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -3227,28 +3790,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
         <v>48</v>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>-210</v>
+        <v>-226</v>
       </c>
       <c r="F26" t="n">
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>36</v>
+        <v>-210</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>-206</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="27">
@@ -3256,28 +3819,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>-212</v>
+        <v>-210</v>
       </c>
       <c r="F27" t="n">
         <v>-208</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H27" t="n">
         <v>23</v>
       </c>
       <c r="I27" t="n">
-        <v>48</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="28">
@@ -3285,22 +3848,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
-        <v>-244</v>
+        <v>-208</v>
       </c>
       <c r="F28" t="n">
         <v>-226</v>
       </c>
       <c r="G28" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -3314,26 +3877,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-3</v>
+        <v>48</v>
       </c>
       <c r="C29" t="n">
         <v>47</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>39</v>
+      </c>
       <c r="E29" t="n">
-        <v>-210</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H29" t="n">
         <v>45</v>
       </c>
       <c r="I29" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="30">
@@ -3341,12 +3906,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-208</v>
+      </c>
       <c r="E30" t="n">
         <v>-210</v>
       </c>
@@ -3354,13 +3921,13 @@
         <v>-208</v>
       </c>
       <c r="G30" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
         <v>43</v>
       </c>
       <c r="I30" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="31">
@@ -3368,20 +3935,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C31" t="n">
-        <v>-206</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43</v>
+      </c>
       <c r="E31" t="n">
-        <v>-214</v>
+        <v>-212</v>
       </c>
       <c r="F31" t="n">
         <v>-208</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H31" t="n">
         <v>39</v>
@@ -3395,26 +3964,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
         <v>47</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>43</v>
+      </c>
       <c r="E32" t="n">
-        <v>-214</v>
+        <v>-244</v>
       </c>
       <c r="F32" t="n">
         <v>43</v>
       </c>
       <c r="G32" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
         <v>48</v>
       </c>
       <c r="I32" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -3422,26 +3993,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" t="n">
-        <v>48</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>-210</v>
+      </c>
+      <c r="D33" t="n">
+        <v>47</v>
+      </c>
       <c r="E33" t="n">
-        <v>-304</v>
+        <v>-210</v>
       </c>
       <c r="F33" t="n">
         <v>-208</v>
       </c>
       <c r="G33" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H33" t="n">
         <v>28</v>
       </c>
       <c r="I33" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -3449,26 +4022,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-214</v>
+        <v>-206</v>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-192</v>
+        <v>-210</v>
       </c>
       <c r="F34" t="n">
         <v>-208</v>
       </c>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H34" t="n">
         <v>-206</v>
       </c>
       <c r="I34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -3476,26 +4049,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F35" t="n">
         <v>-208</v>
       </c>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H35" t="n">
         <v>37</v>
       </c>
       <c r="I35" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -3503,26 +4076,26 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="C36" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>42</v>
+        <v>-214</v>
       </c>
       <c r="F36" t="n">
         <v>-208</v>
       </c>
       <c r="G36" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H36" t="n">
         <v>44</v>
       </c>
       <c r="I36" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
@@ -3530,24 +4103,26 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>44</v>
+        <v>-304</v>
       </c>
       <c r="F37" t="n">
         <v>-210</v>
       </c>
       <c r="G37" t="n">
-        <v>41</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="H37" t="n">
+        <v>48</v>
+      </c>
       <c r="I37" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
@@ -3555,24 +4130,26 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>-192</v>
       </c>
       <c r="F38" t="n">
         <v>-206</v>
       </c>
       <c r="G38" t="n">
-        <v>37</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>-122</v>
+      </c>
+      <c r="H38" t="n">
+        <v>47</v>
+      </c>
       <c r="I38" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -3580,24 +4157,26 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>-292</v>
+        <v>46</v>
       </c>
       <c r="F39" t="n">
         <v>-208</v>
       </c>
       <c r="G39" t="n">
-        <v>42</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-208</v>
+      </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -3605,24 +4184,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="C40" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-218</v>
+        <v>42</v>
       </c>
       <c r="F40" t="n">
         <v>45</v>
       </c>
       <c r="G40" t="n">
-        <v>41</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-290</v>
+      </c>
       <c r="I40" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -3630,20 +4211,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>-206</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F41" t="n">
         <v>-208</v>
       </c>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
@@ -3655,24 +4236,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
         <v>45</v>
       </c>
       <c r="G42" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="43">
@@ -3680,10 +4261,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
@@ -3693,11 +4274,11 @@
         <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -3705,24 +4286,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>-214</v>
+        <v>-292</v>
       </c>
       <c r="F44" t="n">
         <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -3737,17 +4318,17 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>-214</v>
+        <v>-222</v>
       </c>
       <c r="F45" t="n">
         <v>-210</v>
       </c>
       <c r="G45" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -3755,24 +4336,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>-216</v>
+        <v>-206</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>-222</v>
+        <v>-218</v>
       </c>
       <c r="F46" t="n">
         <v>-206</v>
       </c>
       <c r="G46" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>47</v>
+        <v>-224</v>
       </c>
     </row>
     <row r="47">
@@ -3780,20 +4361,20 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>-224</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
         <v>-208</v>
       </c>
       <c r="G47" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
@@ -3805,24 +4386,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="C48" t="n">
         <v>48</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>-214</v>
+        <v>46</v>
       </c>
       <c r="F48" t="n">
         <v>-210</v>
       </c>
       <c r="G48" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -3830,24 +4411,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-220</v>
+        <v>-214</v>
       </c>
       <c r="C49" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>-222</v>
+        <v>46</v>
       </c>
       <c r="F49" t="n">
         <v>45</v>
       </c>
       <c r="G49" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -3855,24 +4436,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>-238</v>
+        <v>-214</v>
       </c>
       <c r="F50" t="n">
         <v>-206</v>
       </c>
       <c r="G50" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -3880,24 +4461,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>-218</v>
+        <v>-214</v>
       </c>
       <c r="F51" t="n">
         <v>-208</v>
       </c>
       <c r="G51" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
@@ -3905,20 +4486,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>46</v>
+        <v>-222</v>
       </c>
       <c r="F52" t="n">
         <v>-208</v>
       </c>
       <c r="G52" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
@@ -3930,24 +4511,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C53" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>-214</v>
+        <v>-224</v>
       </c>
       <c r="F53" t="n">
         <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>-208</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="54">
@@ -3955,24 +4536,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C54" t="n">
-        <v>48</v>
+        <v>-216</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>-214</v>
       </c>
       <c r="F54" t="n">
-        <v>-218</v>
+        <v>-210</v>
       </c>
       <c r="G54" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -3980,22 +4561,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C55" t="n">
+        <v>45</v>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>-214</v>
+        <v>-222</v>
       </c>
       <c r="F55" t="n">
-        <v>-208</v>
+        <v>-218</v>
       </c>
       <c r="G55" t="n">
-        <v>-248</v>
+        <v>35</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -4003,22 +4586,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C56" t="n">
+        <v>46</v>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>-216</v>
+        <v>-238</v>
       </c>
       <c r="F56" t="n">
-        <v>-208</v>
+        <v>46</v>
       </c>
       <c r="G56" t="n">
-        <v>-226</v>
+        <v>37</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
@@ -4026,18 +4611,20 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>48</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>-214</v>
+        <v>-218</v>
       </c>
       <c r="F57" t="n">
-        <v>45</v>
+        <v>-208</v>
       </c>
       <c r="G57" t="n">
-        <v>-226</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
@@ -4049,22 +4636,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="C58" t="n">
+        <v>48</v>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>-262</v>
+        <v>46</v>
       </c>
       <c r="F58" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="G58" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
@@ -4074,7 +4663,9 @@
       <c r="B59" t="n">
         <v>48</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>-206</v>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>-214</v>
@@ -4083,11 +4674,11 @@
         <v>45</v>
       </c>
       <c r="G59" t="n">
-        <v>43</v>
+        <v>-248</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>-206</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -4097,20 +4688,22 @@
       <c r="B60" t="n">
         <v>47</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>47</v>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>-214</v>
       </c>
       <c r="F60" t="n">
-        <v>-210</v>
+        <v>46</v>
       </c>
       <c r="G60" t="n">
-        <v>30</v>
+        <v>-226</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
@@ -4120,20 +4713,22 @@
       <c r="B61" t="n">
         <v>47</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>48</v>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>-214</v>
       </c>
       <c r="F61" t="n">
-        <v>-206</v>
+        <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>43</v>
+        <v>-226</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>-206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -4141,22 +4736,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="C62" t="n">
+        <v>47</v>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>-220</v>
+        <v>-216</v>
       </c>
       <c r="F62" t="n">
-        <v>-218</v>
+        <v>-210</v>
       </c>
       <c r="G62" t="n">
         <v>47</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -4164,22 +4761,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C63" t="n">
+        <v>47</v>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>33</v>
+        <v>-214</v>
       </c>
       <c r="F63" t="n">
-        <v>45</v>
+        <v>-206</v>
       </c>
       <c r="G63" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -4187,22 +4786,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>47</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>47</v>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>-214</v>
+        <v>-262</v>
       </c>
       <c r="F64" t="n">
-        <v>45</v>
+        <v>-218</v>
       </c>
       <c r="G64" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65">
@@ -4210,22 +4811,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="C65" t="n">
+        <v>48</v>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F65" t="n">
-        <v>-210</v>
+        <v>45</v>
       </c>
       <c r="G65" t="n">
         <v>43</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>48</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="66">
@@ -4233,22 +4836,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>-206</v>
+      </c>
+      <c r="C66" t="n">
+        <v>48</v>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>-214</v>
       </c>
       <c r="F66" t="n">
-        <v>-210</v>
+        <v>45</v>
       </c>
       <c r="G66" t="n">
-        <v>-274</v>
+        <v>47</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -4256,22 +4861,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-69</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>-220</v>
+      </c>
+      <c r="C67" t="n">
+        <v>48</v>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>-214</v>
       </c>
       <c r="F67" t="n">
-        <v>43</v>
+        <v>-210</v>
       </c>
       <c r="G67" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>-222</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="68">
@@ -4281,20 +4888,22 @@
       <c r="B68" t="n">
         <v>48</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>-214</v>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>-214</v>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>-210</v>
       </c>
       <c r="G68" t="n">
-        <v>-272</v>
+        <v>33</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="69">
@@ -4302,22 +4911,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>-206</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-212</v>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>36</v>
+        <v>-220</v>
       </c>
       <c r="F69" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="G69" t="n">
-        <v>37</v>
+        <v>-214</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>-206</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -4325,56 +4936,70 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>43</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-208</v>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F70" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G70" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>47</v>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>-214</v>
+      </c>
       <c r="F71" t="n">
-        <v>44</v>
+        <v>-208</v>
       </c>
       <c r="G71" t="n">
-        <v>-212</v>
+        <v>-274</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>41</v>
+      </c>
+      <c r="C72" t="n">
+        <v>47</v>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>-220</v>
+      </c>
       <c r="F72" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G72" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
@@ -4385,135 +5010,636 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>19</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-206</v>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>46</v>
+      </c>
       <c r="F73" t="n">
-        <v>-208</v>
+        <v>-214</v>
       </c>
       <c r="G73" t="n">
-        <v>39</v>
+        <v>-272</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>48</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>48</v>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>-214</v>
+      </c>
       <c r="F74" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>-206</v>
+      </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>-214</v>
+      </c>
       <c r="F75" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="G75" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>33</v>
+      </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>-214</v>
+      </c>
       <c r="F76" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="G76" t="n">
-        <v>-222</v>
+        <v>-212</v>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>48</v>
+      </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>36</v>
+      </c>
       <c r="F77" t="n">
-        <v>-208</v>
+        <v>46</v>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>47</v>
+      </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>12</v>
+      </c>
       <c r="F78" t="n">
-        <v>-208</v>
+        <v>-210</v>
       </c>
       <c r="G78" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>47</v>
+      </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>-224</v>
+      </c>
       <c r="F79" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="G79" t="n">
+        <v>38</v>
+      </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>33</v>
+      </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>-208</v>
+      </c>
       <c r="F80" t="n">
+        <v>46</v>
+      </c>
+      <c r="G80" t="n">
+        <v>42</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>48</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F81" t="n">
         <v>-208</v>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>-222</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>47</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>-216</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G82" t="n">
+        <v>41</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>47</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>46</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G83" t="n">
+        <v>37</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>38</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>-208</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G84" t="n">
+        <v>36</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>-222</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>46</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G85" t="n">
+        <v>37</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-69</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-204</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-208</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>48</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-220</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>48</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G88" t="n">
+        <v>26</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>43</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-204</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>47</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-208</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-232</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-206</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,40 +437,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Social VI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -481,27 +476,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="C2" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>-103</v>
       </c>
       <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
         <v>-103</v>
       </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
       <c r="H2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -513,24 +505,21 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="E3" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F3" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -539,27 +528,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="C4" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>-135</v>
       </c>
       <c r="E4" t="n">
-        <v>-135</v>
+        <v>-103</v>
       </c>
       <c r="F4" t="n">
-        <v>-103</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -568,27 +554,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-110</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-105</v>
-      </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="n">
         <v>25</v>
       </c>
     </row>
@@ -597,27 +580,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="C6" t="n">
-        <v>-105</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>-104</v>
       </c>
       <c r="E6" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
-      </c>
-      <c r="I6" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -626,27 +606,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>-107</v>
       </c>
       <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
         <v>-107</v>
       </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-111</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
       <c r="H7" t="n">
-        <v>-107</v>
-      </c>
-      <c r="I7" t="n">
         <v>25</v>
       </c>
     </row>
@@ -658,24 +635,21 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>-108</v>
       </c>
       <c r="H8" t="n">
-        <v>-108</v>
-      </c>
-      <c r="I8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -684,27 +658,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-116</v>
+      </c>
+      <c r="E9" t="n">
         <v>-104</v>
       </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-116</v>
-      </c>
       <c r="F9" t="n">
-        <v>-104</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -716,24 +687,21 @@
         <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>-105</v>
       </c>
       <c r="E10" t="n">
-        <v>-105</v>
+        <v>-103</v>
       </c>
       <c r="F10" t="n">
+        <v>-133</v>
+      </c>
+      <c r="G10" t="n">
         <v>-103</v>
       </c>
-      <c r="G10" t="n">
-        <v>-133</v>
-      </c>
       <c r="H10" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -745,24 +713,21 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>-104</v>
       </c>
       <c r="F11" t="n">
         <v>-104</v>
       </c>
       <c r="G11" t="n">
-        <v>-104</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -774,24 +739,21 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>-105</v>
       </c>
       <c r="E12" t="n">
         <v>-105</v>
       </c>
       <c r="F12" t="n">
-        <v>-105</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
-      </c>
-      <c r="I12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -800,27 +762,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>-104</v>
       </c>
       <c r="C13" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
-      </c>
-      <c r="I13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -829,27 +788,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>-109</v>
       </c>
       <c r="E14" t="n">
-        <v>-109</v>
+        <v>-104</v>
       </c>
       <c r="F14" t="n">
-        <v>-104</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
-      </c>
-      <c r="I14" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -858,27 +814,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>-103</v>
       </c>
       <c r="C15" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>-109</v>
       </c>
       <c r="E15" t="n">
-        <v>-109</v>
+        <v>-108</v>
       </c>
       <c r="F15" t="n">
-        <v>-108</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -890,24 +843,21 @@
         <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
+        <v>-110</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" t="n">
         <v>22</v>
       </c>
-      <c r="E16" t="n">
-        <v>-110</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>24</v>
       </c>
-      <c r="G16" t="n">
-        <v>22</v>
-      </c>
       <c r="H16" t="n">
-        <v>24</v>
-      </c>
-      <c r="I16" t="n">
         <v>25</v>
       </c>
     </row>
@@ -916,27 +866,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-103</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>-105</v>
       </c>
       <c r="E17" t="n">
-        <v>-105</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="n">
         <v>24</v>
       </c>
-      <c r="G17" t="n">
-        <v>19</v>
-      </c>
       <c r="H17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -945,27 +892,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
         <v>-103</v>
       </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15</v>
-      </c>
       <c r="E18" t="n">
-        <v>-103</v>
+        <v>-105</v>
       </c>
       <c r="F18" t="n">
-        <v>-105</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -977,24 +921,21 @@
         <v>-103</v>
       </c>
       <c r="C19" t="n">
-        <v>-103</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>-110</v>
       </c>
       <c r="E19" t="n">
-        <v>-110</v>
+        <v>-114</v>
       </c>
       <c r="F19" t="n">
-        <v>-114</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1003,27 +944,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>-105</v>
       </c>
       <c r="F20" t="n">
-        <v>-105</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>-109</v>
       </c>
       <c r="H20" t="n">
-        <v>-109</v>
-      </c>
-      <c r="I20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1032,27 +970,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="C21" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>-108</v>
       </c>
       <c r="E21" t="n">
-        <v>-108</v>
+        <v>-105</v>
       </c>
       <c r="F21" t="n">
-        <v>-105</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
-      </c>
-      <c r="I21" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1061,27 +996,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>-103</v>
       </c>
       <c r="C22" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>21</v>
-      </c>
-      <c r="I22" t="n">
         <v>-125</v>
       </c>
     </row>
@@ -1090,27 +1022,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-115</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
-      </c>
-      <c r="I23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1122,24 +1051,21 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>-104</v>
       </c>
       <c r="F24" t="n">
-        <v>-104</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
-      </c>
-      <c r="I24" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1148,27 +1074,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>-103</v>
       </c>
       <c r="C25" t="n">
-        <v>-103</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>-106</v>
       </c>
       <c r="E25" t="n">
-        <v>-106</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>25</v>
-      </c>
-      <c r="I25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1180,24 +1103,21 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>-113</v>
       </c>
       <c r="E26" t="n">
-        <v>-113</v>
+        <v>-105</v>
       </c>
       <c r="F26" t="n">
         <v>-105</v>
       </c>
       <c r="G26" t="n">
-        <v>-105</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
-      </c>
-      <c r="I26" t="n">
         <v>-134</v>
       </c>
     </row>
@@ -1209,24 +1129,21 @@
         <v>-103</v>
       </c>
       <c r="C27" t="n">
-        <v>-103</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>-105</v>
       </c>
       <c r="E27" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F27" t="n">
-        <v>-104</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -1238,24 +1155,21 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>-104</v>
       </c>
       <c r="E28" t="n">
-        <v>-104</v>
+        <v>-113</v>
       </c>
       <c r="F28" t="n">
-        <v>-113</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
-      </c>
-      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1267,24 +1181,21 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
         <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
         <v>24</v>
       </c>
-      <c r="G29" t="n">
-        <v>20</v>
-      </c>
       <c r="H29" t="n">
-        <v>24</v>
-      </c>
-      <c r="I29" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1296,24 +1207,21 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>-118</v>
       </c>
       <c r="D30" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E30" t="n">
         <v>-104</v>
       </c>
-      <c r="E30" t="n">
-        <v>-105</v>
-      </c>
       <c r="F30" t="n">
-        <v>-104</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
-      </c>
-      <c r="I30" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1325,24 +1233,21 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>-104</v>
       </c>
       <c r="D31" t="n">
+        <v>-106</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F31" t="n">
         <v>20</v>
       </c>
-      <c r="E31" t="n">
-        <v>-106</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-104</v>
-      </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
-      </c>
-      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1351,27 +1256,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>-122</v>
       </c>
       <c r="E32" t="n">
-        <v>-122</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
-        <v>25</v>
-      </c>
-      <c r="I32" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1380,27 +1282,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>-105</v>
       </c>
       <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
         <v>-105</v>
       </c>
-      <c r="D33" t="n">
-        <v>22</v>
-      </c>
       <c r="E33" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="F33" t="n">
-        <v>-104</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H33" t="n">
-        <v>14</v>
-      </c>
-      <c r="I33" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1412,22 +1311,21 @@
         <v>-103</v>
       </c>
       <c r="C34" t="n">
+        <v>22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-105</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17</v>
+      </c>
+      <c r="G34" t="n">
         <v>-103</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>-105</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G34" t="n">
-        <v>17</v>
-      </c>
       <c r="H34" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I34" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1436,25 +1334,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>-107</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F35" t="n">
         <v>22</v>
       </c>
-      <c r="C35" t="n">
-        <v>25</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-104</v>
-      </c>
       <c r="G35" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>17</v>
-      </c>
-      <c r="I35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1465,23 +1360,20 @@
       <c r="B36" t="n">
         <v>25</v>
       </c>
-      <c r="C36" t="n">
-        <v>25</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>-107</v>
+      </c>
       <c r="E36" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F36" t="n">
-        <v>-104</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H36" t="n">
-        <v>23</v>
-      </c>
-      <c r="I36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1492,23 +1384,20 @@
       <c r="B37" t="n">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
-        <v>25</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>-152</v>
+      </c>
       <c r="E37" t="n">
-        <v>-152</v>
+        <v>-105</v>
       </c>
       <c r="F37" t="n">
-        <v>-105</v>
+        <v>22</v>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
-        <v>25</v>
-      </c>
-      <c r="I37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1519,23 +1408,20 @@
       <c r="B38" t="n">
         <v>25</v>
       </c>
-      <c r="C38" t="n">
-        <v>25</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>-96</v>
+      </c>
       <c r="E38" t="n">
-        <v>-96</v>
+        <v>-103</v>
       </c>
       <c r="F38" t="n">
-        <v>-103</v>
+        <v>-57</v>
       </c>
       <c r="G38" t="n">
-        <v>-57</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
-      </c>
-      <c r="I38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1546,23 +1432,20 @@
       <c r="B39" t="n">
         <v>-103</v>
       </c>
-      <c r="C39" t="n">
-        <v>-103</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>21</v>
+      </c>
       <c r="E39" t="n">
-        <v>21</v>
+        <v>-104</v>
       </c>
       <c r="F39" t="n">
+        <v>19</v>
+      </c>
+      <c r="G39" t="n">
         <v>-104</v>
       </c>
-      <c r="G39" t="n">
-        <v>19</v>
-      </c>
       <c r="H39" t="n">
-        <v>-104</v>
-      </c>
-      <c r="I39" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1571,25 +1454,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>19</v>
+      </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F40" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>-145</v>
       </c>
       <c r="H40" t="n">
-        <v>-145</v>
-      </c>
-      <c r="I40" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1598,23 +1478,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
-      </c>
-      <c r="C41" t="n">
         <v>-103</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>-104</v>
       </c>
       <c r="F41" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G41" t="n">
         <v>21</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1625,21 +1502,18 @@
       <c r="B42" t="n">
         <v>25</v>
       </c>
-      <c r="C42" t="n">
-        <v>25</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>24</v>
-      </c>
-      <c r="G42" t="n">
         <v>19</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1650,21 +1524,18 @@
       <c r="B43" t="n">
         <v>25</v>
       </c>
-      <c r="C43" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>21</v>
+      </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
-      </c>
-      <c r="G43" t="n">
         <v>11</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1673,23 +1544,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>-146</v>
+      </c>
       <c r="E44" t="n">
-        <v>-146</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
-      </c>
-      <c r="G44" t="n">
         <v>16</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1700,21 +1568,18 @@
       <c r="B45" t="n">
         <v>25</v>
       </c>
-      <c r="C45" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>-111</v>
+      </c>
       <c r="E45" t="n">
-        <v>-111</v>
+        <v>-105</v>
       </c>
       <c r="F45" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G45" t="n">
         <v>14</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1723,23 +1588,20 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
-      </c>
-      <c r="C46" t="n">
         <v>-103</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>-109</v>
+      </c>
       <c r="E46" t="n">
-        <v>-109</v>
+        <v>-103</v>
       </c>
       <c r="F46" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G46" t="n">
         <v>8</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -1750,21 +1612,18 @@
       <c r="B47" t="n">
         <v>25</v>
       </c>
-      <c r="C47" t="n">
-        <v>25</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>-104</v>
       </c>
       <c r="F47" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G47" t="n">
         <v>16</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1775,21 +1634,18 @@
       <c r="B48" t="n">
         <v>25</v>
       </c>
-      <c r="C48" t="n">
-        <v>25</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>21</v>
+      </c>
       <c r="E48" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F48" t="n">
         <v>21</v>
       </c>
-      <c r="F48" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G48" t="n">
-        <v>21</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1798,23 +1654,20 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-107</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>21</v>
+      </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F49" t="n">
-        <v>24</v>
-      </c>
-      <c r="G49" t="n">
         <v>19</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1823,23 +1676,20 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
-      </c>
-      <c r="C50" t="n">
-        <v>25</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>-107</v>
+      </c>
       <c r="E50" t="n">
-        <v>-107</v>
+        <v>-103</v>
       </c>
       <c r="F50" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G50" t="n">
         <v>13</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1850,21 +1700,18 @@
       <c r="B51" t="n">
         <v>25</v>
       </c>
-      <c r="C51" t="n">
-        <v>25</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>-107</v>
+      </c>
       <c r="E51" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F51" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G51" t="n">
         <v>18</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1873,23 +1720,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C52" t="n">
-        <v>25</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>-111</v>
+      </c>
       <c r="E52" t="n">
-        <v>-111</v>
+        <v>-104</v>
       </c>
       <c r="F52" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G52" t="n">
         <v>17</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1900,21 +1744,18 @@
       <c r="B53" t="n">
         <v>25</v>
       </c>
-      <c r="C53" t="n">
-        <v>25</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>-112</v>
+      </c>
       <c r="E53" t="n">
-        <v>-112</v>
+        <v>25</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
-      </c>
-      <c r="G53" t="n">
         <v>17</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1923,23 +1764,20 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
-      </c>
-      <c r="C54" t="n">
         <v>-108</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>-107</v>
+      </c>
       <c r="E54" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F54" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G54" t="n">
         <v>15</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1950,21 +1788,18 @@
       <c r="B55" t="n">
         <v>25</v>
       </c>
-      <c r="C55" t="n">
-        <v>25</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>-111</v>
+      </c>
       <c r="E55" t="n">
-        <v>-111</v>
+        <v>-109</v>
       </c>
       <c r="F55" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G55" t="n">
         <v>16</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1975,21 +1810,18 @@
       <c r="B56" t="n">
         <v>25</v>
       </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>-119</v>
+      </c>
       <c r="E56" t="n">
-        <v>-119</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
-        <v>24</v>
-      </c>
-      <c r="G56" t="n">
         <v>17</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1998,23 +1830,20 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19</v>
-      </c>
-      <c r="C57" t="n">
-        <v>25</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>-109</v>
+      </c>
       <c r="E57" t="n">
-        <v>-109</v>
+        <v>-104</v>
       </c>
       <c r="F57" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2025,21 +1854,18 @@
       <c r="B58" t="n">
         <v>25</v>
       </c>
-      <c r="C58" t="n">
-        <v>25</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>21</v>
+      </c>
       <c r="E58" t="n">
-        <v>21</v>
+        <v>-104</v>
       </c>
       <c r="F58" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G58" t="n">
         <v>20</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2048,23 +1874,20 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25</v>
-      </c>
-      <c r="C59" t="n">
         <v>-103</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>-107</v>
+      </c>
       <c r="E59" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>24</v>
-      </c>
-      <c r="G59" t="n">
         <v>-124</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2075,21 +1898,18 @@
       <c r="B60" t="n">
         <v>25</v>
       </c>
-      <c r="C60" t="n">
-        <v>25</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>-107</v>
+      </c>
       <c r="E60" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>24</v>
-      </c>
-      <c r="G60" t="n">
         <v>-113</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2100,21 +1920,18 @@
       <c r="B61" t="n">
         <v>25</v>
       </c>
-      <c r="C61" t="n">
-        <v>25</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>-107</v>
+      </c>
       <c r="E61" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F61" t="n">
-        <v>24</v>
-      </c>
-      <c r="G61" t="n">
         <v>-113</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2125,21 +1942,18 @@
       <c r="B62" t="n">
         <v>25</v>
       </c>
-      <c r="C62" t="n">
-        <v>25</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>-108</v>
+      </c>
       <c r="E62" t="n">
-        <v>-108</v>
+        <v>-105</v>
       </c>
       <c r="F62" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G62" t="n">
         <v>22</v>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2150,21 +1964,18 @@
       <c r="B63" t="n">
         <v>25</v>
       </c>
-      <c r="C63" t="n">
-        <v>25</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>-107</v>
+      </c>
       <c r="E63" t="n">
-        <v>-107</v>
+        <v>-103</v>
       </c>
       <c r="F63" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G63" t="n">
         <v>20</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2173,23 +1984,20 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
-      </c>
-      <c r="C64" t="n">
-        <v>25</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>-131</v>
+      </c>
       <c r="E64" t="n">
-        <v>-131</v>
+        <v>-109</v>
       </c>
       <c r="F64" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G64" t="n">
         <v>14</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2198,23 +2006,20 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>25</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>-107</v>
+      </c>
+      <c r="E65" t="n">
         <v>24</v>
       </c>
-      <c r="C65" t="n">
-        <v>25</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>-107</v>
-      </c>
       <c r="F65" t="n">
-        <v>24</v>
-      </c>
-      <c r="G65" t="n">
         <v>20</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
         <v>-108</v>
       </c>
     </row>
@@ -2223,23 +2028,20 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C66" t="n">
-        <v>25</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>-107</v>
+      </c>
       <c r="E66" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F66" t="n">
-        <v>24</v>
-      </c>
-      <c r="G66" t="n">
         <v>22</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2248,23 +2050,20 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-110</v>
-      </c>
-      <c r="C67" t="n">
-        <v>25</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>-107</v>
+      </c>
       <c r="E67" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F67" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G67" t="n">
         <v>21</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -2273,23 +2072,20 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
-      </c>
-      <c r="C68" t="n">
         <v>-107</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>-107</v>
+      </c>
       <c r="E68" t="n">
-        <v>-107</v>
+        <v>-105</v>
       </c>
       <c r="F68" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G68" t="n">
         <v>15</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -2298,23 +2094,20 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C69" t="n">
         <v>-106</v>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>-110</v>
+      </c>
       <c r="E69" t="n">
-        <v>-110</v>
+        <v>24</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
-      </c>
-      <c r="G69" t="n">
         <v>-107</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2323,23 +2116,20 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
-      </c>
-      <c r="C70" t="n">
         <v>-104</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>16</v>
+      </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
-      </c>
-      <c r="G70" t="n">
         <v>20</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2350,21 +2140,18 @@
       <c r="B71" t="n">
         <v>25</v>
       </c>
-      <c r="C71" t="n">
-        <v>25</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>-107</v>
+      </c>
       <c r="E71" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F71" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G71" t="n">
         <v>-137</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2373,23 +2160,20 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20</v>
-      </c>
-      <c r="C72" t="n">
-        <v>25</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>-110</v>
+      </c>
       <c r="E72" t="n">
-        <v>-110</v>
+        <v>24</v>
       </c>
       <c r="F72" t="n">
-        <v>24</v>
-      </c>
-      <c r="G72" t="n">
         <v>17</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2398,23 +2182,20 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
-      </c>
-      <c r="C73" t="n">
         <v>-103</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>21</v>
+      </c>
       <c r="E73" t="n">
-        <v>21</v>
+        <v>-107</v>
       </c>
       <c r="F73" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G73" t="n">
         <v>-136</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -2422,611 +2203,319 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>25</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>-107</v>
+      </c>
       <c r="E74" t="n">
-        <v>-107</v>
+        <v>24</v>
       </c>
       <c r="F74" t="n">
-        <v>24</v>
-      </c>
-      <c r="G74" t="n">
         <v>17</v>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>-103</v>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>-103</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>-107</v>
+      </c>
       <c r="E75" t="n">
-        <v>-107</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n">
-        <v>23</v>
-      </c>
-      <c r="G75" t="n">
         <v>12</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
-        <v>-103</v>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>16</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>-107</v>
+      </c>
       <c r="E76" t="n">
-        <v>-107</v>
+        <v>-104</v>
       </c>
       <c r="F76" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G76" t="n">
         <v>-106</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>-103</v>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>25</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F77" t="n">
-        <v>24</v>
-      </c>
-      <c r="G77" t="n">
         <v>9</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>-103</v>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>25</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>-105</v>
       </c>
       <c r="F78" t="n">
+        <v>18</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
         <v>-105</v>
-      </c>
-      <c r="G78" t="n">
-        <v>18</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>25</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>-112</v>
+      </c>
       <c r="E79" t="n">
-        <v>-112</v>
+        <v>22</v>
       </c>
       <c r="F79" t="n">
-        <v>22</v>
-      </c>
-      <c r="G79" t="n">
         <v>18</v>
       </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>16</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>-104</v>
+      </c>
       <c r="E80" t="n">
-        <v>-104</v>
+        <v>24</v>
       </c>
       <c r="F80" t="n">
-        <v>24</v>
-      </c>
-      <c r="G80" t="n">
         <v>20</v>
       </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>25</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>-8</v>
+      </c>
       <c r="E81" t="n">
-        <v>-8</v>
+        <v>-104</v>
       </c>
       <c r="F81" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G81" t="n">
         <v>-111</v>
       </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>25</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>-108</v>
+      </c>
       <c r="E82" t="n">
-        <v>-108</v>
+        <v>-104</v>
       </c>
       <c r="F82" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G82" t="n">
         <v>19</v>
       </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>25</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
       <c r="E83" t="n">
-        <v>21</v>
+        <v>-107</v>
       </c>
       <c r="F83" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G83" t="n">
         <v>17</v>
       </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>25</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>-104</v>
+      </c>
       <c r="E84" t="n">
         <v>-104</v>
       </c>
       <c r="F84" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G84" t="n">
         <v>17</v>
       </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
-        <v>-111</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>11</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>21</v>
+      </c>
       <c r="E85" t="n">
-        <v>21</v>
+        <v>-105</v>
       </c>
       <c r="F85" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G85" t="n">
         <v>20</v>
       </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
-        <v>-103</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>-35</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>-104</v>
+      </c>
       <c r="F86" t="n">
-        <v>-102</v>
-      </c>
-      <c r="G86" t="n">
         <v>-104</v>
       </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>25</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>-102</v>
+      </c>
       <c r="F87" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G87" t="n">
         <v>-110</v>
       </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
-        <v>-103</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>25</v>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>-104</v>
+      </c>
       <c r="F88" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G88" t="n">
         <v>13</v>
       </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
-        <v>-103</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>23</v>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>-107</v>
+      </c>
       <c r="F89" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G89" t="n">
         <v>-102</v>
       </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>25</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
-        <v>-104</v>
-      </c>
+      <c r="E90" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>16</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>-104</v>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-116</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-103</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3039,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,40 +2539,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Social VI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -3094,27 +2578,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>-210</v>
       </c>
       <c r="C2" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>-206</v>
       </c>
       <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
         <v>-206</v>
       </c>
-      <c r="G2" t="n">
-        <v>17</v>
-      </c>
       <c r="H2" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I2" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3123,27 +2604,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-210</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-208</v>
+      </c>
+      <c r="F3" t="n">
         <v>43</v>
       </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-210</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-208</v>
-      </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
-      </c>
-      <c r="I3" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3152,27 +2630,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>-210</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-270</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-206</v>
+      </c>
+      <c r="F4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-270</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-206</v>
-      </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
-      </c>
-      <c r="I4" t="n">
         <v>39</v>
       </c>
     </row>
@@ -3181,27 +2656,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>-220</v>
       </c>
       <c r="E5" t="n">
-        <v>-220</v>
+        <v>-210</v>
       </c>
       <c r="F5" t="n">
-        <v>-210</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3210,27 +2682,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>-210</v>
       </c>
       <c r="C6" t="n">
-        <v>-210</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>-208</v>
       </c>
       <c r="E6" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
-      </c>
-      <c r="I6" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3239,27 +2708,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>-214</v>
       </c>
       <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-222</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
         <v>-214</v>
       </c>
-      <c r="D7" t="n">
-        <v>43</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-222</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G7" t="n">
-        <v>36</v>
-      </c>
       <c r="H7" t="n">
-        <v>-214</v>
-      </c>
-      <c r="I7" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3268,27 +2734,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>-216</v>
       </c>
       <c r="H8" t="n">
-        <v>-216</v>
-      </c>
-      <c r="I8" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3297,27 +2760,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-232</v>
+      </c>
+      <c r="E9" t="n">
         <v>-208</v>
       </c>
-      <c r="D9" t="n">
-        <v>47</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-232</v>
-      </c>
       <c r="F9" t="n">
-        <v>-208</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I9" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3329,24 +2789,21 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>-210</v>
       </c>
       <c r="E10" t="n">
-        <v>-210</v>
+        <v>-206</v>
       </c>
       <c r="F10" t="n">
+        <v>-266</v>
+      </c>
+      <c r="G10" t="n">
         <v>-206</v>
       </c>
-      <c r="G10" t="n">
-        <v>-266</v>
-      </c>
       <c r="H10" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I10" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3358,24 +2815,21 @@
         <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>-208</v>
       </c>
       <c r="F11" t="n">
         <v>-208</v>
       </c>
       <c r="G11" t="n">
-        <v>-208</v>
+        <v>48</v>
       </c>
       <c r="H11" t="n">
-        <v>48</v>
-      </c>
-      <c r="I11" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3384,27 +2838,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>-210</v>
       </c>
       <c r="E12" t="n">
         <v>-210</v>
       </c>
       <c r="F12" t="n">
-        <v>-210</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
-      </c>
-      <c r="I12" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3413,27 +2864,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>-208</v>
       </c>
       <c r="C13" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
         <v>43</v>
       </c>
-      <c r="E13" t="n">
-        <v>33</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15</v>
-      </c>
       <c r="H13" t="n">
-        <v>43</v>
-      </c>
-      <c r="I13" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3442,27 +2890,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>-218</v>
       </c>
       <c r="E14" t="n">
-        <v>-218</v>
+        <v>-208</v>
       </c>
       <c r="F14" t="n">
-        <v>-208</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
-        <v>47</v>
-      </c>
-      <c r="I14" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3471,27 +2916,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>-206</v>
       </c>
       <c r="C15" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>-218</v>
       </c>
       <c r="E15" t="n">
-        <v>-218</v>
+        <v>-216</v>
       </c>
       <c r="F15" t="n">
-        <v>-216</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
-      </c>
-      <c r="I15" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3500,27 +2942,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>-220</v>
       </c>
       <c r="E16" t="n">
-        <v>-220</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
-      </c>
-      <c r="I16" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3529,27 +2968,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-206</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>-210</v>
       </c>
       <c r="E17" t="n">
-        <v>-210</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H17" t="n">
-        <v>48</v>
-      </c>
-      <c r="I17" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3558,27 +2994,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>47</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33</v>
+      </c>
+      <c r="D18" t="n">
         <v>-206</v>
       </c>
-      <c r="C18" t="n">
-        <v>47</v>
-      </c>
-      <c r="D18" t="n">
-        <v>33</v>
-      </c>
       <c r="E18" t="n">
-        <v>-206</v>
+        <v>-210</v>
       </c>
       <c r="F18" t="n">
-        <v>-210</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
-        <v>43</v>
-      </c>
-      <c r="I18" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3590,24 +3023,21 @@
         <v>-206</v>
       </c>
       <c r="C19" t="n">
-        <v>-206</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>-220</v>
       </c>
       <c r="E19" t="n">
-        <v>-220</v>
+        <v>-228</v>
       </c>
       <c r="F19" t="n">
-        <v>-228</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H19" t="n">
-        <v>41</v>
-      </c>
-      <c r="I19" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3616,27 +3046,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>-210</v>
       </c>
       <c r="F20" t="n">
-        <v>-210</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>-218</v>
       </c>
       <c r="H20" t="n">
-        <v>-218</v>
-      </c>
-      <c r="I20" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3645,27 +3072,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-206</v>
+        <v>-208</v>
       </c>
       <c r="C21" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>-216</v>
       </c>
       <c r="E21" t="n">
-        <v>-216</v>
+        <v>-210</v>
       </c>
       <c r="F21" t="n">
-        <v>-210</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H21" t="n">
-        <v>48</v>
-      </c>
-      <c r="I21" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3674,27 +3098,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>-206</v>
       </c>
       <c r="C22" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>40</v>
-      </c>
-      <c r="I22" t="n">
         <v>-250</v>
       </c>
     </row>
@@ -3703,27 +3124,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-230</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>31</v>
-      </c>
-      <c r="I23" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3738,21 +3156,18 @@
         <v>47</v>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>-208</v>
       </c>
       <c r="F24" t="n">
-        <v>-208</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H24" t="n">
-        <v>44</v>
-      </c>
-      <c r="I24" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3761,27 +3176,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-3</v>
+        <v>-206</v>
       </c>
       <c r="C25" t="n">
-        <v>-206</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>-212</v>
       </c>
       <c r="E25" t="n">
-        <v>-212</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H25" t="n">
-        <v>47</v>
-      </c>
-      <c r="I25" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3793,24 +3205,21 @@
         <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>-226</v>
       </c>
       <c r="E26" t="n">
-        <v>-226</v>
+        <v>-210</v>
       </c>
       <c r="F26" t="n">
         <v>-210</v>
       </c>
       <c r="G26" t="n">
-        <v>-210</v>
+        <v>48</v>
       </c>
       <c r="H26" t="n">
-        <v>48</v>
-      </c>
-      <c r="I26" t="n">
         <v>-268</v>
       </c>
     </row>
@@ -3822,24 +3231,21 @@
         <v>-206</v>
       </c>
       <c r="C27" t="n">
-        <v>-206</v>
+        <v>47</v>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="E27" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F27" t="n">
-        <v>-208</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
-      </c>
-      <c r="I27" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3848,27 +3254,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="n">
+        <v>43</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-208</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-226</v>
+      </c>
+      <c r="F28" t="n">
+        <v>33</v>
+      </c>
+      <c r="G28" t="n">
         <v>48</v>
       </c>
-      <c r="D28" t="n">
-        <v>43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-226</v>
-      </c>
-      <c r="G28" t="n">
-        <v>33</v>
-      </c>
       <c r="H28" t="n">
-        <v>48</v>
-      </c>
-      <c r="I28" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3877,27 +3280,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
         <v>39</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
+        <v>43</v>
+      </c>
+      <c r="G29" t="n">
         <v>45</v>
       </c>
-      <c r="G29" t="n">
-        <v>43</v>
-      </c>
       <c r="H29" t="n">
-        <v>45</v>
-      </c>
-      <c r="I29" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3906,27 +3306,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>44</v>
+        <v>-236</v>
       </c>
       <c r="D30" t="n">
+        <v>-210</v>
+      </c>
+      <c r="E30" t="n">
         <v>-208</v>
       </c>
-      <c r="E30" t="n">
-        <v>-210</v>
-      </c>
       <c r="F30" t="n">
-        <v>-208</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H30" t="n">
-        <v>43</v>
-      </c>
-      <c r="I30" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3935,27 +3332,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>47</v>
+        <v>-208</v>
       </c>
       <c r="D31" t="n">
+        <v>-212</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-208</v>
+      </c>
+      <c r="F31" t="n">
         <v>43</v>
       </c>
-      <c r="E31" t="n">
-        <v>-212</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-208</v>
-      </c>
       <c r="G31" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H31" t="n">
-        <v>39</v>
-      </c>
-      <c r="I31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3964,27 +3358,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C32" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" t="n">
+        <v>-244</v>
+      </c>
+      <c r="E32" t="n">
         <v>43</v>
       </c>
-      <c r="E32" t="n">
-        <v>-244</v>
-      </c>
       <c r="F32" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H32" t="n">
-        <v>48</v>
-      </c>
-      <c r="I32" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3993,27 +3384,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
+        <v>-210</v>
       </c>
       <c r="C33" t="n">
+        <v>43</v>
+      </c>
+      <c r="D33" t="n">
         <v>-210</v>
       </c>
-      <c r="D33" t="n">
-        <v>47</v>
-      </c>
       <c r="E33" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="F33" t="n">
-        <v>-208</v>
+        <v>43</v>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H33" t="n">
-        <v>28</v>
-      </c>
-      <c r="I33" t="n">
         <v>41</v>
       </c>
     </row>
@@ -4025,22 +3413,21 @@
         <v>-206</v>
       </c>
       <c r="C34" t="n">
+        <v>47</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-210</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-208</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37</v>
+      </c>
+      <c r="G34" t="n">
         <v>-206</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>-210</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G34" t="n">
-        <v>37</v>
-      </c>
       <c r="H34" t="n">
-        <v>-206</v>
-      </c>
-      <c r="I34" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4049,25 +3436,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45</v>
-      </c>
-      <c r="C35" t="n">
-        <v>47</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>-214</v>
+      </c>
       <c r="E35" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F35" t="n">
-        <v>-208</v>
+        <v>47</v>
       </c>
       <c r="G35" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H35" t="n">
-        <v>37</v>
-      </c>
-      <c r="I35" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4078,23 +3462,20 @@
       <c r="B36" t="n">
         <v>47</v>
       </c>
-      <c r="C36" t="n">
-        <v>47</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>-214</v>
+      </c>
       <c r="E36" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F36" t="n">
-        <v>-208</v>
+        <v>29</v>
       </c>
       <c r="G36" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H36" t="n">
-        <v>44</v>
-      </c>
-      <c r="I36" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4103,25 +3484,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
-      </c>
-      <c r="C37" t="n">
         <v>48</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>-304</v>
+      </c>
       <c r="E37" t="n">
-        <v>-304</v>
+        <v>-210</v>
       </c>
       <c r="F37" t="n">
-        <v>-210</v>
+        <v>47</v>
       </c>
       <c r="G37" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="n">
-        <v>48</v>
-      </c>
-      <c r="I37" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4130,25 +3508,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>47</v>
-      </c>
-      <c r="C38" t="n">
         <v>48</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>-192</v>
+      </c>
       <c r="E38" t="n">
-        <v>-192</v>
+        <v>-206</v>
       </c>
       <c r="F38" t="n">
-        <v>-206</v>
+        <v>-122</v>
       </c>
       <c r="G38" t="n">
-        <v>-122</v>
+        <v>47</v>
       </c>
       <c r="H38" t="n">
-        <v>47</v>
-      </c>
-      <c r="I38" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4159,23 +3534,20 @@
       <c r="B39" t="n">
         <v>-206</v>
       </c>
-      <c r="C39" t="n">
-        <v>-206</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>46</v>
+      </c>
       <c r="E39" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="F39" t="n">
+        <v>41</v>
+      </c>
+      <c r="G39" t="n">
         <v>-208</v>
       </c>
-      <c r="G39" t="n">
-        <v>41</v>
-      </c>
       <c r="H39" t="n">
-        <v>-208</v>
-      </c>
-      <c r="I39" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4184,25 +3556,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-3</v>
-      </c>
-      <c r="C40" t="n">
         <v>48</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>42</v>
+      </c>
       <c r="E40" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G40" t="n">
-        <v>37</v>
+        <v>-290</v>
       </c>
       <c r="H40" t="n">
-        <v>-290</v>
-      </c>
-      <c r="I40" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4211,23 +3580,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23</v>
-      </c>
-      <c r="C41" t="n">
         <v>-206</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>44</v>
+      </c>
       <c r="E41" t="n">
-        <v>44</v>
+        <v>-208</v>
       </c>
       <c r="F41" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G41" t="n">
         <v>42</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4236,23 +3602,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47</v>
-      </c>
-      <c r="C42" t="n">
         <v>36</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>30</v>
+      </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n">
         <v>41</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -4261,23 +3624,20 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
-      </c>
-      <c r="C43" t="n">
         <v>46</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>46</v>
+      </c>
       <c r="E43" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
-      </c>
-      <c r="G43" t="n">
-        <v>25</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4286,23 +3646,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31</v>
-      </c>
-      <c r="C44" t="n">
-        <v>47</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>-292</v>
+      </c>
       <c r="E44" t="n">
-        <v>-292</v>
+        <v>45</v>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
-      </c>
-      <c r="G44" t="n">
         <v>35</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4313,21 +3670,18 @@
       <c r="B45" t="n">
         <v>47</v>
       </c>
-      <c r="C45" t="n">
-        <v>47</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>-222</v>
+      </c>
       <c r="E45" t="n">
-        <v>-222</v>
+        <v>-210</v>
       </c>
       <c r="F45" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G45" t="n">
         <v>30</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4336,23 +3690,20 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
-      </c>
-      <c r="C46" t="n">
         <v>-206</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>-218</v>
+      </c>
       <c r="E46" t="n">
-        <v>-218</v>
+        <v>-206</v>
       </c>
       <c r="F46" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G46" t="n">
         <v>18</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>-224</v>
       </c>
     </row>
@@ -4361,23 +3712,20 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>47</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>30</v>
+      </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>-208</v>
       </c>
       <c r="F47" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G47" t="n">
         <v>35</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4388,21 +3736,18 @@
       <c r="B48" t="n">
         <v>48</v>
       </c>
-      <c r="C48" t="n">
-        <v>48</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
       <c r="E48" t="n">
-        <v>46</v>
+        <v>-210</v>
       </c>
       <c r="F48" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G48" t="n">
         <v>43</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4411,23 +3756,20 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-214</v>
-      </c>
-      <c r="C49" t="n">
-        <v>47</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>46</v>
+      </c>
       <c r="E49" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" t="n">
-        <v>45</v>
-      </c>
-      <c r="G49" t="n">
         <v>41</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4436,23 +3778,20 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>44</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>-214</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-206</v>
+      </c>
+      <c r="F50" t="n">
         <v>29</v>
       </c>
-      <c r="C50" t="n">
-        <v>44</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G50" t="n">
-        <v>29</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4461,23 +3800,20 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>43</v>
-      </c>
-      <c r="C51" t="n">
         <v>46</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>-214</v>
+      </c>
       <c r="E51" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F51" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G51" t="n">
         <v>33</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4486,23 +3822,20 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C52" t="n">
-        <v>47</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>-222</v>
+      </c>
       <c r="E52" t="n">
-        <v>-222</v>
+        <v>-208</v>
       </c>
       <c r="F52" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G52" t="n">
         <v>36</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4511,23 +3844,20 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
-      </c>
-      <c r="C53" t="n">
-        <v>47</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>-224</v>
+      </c>
       <c r="E53" t="n">
-        <v>-224</v>
+        <v>45</v>
       </c>
       <c r="F53" t="n">
-        <v>45</v>
-      </c>
-      <c r="G53" t="n">
         <v>37</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -4536,23 +3866,20 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>45</v>
-      </c>
-      <c r="C54" t="n">
         <v>-216</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>-214</v>
+      </c>
       <c r="E54" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F54" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G54" t="n">
         <v>32</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4561,23 +3888,20 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47</v>
-      </c>
-      <c r="C55" t="n">
         <v>45</v>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>-222</v>
+      </c>
       <c r="E55" t="n">
-        <v>-222</v>
+        <v>-218</v>
       </c>
       <c r="F55" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G55" t="n">
         <v>35</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4586,23 +3910,20 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47</v>
-      </c>
-      <c r="C56" t="n">
         <v>46</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>-238</v>
+      </c>
       <c r="E56" t="n">
-        <v>-238</v>
+        <v>46</v>
       </c>
       <c r="F56" t="n">
-        <v>46</v>
-      </c>
-      <c r="G56" t="n">
         <v>37</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4611,23 +3932,20 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39</v>
-      </c>
-      <c r="C57" t="n">
         <v>48</v>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>-218</v>
+      </c>
       <c r="E57" t="n">
-        <v>-218</v>
+        <v>-208</v>
       </c>
       <c r="F57" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4638,21 +3956,18 @@
       <c r="B58" t="n">
         <v>48</v>
       </c>
-      <c r="C58" t="n">
-        <v>48</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>46</v>
+      </c>
       <c r="E58" t="n">
-        <v>46</v>
+        <v>-208</v>
       </c>
       <c r="F58" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G58" t="n">
         <v>43</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4661,23 +3976,20 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48</v>
-      </c>
-      <c r="C59" t="n">
         <v>-206</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>-214</v>
+      </c>
       <c r="E59" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F59" t="n">
-        <v>45</v>
-      </c>
-      <c r="G59" t="n">
         <v>-248</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
         <v>35</v>
       </c>
     </row>
@@ -4688,21 +4000,18 @@
       <c r="B60" t="n">
         <v>47</v>
       </c>
-      <c r="C60" t="n">
-        <v>47</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>-214</v>
+      </c>
       <c r="E60" t="n">
-        <v>-214</v>
+        <v>46</v>
       </c>
       <c r="F60" t="n">
-        <v>46</v>
-      </c>
-      <c r="G60" t="n">
         <v>-226</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4711,23 +4020,20 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>47</v>
-      </c>
-      <c r="C61" t="n">
         <v>48</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>-214</v>
+      </c>
       <c r="E61" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F61" t="n">
-        <v>45</v>
-      </c>
-      <c r="G61" t="n">
         <v>-226</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4736,23 +4042,20 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
-      </c>
-      <c r="C62" t="n">
-        <v>47</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>-216</v>
+      </c>
       <c r="E62" t="n">
-        <v>-216</v>
+        <v>-210</v>
       </c>
       <c r="F62" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G62" t="n">
-        <v>47</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
+        <v>47</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4763,21 +4066,18 @@
       <c r="B63" t="n">
         <v>47</v>
       </c>
-      <c r="C63" t="n">
-        <v>47</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>-214</v>
+      </c>
       <c r="E63" t="n">
-        <v>-214</v>
+        <v>-206</v>
       </c>
       <c r="F63" t="n">
-        <v>-206</v>
-      </c>
-      <c r="G63" t="n">
         <v>43</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4786,23 +4086,20 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
-      </c>
-      <c r="C64" t="n">
-        <v>47</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>-262</v>
+      </c>
       <c r="E64" t="n">
-        <v>-262</v>
+        <v>-218</v>
       </c>
       <c r="F64" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G64" t="n">
         <v>30</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4811,23 +4108,20 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>48</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>-214</v>
+      </c>
+      <c r="E65" t="n">
         <v>45</v>
       </c>
-      <c r="C65" t="n">
-        <v>48</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>-214</v>
-      </c>
       <c r="F65" t="n">
-        <v>45</v>
-      </c>
-      <c r="G65" t="n">
         <v>43</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
         <v>-216</v>
       </c>
     </row>
@@ -4836,23 +4130,20 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C66" t="n">
         <v>48</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>-214</v>
+      </c>
       <c r="E66" t="n">
-        <v>-214</v>
+        <v>45</v>
       </c>
       <c r="F66" t="n">
-        <v>45</v>
-      </c>
-      <c r="G66" t="n">
-        <v>47</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
+        <v>47</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4861,23 +4152,20 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-220</v>
-      </c>
-      <c r="C67" t="n">
         <v>48</v>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>-214</v>
+      </c>
       <c r="E67" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F67" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G67" t="n">
         <v>45</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -4886,23 +4174,20 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>48</v>
-      </c>
-      <c r="C68" t="n">
         <v>-214</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>-214</v>
+      </c>
       <c r="E68" t="n">
-        <v>-214</v>
+        <v>-210</v>
       </c>
       <c r="F68" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G68" t="n">
         <v>33</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -4911,23 +4196,20 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C69" t="n">
         <v>-212</v>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>-220</v>
+      </c>
       <c r="E69" t="n">
-        <v>-220</v>
+        <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>43</v>
-      </c>
-      <c r="G69" t="n">
         <v>-214</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
         <v>44</v>
       </c>
     </row>
@@ -4936,23 +4218,20 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>47</v>
-      </c>
-      <c r="C70" t="n">
         <v>-208</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>33</v>
+      </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F70" t="n">
         <v>43</v>
       </c>
-      <c r="G70" t="n">
-        <v>43</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4961,23 +4240,20 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
-      </c>
-      <c r="C71" t="n">
-        <v>47</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>-214</v>
+      </c>
       <c r="E71" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F71" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G71" t="n">
         <v>-274</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
         <v>44</v>
       </c>
     </row>
@@ -4986,23 +4262,20 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
-      </c>
-      <c r="C72" t="n">
-        <v>47</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>-220</v>
+      </c>
       <c r="E72" t="n">
-        <v>-220</v>
+        <v>45</v>
       </c>
       <c r="F72" t="n">
-        <v>45</v>
-      </c>
-      <c r="G72" t="n">
         <v>37</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
         <v>47</v>
       </c>
     </row>
@@ -5011,23 +4284,20 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
-      </c>
-      <c r="C73" t="n">
         <v>-206</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>46</v>
+      </c>
       <c r="E73" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F73" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G73" t="n">
         <v>-272</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -5035,611 +4305,319 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>48</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>-214</v>
+      </c>
       <c r="E74" t="n">
-        <v>-214</v>
+        <v>44</v>
       </c>
       <c r="F74" t="n">
-        <v>44</v>
-      </c>
-      <c r="G74" t="n">
         <v>37</v>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>-206</v>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>-206</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>-214</v>
+      </c>
       <c r="E75" t="n">
-        <v>-214</v>
+        <v>43</v>
       </c>
       <c r="F75" t="n">
-        <v>43</v>
-      </c>
-      <c r="G75" t="n">
         <v>26</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
-        <v>-206</v>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>33</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>-214</v>
+      </c>
       <c r="E76" t="n">
-        <v>-214</v>
+        <v>-208</v>
       </c>
       <c r="F76" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G76" t="n">
         <v>-212</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>-206</v>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>48</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>36</v>
+      </c>
       <c r="E77" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F77" t="n">
-        <v>46</v>
-      </c>
-      <c r="G77" t="n">
         <v>21</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>-206</v>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>47</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>12</v>
+      </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>-210</v>
       </c>
       <c r="F78" t="n">
+        <v>39</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
         <v>-210</v>
-      </c>
-      <c r="G78" t="n">
-        <v>39</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>47</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>-224</v>
+      </c>
       <c r="E79" t="n">
-        <v>-224</v>
+        <v>41</v>
       </c>
       <c r="F79" t="n">
-        <v>41</v>
-      </c>
-      <c r="G79" t="n">
         <v>38</v>
       </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>33</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>-208</v>
+      </c>
       <c r="E80" t="n">
-        <v>-208</v>
+        <v>46</v>
       </c>
       <c r="F80" t="n">
-        <v>46</v>
-      </c>
-      <c r="G80" t="n">
         <v>42</v>
       </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>48</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>-27</v>
+      </c>
       <c r="E81" t="n">
-        <v>-27</v>
+        <v>-208</v>
       </c>
       <c r="F81" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G81" t="n">
         <v>-222</v>
       </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>47</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>-216</v>
+      </c>
       <c r="E82" t="n">
-        <v>-216</v>
+        <v>-208</v>
       </c>
       <c r="F82" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G82" t="n">
         <v>41</v>
       </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>47</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>46</v>
+      </c>
       <c r="E83" t="n">
-        <v>46</v>
+        <v>-214</v>
       </c>
       <c r="F83" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G83" t="n">
         <v>37</v>
       </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>38</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>-208</v>
+      </c>
       <c r="E84" t="n">
         <v>-208</v>
       </c>
       <c r="F84" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G84" t="n">
         <v>36</v>
       </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
-        <v>-222</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>23</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>46</v>
+      </c>
       <c r="E85" t="n">
-        <v>46</v>
+        <v>-210</v>
       </c>
       <c r="F85" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G85" t="n">
         <v>37</v>
       </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
-        <v>-206</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>-69</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>-208</v>
+      </c>
       <c r="F86" t="n">
-        <v>-204</v>
-      </c>
-      <c r="G86" t="n">
         <v>-208</v>
       </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>48</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>-204</v>
+      </c>
       <c r="F87" t="n">
-        <v>-208</v>
-      </c>
-      <c r="G87" t="n">
         <v>-220</v>
       </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
-        <v>-206</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>48</v>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>-208</v>
+      </c>
       <c r="F88" t="n">
-        <v>-214</v>
-      </c>
-      <c r="G88" t="n">
         <v>26</v>
       </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
-        <v>-206</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>43</v>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>-214</v>
+      </c>
       <c r="F89" t="n">
-        <v>-210</v>
-      </c>
-      <c r="G89" t="n">
         <v>-204</v>
       </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>47</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
-        <v>-208</v>
-      </c>
+      <c r="E90" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>34</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>-208</v>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-232</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-206</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>-210</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/agent_scores.xlsx
+++ b/data/agent_scores.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,35 +437,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>BestBeta VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -476,24 +486,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
         <v>-105</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>20</v>
       </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-103</v>
-      </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>-103</v>
       </c>
       <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="J2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -502,24 +518,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>-105</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>-104</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -528,24 +550,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
         <v>-105</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>-135</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>-103</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>18</v>
       </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -554,24 +582,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>-110</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>-105</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
         <v>25</v>
       </c>
     </row>
@@ -580,24 +614,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
         <v>-105</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
         <v>-104</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>19</v>
       </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -606,24 +646,30 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
         <v>-107</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>-111</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>-105</v>
       </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="n">
         <v>-107</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>25</v>
       </c>
     </row>
@@ -632,24 +678,30 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>22</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>-108</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -658,24 +710,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>-289</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D9" t="n">
         <v>-104</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>-116</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>-104</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>14</v>
       </c>
-      <c r="G9" t="n">
-        <v>25</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -684,24 +742,30 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>-105</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-103</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-133</v>
       </c>
       <c r="G10" t="n">
         <v>-103</v>
       </c>
       <c r="H10" t="n">
+        <v>-133</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-103</v>
+      </c>
+      <c r="J10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -710,24 +774,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
-        <v>22</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
         <v>-104</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-104</v>
       </c>
-      <c r="G11" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -736,24 +806,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
         <v>-105</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>-105</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
-        <v>16</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -762,24 +838,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
         <v>-104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>24</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -788,24 +870,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>-109</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>-104</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>18</v>
       </c>
-      <c r="G14" t="n">
-        <v>25</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -814,24 +902,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
         <v>-103</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>-109</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-108</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>15</v>
       </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
         <v>25</v>
       </c>
     </row>
@@ -840,24 +934,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>-110</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F16" t="n">
-        <v>22</v>
       </c>
       <c r="G16" t="n">
         <v>24</v>
       </c>
       <c r="H16" t="n">
+        <v>22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+      <c r="J16" t="n">
         <v>25</v>
       </c>
     </row>
@@ -866,24 +966,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>-105</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19</v>
       </c>
       <c r="G17" t="n">
         <v>24</v>
       </c>
       <c r="H17" t="n">
+        <v>20</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -892,24 +998,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>-103</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>-105</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>18</v>
       </c>
-      <c r="G18" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -918,24 +1030,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
         <v>-103</v>
       </c>
-      <c r="C19" t="n">
-        <v>19</v>
-      </c>
       <c r="D19" t="n">
+        <v>-103</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
         <v>-110</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>-114</v>
       </c>
-      <c r="F19" t="n">
-        <v>15</v>
-      </c>
-      <c r="G19" t="n">
-        <v>20</v>
-      </c>
       <c r="H19" t="n">
+        <v>16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21</v>
+      </c>
+      <c r="J19" t="n">
         <v>25</v>
       </c>
     </row>
@@ -944,24 +1062,30 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="n">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>-105</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>15</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-109</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -970,24 +1094,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D21" t="n">
         <v>-104</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>-108</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>-105</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>21</v>
       </c>
-      <c r="G21" t="n">
-        <v>25</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -996,24 +1126,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" t="n">
         <v>-103</v>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="n">
-        <v>14</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" t="n">
         <v>24</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>22</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>21</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>-125</v>
       </c>
     </row>
@@ -1022,24 +1158,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
+        <v>-115</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" t="n">
         <v>20</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>24</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>19</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>17</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1048,24 +1190,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>19</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>-104</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>17</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>23</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1074,24 +1222,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
         <v>-103</v>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>20</v>
       </c>
-      <c r="D25" t="n">
-        <v>-106</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
-        <v>13</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25</v>
-      </c>
       <c r="H25" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1100,24 +1254,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
         <v>-113</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>-105</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>-105</v>
       </c>
-      <c r="G26" t="n">
-        <v>25</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
         <v>-134</v>
       </c>
     </row>
@@ -1126,24 +1286,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="n">
         <v>-103</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
+        <v>-103</v>
+      </c>
+      <c r="E27" t="n">
         <v>22</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
         <v>-105</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>-104</v>
       </c>
-      <c r="F27" t="n">
-        <v>17</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10</v>
-      </c>
       <c r="H27" t="n">
+        <v>18</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -1152,24 +1318,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" t="n">
         <v>20</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>-104</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>-113</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>15</v>
       </c>
-      <c r="G28" t="n">
-        <v>25</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1178,24 +1350,30 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" t="n">
         <v>18</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>18</v>
-      </c>
-      <c r="E29" t="n">
-        <v>24</v>
-      </c>
-      <c r="F29" t="n">
-        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>24</v>
       </c>
       <c r="H29" t="n">
+        <v>20</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1204,24 +1382,30 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>-118</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>-105</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
         <v>-104</v>
       </c>
       <c r="F30" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H30" t="n">
         <v>13</v>
       </c>
-      <c r="G30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
+        <v>21</v>
+      </c>
+      <c r="J30" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1230,24 +1414,30 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
+        <v>25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18</v>
+      </c>
+      <c r="G31" t="n">
         <v>-104</v>
       </c>
-      <c r="D31" t="n">
-        <v>-106</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>20</v>
       </c>
-      <c r="G31" t="n">
-        <v>18</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>19</v>
+      </c>
+      <c r="J31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1256,24 +1446,30 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
         <v>20</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
         <v>-122</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>24</v>
       </c>
-      <c r="F32" t="n">
-        <v>19</v>
-      </c>
-      <c r="G32" t="n">
-        <v>25</v>
-      </c>
       <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1282,24 +1478,30 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-105</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
         <v>-105</v>
       </c>
       <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G33" t="n">
         <v>-104</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>20</v>
       </c>
-      <c r="G33" t="n">
-        <v>14</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
+        <v>16</v>
+      </c>
+      <c r="J33" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1308,24 +1510,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
         <v>-103</v>
       </c>
-      <c r="C34" t="n">
-        <v>22</v>
-      </c>
       <c r="D34" t="n">
+        <v>-103</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
         <v>-105</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>-104</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>17</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>-103</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1334,22 +1540,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22</v>
+      </c>
       <c r="D35" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>17</v>
+      </c>
+      <c r="G35" t="n">
         <v>-104</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>22</v>
       </c>
-      <c r="G35" t="n">
-        <v>17</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>18</v>
+      </c>
+      <c r="J35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1358,22 +1570,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
       <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
         <v>-107</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>-104</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>13</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>23</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1382,22 +1600,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25</v>
+      </c>
       <c r="D37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
         <v>-152</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>-105</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>22</v>
       </c>
-      <c r="G37" t="n">
-        <v>25</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+      <c r="J37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1406,22 +1630,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
       <c r="D38" t="n">
-        <v>-96</v>
-      </c>
-      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-196</v>
+      </c>
+      <c r="G38" t="n">
         <v>-103</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>-57</v>
       </c>
-      <c r="G38" t="n">
-        <v>25</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+      <c r="J38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1430,22 +1660,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" t="n">
         <v>-103</v>
       </c>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>21</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-104</v>
-      </c>
+        <v>-103</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="G39" t="n">
         <v>-104</v>
       </c>
       <c r="H39" t="n">
+        <v>19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-145</v>
+      </c>
+      <c r="J39" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1454,22 +1690,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2</v>
+      </c>
       <c r="D40" t="n">
-        <v>19</v>
-      </c>
-      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>18</v>
+      </c>
+      <c r="G40" t="n">
         <v>24</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>17</v>
       </c>
-      <c r="G40" t="n">
-        <v>-145</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1478,20 +1718,26 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11</v>
+      </c>
+      <c r="D41" t="n">
         <v>-103</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G41" t="n">
         <v>-104</v>
       </c>
-      <c r="F41" t="n">
-        <v>21</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
+        <v>22</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1500,20 +1746,26 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25</v>
+      </c>
       <c r="D42" t="n">
-        <v>13</v>
-      </c>
-      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>12</v>
+      </c>
+      <c r="G42" t="n">
         <v>24</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>19</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1522,20 +1774,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
       <c r="D43" t="n">
-        <v>21</v>
-      </c>
-      <c r="E43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G43" t="n">
         <v>24</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>11</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1544,20 +1802,26 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
       <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
         <v>-146</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>24</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>16</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1566,20 +1830,26 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25</v>
+      </c>
       <c r="D45" t="n">
-        <v>-111</v>
-      </c>
-      <c r="E45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>13</v>
+      </c>
+      <c r="G45" t="n">
         <v>-105</v>
       </c>
-      <c r="F45" t="n">
-        <v>14</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
+        <v>15</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1588,20 +1858,26 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
         <v>-103</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>-109</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>15</v>
+      </c>
+      <c r="G46" t="n">
         <v>-103</v>
       </c>
-      <c r="F46" t="n">
-        <v>8</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
+        <v>9</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -1610,20 +1886,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25</v>
+      </c>
       <c r="D47" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>11</v>
+      </c>
+      <c r="G47" t="n">
         <v>-104</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>16</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1632,20 +1914,26 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25</v>
+      </c>
       <c r="D48" t="n">
-        <v>21</v>
-      </c>
-      <c r="E48" t="n">
+        <v>25</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>19</v>
+      </c>
+      <c r="G48" t="n">
         <v>-105</v>
       </c>
-      <c r="F48" t="n">
-        <v>21</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
+        <v>22</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1654,20 +1942,26 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-107</v>
+      </c>
       <c r="D49" t="n">
-        <v>21</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
         <v>19</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>24</v>
+      </c>
       <c r="H49" t="n">
+        <v>19</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1676,20 +1970,26 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14</v>
+      </c>
       <c r="D50" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E50" t="n">
+        <v>25</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>17</v>
+      </c>
+      <c r="G50" t="n">
         <v>-103</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>13</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1698,20 +1998,26 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
       <c r="D51" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>17</v>
+      </c>
+      <c r="G51" t="n">
         <v>-104</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>18</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1720,20 +2026,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-103</v>
+      </c>
       <c r="D52" t="n">
-        <v>-111</v>
-      </c>
-      <c r="E52" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>13</v>
+      </c>
+      <c r="G52" t="n">
         <v>-104</v>
       </c>
-      <c r="F52" t="n">
-        <v>17</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
+        <v>18</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1742,20 +2054,26 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
       <c r="D53" t="n">
-        <v>-112</v>
-      </c>
-      <c r="E53" t="n">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
+        <v>12</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
         <v>17</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -1764,20 +2082,26 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>14</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
         <v>-108</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>17</v>
+      </c>
+      <c r="G54" t="n">
         <v>-105</v>
       </c>
-      <c r="F54" t="n">
-        <v>15</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
+        <v>16</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1786,20 +2110,26 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
       <c r="D55" t="n">
-        <v>-111</v>
-      </c>
-      <c r="E55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" t="n">
         <v>-109</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>16</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1808,20 +2138,26 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
       <c r="D56" t="n">
-        <v>-119</v>
-      </c>
-      <c r="E56" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
         <v>24</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>17</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1830,20 +2166,26 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19</v>
+      </c>
       <c r="D57" t="n">
-        <v>-109</v>
-      </c>
-      <c r="E57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>15</v>
+      </c>
+      <c r="G57" t="n">
         <v>-104</v>
       </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1852,20 +2194,26 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25</v>
+      </c>
       <c r="D58" t="n">
-        <v>21</v>
-      </c>
-      <c r="E58" t="n">
+        <v>25</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>19</v>
+      </c>
+      <c r="G58" t="n">
         <v>-104</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>20</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1874,20 +2222,26 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25</v>
+      </c>
+      <c r="D59" t="n">
         <v>-103</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
         <v>-107</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>24</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>-124</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1896,20 +2250,26 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25</v>
+      </c>
       <c r="D60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
         <v>-107</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>24</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>-113</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1918,20 +2278,26 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
       <c r="D61" t="n">
+        <v>25</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
         <v>-107</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>24</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>-113</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1940,20 +2306,26 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
       <c r="D62" t="n">
+        <v>25</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
         <v>-108</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>-105</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>22</v>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1962,20 +2334,26 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
       <c r="D63" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
         <v>-107</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>-103</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>20</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1984,20 +2362,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12</v>
+      </c>
       <c r="D64" t="n">
+        <v>25</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
         <v>-131</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>-109</v>
       </c>
-      <c r="F64" t="n">
-        <v>14</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2006,20 +2390,26 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="C65" t="n">
+        <v>24</v>
+      </c>
       <c r="D65" t="n">
+        <v>25</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
         <v>-107</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>24</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>20</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>-108</v>
       </c>
     </row>
@@ -2028,20 +2418,26 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-103</v>
+      </c>
       <c r="D66" t="n">
+        <v>25</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
         <v>-107</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>24</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>22</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2050,20 +2446,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-110</v>
+      </c>
       <c r="D67" t="n">
+        <v>25</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
         <v>-107</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>-105</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>21</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -2072,20 +2474,26 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-107</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
       <c r="D68" t="n">
         <v>-107</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G68" t="n">
         <v>-105</v>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>15</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>-104</v>
       </c>
     </row>
@@ -2094,20 +2502,26 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D69" t="n">
         <v>-106</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>-110</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>24</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>-107</v>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2116,20 +2530,26 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
         <v>-104</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>16</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>15</v>
+      </c>
+      <c r="G70" t="n">
         <v>24</v>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>20</v>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2138,20 +2558,26 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
       <c r="D71" t="n">
+        <v>25</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>-107</v>
       </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
         <v>-104</v>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>-137</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2160,20 +2586,26 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="C72" t="n">
+        <v>20</v>
+      </c>
       <c r="D72" t="n">
+        <v>25</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
         <v>-110</v>
       </c>
-      <c r="E72" t="n">
+      <c r="G72" t="n">
         <v>24</v>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>17</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2182,20 +2614,26 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
+      <c r="D73" t="n">
         <v>-103</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>21</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>19</v>
+      </c>
+      <c r="G73" t="n">
         <v>-107</v>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>-136</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -2203,40 +2641,52 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
+      <c r="B74" t="n">
+        <v>23</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
         <v>-107</v>
       </c>
-      <c r="E74" t="n">
+      <c r="G74" t="n">
         <v>24</v>
       </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
         <v>17</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>25</v>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
+      <c r="B75" t="n">
+        <v>21</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
         <v>-107</v>
       </c>
-      <c r="E75" t="n">
+      <c r="G75" t="n">
         <v>23</v>
       </c>
-      <c r="F75" t="n">
-        <v>12</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="76">
@@ -2244,19 +2694,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
+        <v>16</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
         <v>-107</v>
       </c>
-      <c r="E76" t="n">
+      <c r="G76" t="n">
         <v>-104</v>
       </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
         <v>-106</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>25</v>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="77">
@@ -2264,19 +2718,23 @@
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="n">
-        <v>17</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C77" t="n">
+        <v>25</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>15</v>
+      </c>
+      <c r="G77" t="n">
         <v>24</v>
       </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
         <v>9</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>25</v>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>-103</v>
       </c>
     </row>
     <row r="78">
@@ -2284,19 +2742,23 @@
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>5</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
         <v>-105</v>
       </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
         <v>18</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>-105</v>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -2304,218 +2766,496 @@
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
+        <v>25</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
         <v>-112</v>
       </c>
-      <c r="E79" t="n">
+      <c r="G79" t="n">
         <v>22</v>
       </c>
-      <c r="F79" t="n">
-        <v>18</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>19</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
+        <v>16</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
         <v>-104</v>
       </c>
-      <c r="E80" t="n">
+      <c r="G80" t="n">
         <v>24</v>
       </c>
-      <c r="F80" t="n">
-        <v>20</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>21</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
         <v>-8</v>
       </c>
-      <c r="E81" t="n">
+      <c r="G81" t="n">
         <v>-104</v>
       </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
         <v>-111</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="n">
-        <v>-108</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="C82" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G82" t="n">
         <v>-104</v>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
         <v>19</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="n">
-        <v>21</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="C83" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>19</v>
+      </c>
+      <c r="G83" t="n">
         <v>-107</v>
       </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
         <v>17</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
         <v>-104</v>
       </c>
-      <c r="E84" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F84" t="n">
-        <v>17</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>18</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>-111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="n">
-        <v>21</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-105</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="C85" t="n">
+        <v>11</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H85" t="n">
         <v>20</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>-35</v>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
         <v>-104</v>
       </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
         <v>-104</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>25</v>
+      </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>-102</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-110</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H87" t="n">
+        <v>14</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>25</v>
+      </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F88" t="n">
-        <v>13</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>-105</v>
+      </c>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>-103</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>23</v>
+      </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-102</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>-104</v>
+      </c>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>25</v>
+      </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>-105</v>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>16</v>
+      </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>-104</v>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>-116</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2528,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,35 +3279,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>BestBeta VI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Social VI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>aggressiveBehavior</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>carefulBehavior</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>randomBehavior</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>semiAggressiveBehavior</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>semiCarefulBehavior</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>valueIterationBasedBehavior_v2.1</t>
         </is>
@@ -2578,24 +3328,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
         <v>-210</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-206</v>
-      </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
         <v>-206</v>
       </c>
       <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-206</v>
+      </c>
+      <c r="J2" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2604,24 +3360,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>-210</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>-208</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>43</v>
       </c>
-      <c r="G3" t="n">
-        <v>48</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>48</v>
+      </c>
+      <c r="J3" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2630,24 +3392,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
         <v>-210</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>-270</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>-206</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>39</v>
       </c>
-      <c r="G4" t="n">
-        <v>48</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2656,24 +3424,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48</v>
+      </c>
+      <c r="E5" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>-220</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>-210</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>23</v>
       </c>
-      <c r="G5" t="n">
-        <v>47</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2682,24 +3456,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
         <v>-210</v>
       </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="n">
         <v>-208</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>43</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>41</v>
       </c>
-      <c r="G6" t="n">
-        <v>47</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -2708,24 +3488,30 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>44</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
         <v>-214</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>43</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>-222</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>-210</v>
       </c>
-      <c r="F7" t="n">
-        <v>36</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>37</v>
+      </c>
+      <c r="I7" t="n">
         <v>-214</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2734,24 +3520,30 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" t="n">
         <v>40</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>-216</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2760,24 +3552,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>-578</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D9" t="n">
         <v>-208</v>
       </c>
-      <c r="C9" t="n">
-        <v>47</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>47</v>
+      </c>
+      <c r="F9" t="n">
         <v>-232</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>-208</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>31</v>
       </c>
-      <c r="G9" t="n">
-        <v>47</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>47</v>
+      </c>
+      <c r="J9" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2786,24 +3584,30 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" t="n">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>-210</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-206</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-266</v>
       </c>
       <c r="G10" t="n">
         <v>-206</v>
       </c>
       <c r="H10" t="n">
+        <v>-266</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-206</v>
+      </c>
+      <c r="J10" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2812,24 +3616,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48</v>
+      </c>
+      <c r="E11" t="n">
         <v>43</v>
       </c>
-      <c r="D11" t="n">
-        <v>45</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>46</v>
+      </c>
+      <c r="G11" t="n">
         <v>-208</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-208</v>
       </c>
-      <c r="G11" t="n">
-        <v>48</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2838,24 +3648,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
         <v>-210</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>-210</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>39</v>
       </c>
-      <c r="G12" t="n">
-        <v>33</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
         <v>45</v>
       </c>
     </row>
@@ -2864,24 +3680,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
         <v>-208</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>43</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>33</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>45</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>43</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2890,24 +3712,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>43</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>-218</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>-208</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>39</v>
       </c>
-      <c r="G14" t="n">
-        <v>47</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -2916,24 +3744,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>44</v>
+      </c>
+      <c r="C15" t="n">
+        <v>47</v>
+      </c>
+      <c r="D15" t="n">
         <v>-206</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>43</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>-218</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-216</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>33</v>
       </c>
-      <c r="G15" t="n">
-        <v>23</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>24</v>
+      </c>
+      <c r="J15" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2942,24 +3776,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47</v>
+      </c>
+      <c r="F16" t="n">
         <v>-220</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>43</v>
       </c>
-      <c r="F16" t="n">
-        <v>47</v>
-      </c>
-      <c r="G16" t="n">
-        <v>49</v>
-      </c>
       <c r="H16" t="n">
+        <v>47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48</v>
+      </c>
+      <c r="J16" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2968,24 +3808,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D17" t="n">
+        <v>48</v>
+      </c>
+      <c r="E17" t="n">
         <v>39</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>-210</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>43</v>
       </c>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" t="n">
-        <v>49</v>
-      </c>
       <c r="H17" t="n">
+        <v>41</v>
+      </c>
+      <c r="I17" t="n">
+        <v>48</v>
+      </c>
+      <c r="J17" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2994,24 +3840,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>-206</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>-210</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>39</v>
       </c>
-      <c r="G18" t="n">
-        <v>43</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3020,24 +3872,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>44</v>
+      </c>
+      <c r="C19" t="n">
         <v>-206</v>
       </c>
-      <c r="C19" t="n">
-        <v>40</v>
-      </c>
       <c r="D19" t="n">
+        <v>-206</v>
+      </c>
+      <c r="E19" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" t="n">
         <v>-220</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>-228</v>
       </c>
-      <c r="F19" t="n">
-        <v>32</v>
-      </c>
-      <c r="G19" t="n">
-        <v>41</v>
-      </c>
       <c r="H19" t="n">
+        <v>33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>42</v>
+      </c>
+      <c r="J19" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3046,24 +3904,30 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
+        <v>39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>47</v>
+      </c>
+      <c r="E20" t="n">
         <v>43</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>36</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>-210</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>33</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-218</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3072,24 +3936,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D21" t="n">
         <v>-208</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>43</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>-216</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>-210</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>45</v>
       </c>
-      <c r="G21" t="n">
-        <v>48</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
+        <v>48</v>
+      </c>
+      <c r="J21" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3098,24 +3968,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
         <v>-206</v>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>43</v>
       </c>
-      <c r="D22" t="n">
-        <v>30</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="n">
-        <v>47</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
+        <v>47</v>
+      </c>
+      <c r="I22" t="n">
         <v>40</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>-250</v>
       </c>
     </row>
@@ -3124,24 +4000,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
+        <v>-230</v>
+      </c>
+      <c r="D23" t="n">
+        <v>48</v>
+      </c>
+      <c r="E23" t="n">
         <v>43</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>46</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>41</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>31</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3150,24 +4032,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
         <v>47</v>
       </c>
       <c r="D24" t="n">
+        <v>47</v>
+      </c>
+      <c r="E24" t="n">
+        <v>47</v>
+      </c>
+      <c r="F24" t="n">
         <v>42</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>-208</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>37</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>44</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3176,24 +4064,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>44</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D25" t="n">
         <v>-206</v>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>43</v>
       </c>
-      <c r="D25" t="n">
-        <v>-212</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>42</v>
+      </c>
+      <c r="G25" t="n">
         <v>45</v>
       </c>
-      <c r="F25" t="n">
-        <v>28</v>
-      </c>
-      <c r="G25" t="n">
-        <v>47</v>
-      </c>
       <c r="H25" t="n">
+        <v>29</v>
+      </c>
+      <c r="I25" t="n">
+        <v>47</v>
+      </c>
+      <c r="J25" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3202,24 +4096,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D26" t="n">
+        <v>48</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41</v>
+      </c>
+      <c r="F26" t="n">
         <v>-226</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>-210</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>-210</v>
       </c>
-      <c r="G26" t="n">
-        <v>48</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>48</v>
+      </c>
+      <c r="J26" t="n">
         <v>-268</v>
       </c>
     </row>
@@ -3228,24 +4128,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>44</v>
+      </c>
+      <c r="C27" t="n">
         <v>-206</v>
       </c>
-      <c r="C27" t="n">
-        <v>47</v>
-      </c>
       <c r="D27" t="n">
+        <v>-206</v>
+      </c>
+      <c r="E27" t="n">
+        <v>47</v>
+      </c>
+      <c r="F27" t="n">
         <v>-210</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>-208</v>
       </c>
-      <c r="F27" t="n">
-        <v>36</v>
-      </c>
-      <c r="G27" t="n">
-        <v>23</v>
-      </c>
       <c r="H27" t="n">
+        <v>37</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -3254,24 +4160,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C28" t="n">
+        <v>47</v>
+      </c>
+      <c r="D28" t="n">
+        <v>48</v>
+      </c>
+      <c r="E28" t="n">
         <v>43</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>-208</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>-226</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>33</v>
       </c>
-      <c r="G28" t="n">
-        <v>48</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3280,24 +4192,30 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="n">
+        <v>48</v>
+      </c>
+      <c r="D29" t="n">
+        <v>47</v>
+      </c>
+      <c r="E29" t="n">
         <v>39</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>39</v>
-      </c>
-      <c r="E29" t="n">
-        <v>45</v>
-      </c>
-      <c r="F29" t="n">
-        <v>43</v>
       </c>
       <c r="G29" t="n">
         <v>45</v>
       </c>
       <c r="H29" t="n">
+        <v>43</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3309,21 +4227,27 @@
         <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>-236</v>
+        <v>48</v>
       </c>
       <c r="D30" t="n">
-        <v>-210</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
         <v>-208</v>
       </c>
       <c r="F30" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-208</v>
+      </c>
+      <c r="H30" t="n">
         <v>13</v>
       </c>
-      <c r="G30" t="n">
-        <v>43</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
+        <v>44</v>
+      </c>
+      <c r="J30" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3332,24 +4256,30 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
+        <v>48</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>42</v>
+      </c>
+      <c r="G31" t="n">
         <v>-208</v>
       </c>
-      <c r="D31" t="n">
-        <v>-212</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>43</v>
       </c>
-      <c r="G31" t="n">
-        <v>39</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>40</v>
+      </c>
+      <c r="J31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3358,24 +4288,30 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>-244</v>
+        <v>47</v>
       </c>
       <c r="E32" t="n">
         <v>43</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>-244</v>
       </c>
       <c r="G32" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H32" t="n">
+        <v>41</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48</v>
+      </c>
+      <c r="J32" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3384,24 +4320,30 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-210</v>
+        <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D33" t="n">
         <v>-210</v>
       </c>
       <c r="E33" t="n">
+        <v>47</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G33" t="n">
         <v>-208</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>43</v>
       </c>
-      <c r="G33" t="n">
-        <v>28</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3410,24 +4352,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>45</v>
+      </c>
+      <c r="C34" t="n">
         <v>-206</v>
       </c>
-      <c r="C34" t="n">
-        <v>47</v>
-      </c>
       <c r="D34" t="n">
+        <v>-206</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
         <v>-210</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>-208</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>37</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>-206</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3436,22 +4382,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45</v>
+      </c>
       <c r="D35" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E35" t="n">
+        <v>47</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>40</v>
+      </c>
+      <c r="G35" t="n">
         <v>-208</v>
       </c>
-      <c r="F35" t="n">
-        <v>47</v>
-      </c>
-      <c r="G35" t="n">
-        <v>37</v>
-      </c>
       <c r="H35" t="n">
+        <v>47</v>
+      </c>
+      <c r="I35" t="n">
+        <v>38</v>
+      </c>
+      <c r="J35" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3460,22 +4412,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>47</v>
+      </c>
       <c r="D36" t="n">
+        <v>47</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
         <v>-214</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>-208</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>29</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>44</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3484,22 +4442,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="C37" t="n">
+        <v>44</v>
+      </c>
       <c r="D37" t="n">
+        <v>48</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
         <v>-304</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>-210</v>
       </c>
-      <c r="F37" t="n">
-        <v>47</v>
-      </c>
-      <c r="G37" t="n">
-        <v>48</v>
-      </c>
       <c r="H37" t="n">
+        <v>47</v>
+      </c>
+      <c r="I37" t="n">
+        <v>48</v>
+      </c>
+      <c r="J37" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3508,22 +4472,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>47</v>
+      </c>
       <c r="D38" t="n">
-        <v>-192</v>
-      </c>
-      <c r="E38" t="n">
+        <v>48</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-392</v>
+      </c>
+      <c r="G38" t="n">
         <v>-206</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>-122</v>
       </c>
-      <c r="G38" t="n">
-        <v>47</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>47</v>
+      </c>
+      <c r="J38" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3532,22 +4502,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
         <v>-206</v>
       </c>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>46</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-208</v>
-      </c>
+        <v>-206</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>-210</v>
       </c>
       <c r="G39" t="n">
         <v>-208</v>
       </c>
       <c r="H39" t="n">
+        <v>41</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-290</v>
+      </c>
+      <c r="J39" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3556,22 +4532,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3</v>
+      </c>
       <c r="D40" t="n">
-        <v>42</v>
-      </c>
-      <c r="E40" t="n">
+        <v>48</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>41</v>
+      </c>
+      <c r="G40" t="n">
         <v>45</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>37</v>
       </c>
-      <c r="G40" t="n">
-        <v>-290</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3580,20 +4560,26 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23</v>
+      </c>
+      <c r="D41" t="n">
         <v>-206</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>44</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-212</v>
+      </c>
+      <c r="G41" t="n">
         <v>-208</v>
       </c>
-      <c r="F41" t="n">
-        <v>42</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
+        <v>43</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3602,20 +4588,26 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>44</v>
+      </c>
+      <c r="C42" t="n">
+        <v>47</v>
+      </c>
+      <c r="D42" t="n">
         <v>36</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>30</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n">
         <v>45</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>41</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3624,20 +4616,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="C43" t="n">
+        <v>48</v>
+      </c>
       <c r="D43" t="n">
         <v>46</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G43" t="n">
         <v>45</v>
       </c>
-      <c r="F43" t="n">
-        <v>25</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
+        <v>25</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3646,20 +4644,26 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
       <c r="D44" t="n">
+        <v>47</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
         <v>-292</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>45</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>35</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3668,20 +4672,26 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>47</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="C45" t="n">
+        <v>47</v>
+      </c>
       <c r="D45" t="n">
-        <v>-222</v>
-      </c>
-      <c r="E45" t="n">
+        <v>47</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>32</v>
+      </c>
+      <c r="G45" t="n">
         <v>-210</v>
       </c>
-      <c r="F45" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
+        <v>31</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3690,20 +4700,26 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" t="n">
+        <v>48</v>
+      </c>
+      <c r="D46" t="n">
         <v>-206</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>-218</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>36</v>
+      </c>
+      <c r="G46" t="n">
         <v>-206</v>
       </c>
-      <c r="F46" t="n">
-        <v>18</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
+        <v>19</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>-224</v>
       </c>
     </row>
@@ -3712,20 +4728,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>47</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
       <c r="D47" t="n">
-        <v>30</v>
-      </c>
-      <c r="E47" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>28</v>
+      </c>
+      <c r="G47" t="n">
         <v>-208</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>35</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3734,20 +4756,26 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="C48" t="n">
+        <v>48</v>
+      </c>
       <c r="D48" t="n">
-        <v>46</v>
-      </c>
-      <c r="E48" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>44</v>
+      </c>
+      <c r="G48" t="n">
         <v>-210</v>
       </c>
-      <c r="F48" t="n">
-        <v>43</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
+        <v>44</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3756,20 +4784,26 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-214</v>
+      </c>
       <c r="D49" t="n">
-        <v>46</v>
-      </c>
-      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n">
         <v>45</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>41</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3778,20 +4812,26 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
         <v>44</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>40</v>
+      </c>
+      <c r="G50" t="n">
         <v>-206</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>29</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3800,20 +4840,26 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>40</v>
+      </c>
+      <c r="C51" t="n">
+        <v>43</v>
+      </c>
+      <c r="D51" t="n">
         <v>46</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>40</v>
+      </c>
+      <c r="G51" t="n">
         <v>-208</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>33</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3822,20 +4868,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-206</v>
+      </c>
       <c r="D52" t="n">
-        <v>-222</v>
-      </c>
-      <c r="E52" t="n">
+        <v>47</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>32</v>
+      </c>
+      <c r="G52" t="n">
         <v>-208</v>
       </c>
-      <c r="F52" t="n">
-        <v>36</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
+        <v>37</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3844,20 +4896,26 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="C53" t="n">
+        <v>48</v>
+      </c>
       <c r="D53" t="n">
-        <v>-224</v>
-      </c>
-      <c r="E53" t="n">
+        <v>47</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>30</v>
+      </c>
+      <c r="G53" t="n">
         <v>45</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>37</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -3866,20 +4924,26 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>29</v>
+      </c>
+      <c r="C54" t="n">
+        <v>45</v>
+      </c>
+      <c r="D54" t="n">
         <v>-216</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>-214</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>40</v>
+      </c>
+      <c r="G54" t="n">
         <v>-210</v>
       </c>
-      <c r="F54" t="n">
-        <v>32</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
+        <v>33</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3888,20 +4952,26 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>47</v>
+      </c>
+      <c r="D55" t="n">
         <v>45</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>-222</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>32</v>
+      </c>
+      <c r="G55" t="n">
         <v>-218</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>35</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3910,20 +4980,26 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>35</v>
+      </c>
+      <c r="C56" t="n">
+        <v>47</v>
+      </c>
+      <c r="D56" t="n">
         <v>46</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>-238</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+      <c r="G56" t="n">
         <v>46</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>37</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3932,20 +5008,26 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C57" t="n">
+        <v>39</v>
+      </c>
       <c r="D57" t="n">
-        <v>-218</v>
-      </c>
-      <c r="E57" t="n">
+        <v>48</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>36</v>
+      </c>
+      <c r="G57" t="n">
         <v>-208</v>
       </c>
-      <c r="F57" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3954,20 +5036,26 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C58" t="n">
+        <v>48</v>
+      </c>
       <c r="D58" t="n">
-        <v>46</v>
-      </c>
-      <c r="E58" t="n">
+        <v>48</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>44</v>
+      </c>
+      <c r="G58" t="n">
         <v>-208</v>
       </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
         <v>43</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3976,20 +5064,26 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>42</v>
+      </c>
+      <c r="C59" t="n">
+        <v>48</v>
+      </c>
+      <c r="D59" t="n">
         <v>-206</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
         <v>-214</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>45</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>-248</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3998,20 +5092,26 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C60" t="n">
+        <v>47</v>
+      </c>
       <c r="D60" t="n">
+        <v>47</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
         <v>-214</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>46</v>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>-226</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4020,20 +5120,26 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C61" t="n">
+        <v>47</v>
+      </c>
       <c r="D61" t="n">
+        <v>48</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
         <v>-214</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>45</v>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>-226</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4042,20 +5148,26 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>47</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="C62" t="n">
+        <v>48</v>
+      </c>
       <c r="D62" t="n">
+        <v>47</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
         <v>-216</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>-210</v>
       </c>
-      <c r="F62" t="n">
-        <v>47</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
+        <v>47</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4064,20 +5176,26 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>47</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="C63" t="n">
+        <v>47</v>
+      </c>
       <c r="D63" t="n">
+        <v>47</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
         <v>-214</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>-206</v>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>43</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4086,20 +5204,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>47</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25</v>
+      </c>
       <c r="D64" t="n">
+        <v>47</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
         <v>-262</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>-218</v>
       </c>
-      <c r="F64" t="n">
-        <v>30</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
+        <v>31</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4108,20 +5232,26 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>48</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="C65" t="n">
+        <v>45</v>
+      </c>
       <c r="D65" t="n">
+        <v>48</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
         <v>-214</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>45</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>43</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>-216</v>
       </c>
     </row>
@@ -4130,20 +5260,26 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-206</v>
+      </c>
       <c r="D66" t="n">
+        <v>48</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
         <v>-214</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>45</v>
       </c>
-      <c r="F66" t="n">
-        <v>47</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
+        <v>47</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4152,20 +5288,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>48</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-220</v>
+      </c>
       <c r="D67" t="n">
+        <v>48</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
         <v>-214</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>-210</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>45</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -4174,20 +5316,26 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-214</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="C68" t="n">
+        <v>48</v>
+      </c>
       <c r="D68" t="n">
         <v>-214</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G68" t="n">
         <v>-210</v>
       </c>
-      <c r="F68" t="n">
+      <c r="H68" t="n">
         <v>33</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>-208</v>
       </c>
     </row>
@@ -4196,20 +5344,26 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>40</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D69" t="n">
         <v>-212</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>-220</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>43</v>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>-214</v>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>44</v>
       </c>
     </row>
@@ -4218,20 +5372,26 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>42</v>
+      </c>
+      <c r="C70" t="n">
+        <v>47</v>
+      </c>
+      <c r="D70" t="n">
         <v>-208</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>33</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>32</v>
+      </c>
+      <c r="G70" t="n">
         <v>43</v>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>43</v>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4240,20 +5400,26 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
       <c r="D71" t="n">
+        <v>47</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>-214</v>
       </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
         <v>-208</v>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>-274</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>44</v>
       </c>
     </row>
@@ -4262,20 +5428,26 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>47</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>41</v>
+      </c>
       <c r="D72" t="n">
+        <v>47</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
         <v>-220</v>
       </c>
-      <c r="E72" t="n">
+      <c r="G72" t="n">
         <v>45</v>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>37</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4284,20 +5456,26 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>44</v>
+      </c>
+      <c r="C73" t="n">
+        <v>19</v>
+      </c>
+      <c r="D73" t="n">
         <v>-206</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>46</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>44</v>
+      </c>
+      <c r="G73" t="n">
         <v>-214</v>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>-272</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>-206</v>
       </c>
     </row>
@@ -4305,40 +5483,52 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
+      <c r="B74" t="n">
+        <v>48</v>
+      </c>
+      <c r="C74" t="n">
+        <v>48</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
         <v>-214</v>
       </c>
-      <c r="E74" t="n">
+      <c r="G74" t="n">
         <v>44</v>
       </c>
-      <c r="F74" t="n">
+      <c r="H74" t="n">
         <v>37</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>46</v>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
+      <c r="B75" t="n">
+        <v>38</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
         <v>-214</v>
       </c>
-      <c r="E75" t="n">
+      <c r="G75" t="n">
         <v>43</v>
       </c>
-      <c r="F75" t="n">
-        <v>26</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="76">
@@ -4346,19 +5536,23 @@
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
+        <v>33</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
         <v>-214</v>
       </c>
-      <c r="E76" t="n">
+      <c r="G76" t="n">
         <v>-208</v>
       </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
         <v>-212</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>48</v>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="77">
@@ -4366,19 +5560,23 @@
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="n">
-        <v>36</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C77" t="n">
+        <v>48</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>34</v>
+      </c>
+      <c r="G77" t="n">
         <v>46</v>
       </c>
-      <c r="F77" t="n">
+      <c r="H77" t="n">
         <v>21</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>47</v>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>-206</v>
       </c>
     </row>
     <row r="78">
@@ -4386,19 +5584,23 @@
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="n">
-        <v>12</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="C78" t="n">
+        <v>47</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
         <v>-210</v>
       </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
         <v>39</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>-210</v>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="79">
@@ -4406,218 +5608,496 @@
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
+        <v>47</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
         <v>-224</v>
       </c>
-      <c r="E79" t="n">
+      <c r="G79" t="n">
         <v>41</v>
       </c>
-      <c r="F79" t="n">
-        <v>38</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>39</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
+        <v>33</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
         <v>-208</v>
       </c>
-      <c r="E80" t="n">
+      <c r="G80" t="n">
         <v>46</v>
       </c>
-      <c r="F80" t="n">
-        <v>42</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>43</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
+        <v>48</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
         <v>-27</v>
       </c>
-      <c r="E81" t="n">
+      <c r="G81" t="n">
         <v>-208</v>
       </c>
-      <c r="F81" t="n">
+      <c r="H81" t="n">
         <v>-222</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="n">
-        <v>-216</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="C82" t="n">
+        <v>47</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G82" t="n">
         <v>-208</v>
       </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
         <v>41</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="n">
-        <v>46</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="C83" t="n">
+        <v>47</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>44</v>
+      </c>
+      <c r="G83" t="n">
         <v>-214</v>
       </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
         <v>37</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
+        <v>38</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
         <v>-208</v>
       </c>
-      <c r="E84" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F84" t="n">
-        <v>36</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>37</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>-222</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="n">
-        <v>46</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-210</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="C85" t="n">
+        <v>23</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>-208</v>
+      </c>
+      <c r="H85" t="n">
         <v>37</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>-69</v>
+      </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
         <v>-208</v>
       </c>
-      <c r="F86" t="n">
+      <c r="H86" t="n">
         <v>-208</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>48</v>
+      </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>-204</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-220</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>-214</v>
+      </c>
+      <c r="H87" t="n">
+        <v>27</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>48</v>
+      </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>-208</v>
-      </c>
-      <c r="F88" t="n">
-        <v>26</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>-210</v>
+      </c>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>-206</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>43</v>
+      </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>-214</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-204</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>-208</v>
+      </c>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>47</v>
+      </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>-210</v>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>34</v>
+      </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>-208</v>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>-232</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>-206</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
